--- a/TestDatas/api_info.xlsx
+++ b/TestDatas/api_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>case_id</t>
   </si>
@@ -165,6 +165,98 @@
     <t>{"nickname":"12345678900987654321","mobile":"${init_phone_1}","password":"123456","code":""}</t>
   </si>
   <si>
+    <t>登录
+密码登录</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>login/password</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/login/password</t>
+  </si>
+  <si>
+    <t>{"mobile":"${init_phone}","password":""}</t>
+  </si>
+  <si>
+    <t>"code":40000</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>{"mobile":"${init_phone}","password":"654321"}</t>
+  </si>
+  <si>
+    <t>手机号未注册</t>
+  </si>
+  <si>
+    <t>{"mobile":"13801111145","password":"123456"}</t>
+  </si>
+  <si>
+    <t>"code":40037</t>
+  </si>
+  <si>
+    <t>手机号格式错误</t>
+  </si>
+  <si>
+    <t>{"mobile":"1380111114","password":"123456"}</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>{"mobile":"","password":"123456"}</t>
+  </si>
+  <si>
+    <t>密码 - 正常登录</t>
+  </si>
+  <si>
+    <t>{"mobile":"${init_phone}","password":"123456"}</t>
+  </si>
+  <si>
+    <t>登录
+验证码登录</t>
+  </si>
+  <si>
+    <t>login/verifycode</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/login/verifycode</t>
+  </si>
+  <si>
+    <t>{"mobile":"13801121155","code":"1234"}</t>
+  </si>
+  <si>
+    <t>{"mobile":"1380112115","code":"1234"}</t>
+  </si>
+  <si>
+    <t>{"mobile":"","code":"1234"}</t>
+  </si>
+  <si>
+    <t>{"mobile":"${init_phone}","register":"false","code"}</t>
+  </si>
+  <si>
+    <t>验证码为空</t>
+  </si>
+  <si>
+    <t>{"mobile":"${init_phone}","code":""}</t>
+  </si>
+  <si>
+    <t>{"mobile":"${init_phone}","register":"false"}</t>
+  </si>
+  <si>
+    <t>{"mobile":"${init_phone}","code":"4321"}</t>
+  </si>
+  <si>
+    <t>验证码 - 正常登录</t>
+  </si>
+  <si>
+    <t>{"mobile":"${init_phone}","code":"1234"}</t>
+  </si>
+  <si>
     <t>成功注册-无昵称</t>
   </si>
   <si>
@@ -192,9 +284,6 @@
     <t>{"mobilephone": "","pwd": "84811586","regname": "小飞侠"}</t>
   </si>
   <si>
-    <t>密码为空</t>
-  </si>
-  <si>
     <t>{"mobilephone": "17610086142","": "84811586","regname": "小飞侠"}</t>
   </si>
   <si>
@@ -249,9 +338,6 @@
     <t>http://119.23.241.154:8083/futureloan/mvc/api/member/login</t>
   </si>
   <si>
-    <t>密码错误</t>
-  </si>
-  <si>
     <t>http://119.23.241.154:8084/futureloan/mvc/api/member/login</t>
   </si>
   <si>
@@ -282,7 +368,7 @@
     <t>${init_phone}</t>
   </si>
   <si>
-    <t>13210000049</t>
+    <t>13210000061</t>
   </si>
   <si>
     <t>${init_phone_1}</t>
@@ -337,7 +423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -362,6 +448,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -377,7 +475,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -398,21 +496,15 @@
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -420,6 +512,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -725,27 +843,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E28" sqref="E28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="7"/>
-    <col customWidth="1" max="2" min="2" style="18" width="15.33203125"/>
+    <col customWidth="1" max="1" min="1" style="26" width="7"/>
+    <col customWidth="1" max="2" min="2" style="26" width="15.33203125"/>
     <col customWidth="1" max="3" min="3" width="32.5"/>
-    <col customWidth="1" max="4" min="4" style="18" width="11.6640625"/>
-    <col customWidth="1" max="5" min="5" style="18" width="8.83203125"/>
-    <col customWidth="1" max="6" min="6" width="34.6640625"/>
+    <col customWidth="1" max="4" min="4" style="26" width="18.5"/>
+    <col customWidth="1" max="5" min="5" style="26" width="8.83203125"/>
+    <col customWidth="1" max="6" min="6" width="44"/>
     <col customWidth="1" max="7" min="7" width="110.6640625"/>
     <col customWidth="1" max="8" min="8" width="15"/>
-    <col customWidth="1" max="9" min="9" style="14" width="13"/>
+    <col customWidth="1" max="9" min="9" style="25" width="13"/>
     <col customWidth="1" max="10" min="10" width="33.33203125"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15" r="1" s="14" spans="1:10">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="25" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -777,14 +895,14 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="2" s="15" spans="1:10">
+    <row customFormat="1" customHeight="1" ht="15" r="2" s="20" spans="1:10">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -793,24 +911,24 @@
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="3" s="15" spans="1:10">
+      <c r="I2" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="3" s="20" spans="1:10">
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -819,24 +937,24 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="4" s="15" spans="1:10">
+      <c r="I3" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="4" s="20" spans="1:10">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -845,24 +963,24 @@
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="5" s="15" spans="1:10">
+      <c r="I4" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="5" s="20" spans="1:10">
       <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -871,24 +989,24 @@
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="6" s="15" spans="1:10">
+      <c r="I5" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="6" s="20" spans="1:10">
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -897,24 +1015,24 @@
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="7" s="15" spans="1:10">
+      <c r="I6" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="7" s="20" spans="1:10">
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -923,24 +1041,24 @@
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="8" s="15" spans="1:10">
+      <c r="I7" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="8" s="20" spans="1:10">
       <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -949,27 +1067,27 @@
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="9" spans="1:10">
-      <c r="A9" s="4" t="n">
+      <c r="I8" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="9" s="22" spans="1:10">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -978,24 +1096,24 @@
       <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="22" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="10" s="17" spans="1:10">
-      <c r="A10" s="4" t="n">
+      <c r="I9" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="10" s="22" spans="1:10">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1004,24 +1122,24 @@
       <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="22" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="11" s="17" spans="1:10">
-      <c r="A11" s="4" t="n">
+      <c r="I10" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="11" s="22" spans="1:10">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1030,24 +1148,24 @@
       <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="22" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="12" s="17" spans="1:10">
-      <c r="A12" s="4" t="n">
+      <c r="I11" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="12" s="22" spans="1:10">
+      <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="22" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1056,24 +1174,24 @@
       <c r="E12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="22" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="13" s="17" spans="1:10">
-      <c r="A13" s="4" t="n">
+      <c r="I12" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="13" s="22" spans="1:10">
+      <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1082,24 +1200,24 @@
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="22" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="14" s="17" spans="1:10">
-      <c r="A14" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="I13" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="14" s="22" spans="1:10">
+      <c r="A14" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1108,23 +1226,421 @@
       <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="22" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="15" s="20" spans="1:10">
+      <c r="A15" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="16" s="20" spans="1:10">
+      <c r="A16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="17" s="20" spans="1:10">
+      <c r="A17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="18" s="20" spans="1:10">
+      <c r="A18" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="19" s="20" spans="1:10">
+      <c r="A19" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="20" s="20" spans="1:10">
+      <c r="A20" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="21" s="22" spans="1:10">
+      <c r="A21" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="22" s="22" spans="1:10">
+      <c r="A22" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="23" s="22" spans="1:10">
+      <c r="A23" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="24" s="22" spans="1:10">
+      <c r="A24" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="25" s="22" spans="1:10">
+      <c r="A25" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="26" s="22" spans="1:10">
+      <c r="A26" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="27" s="22" spans="1:10">
+      <c r="A27" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="28" s="22" spans="1:10">
+      <c r="A28" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="29" s="22" spans="1:10">
+      <c r="A29" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="21" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B29"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
@@ -1145,18 +1661,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="7"/>
-    <col customWidth="1" max="2" min="2" style="18" width="8.83203125"/>
+    <col customWidth="1" max="1" min="1" style="26" width="7"/>
+    <col customWidth="1" max="2" min="2" style="26" width="8.83203125"/>
     <col customWidth="1" max="3" min="3" width="21.1640625"/>
-    <col customWidth="1" max="4" min="4" style="18" width="14.33203125"/>
-    <col customWidth="1" max="5" min="5" style="18" width="8.83203125"/>
+    <col customWidth="1" max="4" min="4" style="26" width="14.33203125"/>
+    <col customWidth="1" max="5" min="5" style="26" width="8.83203125"/>
     <col customWidth="1" max="6" min="6" width="60.83203125"/>
     <col customWidth="1" max="7" min="7" width="68.33203125"/>
     <col customWidth="1" max="8" min="8" width="55.1640625"/>
     <col customWidth="1" max="9" min="9" width="14.5"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="22" r="1" s="14" spans="1:9">
+    <row customFormat="1" customHeight="1" ht="22" r="1" s="25" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1186,370 +1702,370 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="D5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E5" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="26" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="26" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D13" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="26" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="18" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="18" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="18" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="18" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="18" t="n">
+      <c r="A16" s="26" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>79</v>
+      <c r="B16" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="18" t="n">
+      <c r="A17" s="26" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="18" t="n">
+      <c r="A18" s="26" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="18" t="n">
+      <c r="A19" s="26" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="18" t="n">
+      <c r="A20" s="26" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="18" t="n">
+      <c r="A21" s="26" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="18" t="n">
+      <c r="A22" s="26" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="18" t="n">
+      <c r="A23" s="26" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="18" t="n">
+      <c r="A24" s="26" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="18" t="n">
+      <c r="A25" s="26" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="18" t="n">
+      <c r="A26" s="26" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1577,45 +2093,45 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="14" width="15.83203125"/>
-    <col customWidth="1" max="2" min="2" style="19" width="16"/>
+    <col customWidth="1" max="1" min="1" style="25" width="15.83203125"/>
+    <col customWidth="1" max="2" min="2" style="27" width="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>86</v>
+      <c r="A1" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>88</v>
+      <c r="A2" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="A3" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="27">
         <f>B2+1</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="27">
         <f>B2-1</f>
         <v/>
       </c>

--- a/TestDatas/api_info.xlsx
+++ b/TestDatas/api_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>case_id</t>
   </si>
@@ -48,6 +48,9 @@
     <t>related_exp</t>
   </si>
   <si>
+    <t>related_exp1</t>
+  </si>
+  <si>
     <t>获取验证码</t>
   </si>
   <si>
@@ -72,7 +75,7 @@
     <t>获取验证码-手机号已注册—注册界面</t>
   </si>
   <si>
-    <t>{"mobile":"${init_pre_phone}","register":"true"}</t>
+    <t>{"mobile":"${pre_phone_a}","register":"true"}</t>
   </si>
   <si>
     <t>"code":40002</t>
@@ -81,7 +84,7 @@
     <t>获取验证码-手机号已注册—登录界面</t>
   </si>
   <si>
-    <t>{"mobile":"${init_pre_phone}","register":"false"}</t>
+    <t>{"mobile":"${pre_phone_a}","register":"false"}</t>
   </si>
   <si>
     <t>"code":1</t>
@@ -105,19 +108,19 @@
     <t>获取验证码-手机号未注册1</t>
   </si>
   <si>
-    <t>{"mobile": "${init_phone_1}","register":"true"}</t>
+    <t>{"mobile": "${phone_b}","register":"true"}</t>
   </si>
   <si>
     <t>获取验证码-手机号未注册2</t>
   </si>
   <si>
-    <t>{"mobile": "${init_phone}","register":"true"}</t>
+    <t>{"mobile": "${phone_a}","register":"true"}</t>
   </si>
   <si>
     <t>注册</t>
   </si>
   <si>
-    <t>注册成功</t>
+    <t>注册成功 - a</t>
   </si>
   <si>
     <t>register</t>
@@ -126,13 +129,31 @@
     <t>http://api798.impupu.com/api/register</t>
   </si>
   <si>
-    <t>{"nickname":"1234567890","mobile":"${init_phone}","password":"123456","code":"1234"}</t>
+    <t>{"nickname":"${phone_a}","mobile":"${phone_a}","password":"123456","code":"1234"}</t>
+  </si>
+  <si>
+    <t>获取验证码-手机号未注册3</t>
+  </si>
+  <si>
+    <t>{"mobile": "${phone_c}","register":"true"}</t>
+  </si>
+  <si>
+    <t>注册成功 - c</t>
+  </si>
+  <si>
+    <t>{"nickname":"${phone_c}","mobile":"${phone_c}","password":"123456","code":"1234"}</t>
+  </si>
+  <si>
+    <t>${ticket_c}=.*"ticket":"(.*?)".*</t>
+  </si>
+  <si>
+    <t>${userId_c}=.*"userId":"(.*?)".*</t>
   </si>
   <si>
     <t>昵称超过20个字符 - 21个</t>
   </si>
   <si>
-    <t>{"nickname":"一二三四五六七八九十一二三四五六七八九十一","mobile":"${init_phone_1}","password":"123456","code":"1234"}</t>
+    <t>{"nickname":"一二三四五六七八九十一二三四五六七八九十一","mobile":"${phone_b}","password":"123456","code":"1234"}</t>
   </si>
   <si>
     <t>"code":40007</t>
@@ -141,7 +162,7 @@
     <t>手机号已注册 - 昵称20个字符</t>
   </si>
   <si>
-    <t>{"nickname":"12345678901234567890","mobile":"${init_pre_phone}","password":"123456","code":"1234"}</t>
+    <t>{"nickname":"12345678901234567890","mobile":"${pre_phone_a}","password":"123456","code":"1234"}</t>
   </si>
   <si>
     <t>手机号格式不对</t>
@@ -153,7 +174,7 @@
     <t>验证码错误</t>
   </si>
   <si>
-    <t>{"nickname":"12345678900987654321","mobile":"${init_phone_1}","password":"123456","code":"4321"}</t>
+    <t>{"nickname":"12345678900987654321","mobile":"${phone_b}","password":"123456","code":"4321"}</t>
   </si>
   <si>
     <t>"code":40004</t>
@@ -162,7 +183,19 @@
     <t>验证码 - 为空</t>
   </si>
   <si>
-    <t>{"nickname":"12345678900987654321","mobile":"${init_phone_1}","password":"123456","code":""}</t>
+    <t>{"nickname":"12345678900987654321","mobile":"${phone_b}","password":"123456","code":""}</t>
+  </si>
+  <si>
+    <t>注册成功 - b</t>
+  </si>
+  <si>
+    <t>{"nickname":"${phone_b}","mobile":"${phone_b}","password":"123456","code":"1234"}</t>
+  </si>
+  <si>
+    <t>${ticket_b}=.*"ticket":"(.*?)".*</t>
+  </si>
+  <si>
+    <t>${userId_b}=.*"userId":"(.*?)".*</t>
   </si>
   <si>
     <t>登录
@@ -178,7 +211,7 @@
     <t>http://api798.impupu.com/api/login/password</t>
   </si>
   <si>
-    <t>{"mobile":"${init_phone}","password":""}</t>
+    <t>{"mobile":"${phone_a}","password":""}</t>
   </si>
   <si>
     <t>"code":40000</t>
@@ -187,7 +220,7 @@
     <t>密码错误</t>
   </si>
   <si>
-    <t>{"mobile":"${init_phone}","password":"654321"}</t>
+    <t>{"mobile":"${phone_a}","password":"654321"}</t>
   </si>
   <si>
     <t>手机号未注册</t>
@@ -214,7 +247,7 @@
     <t>密码 - 正常登录</t>
   </si>
   <si>
-    <t>{"mobile":"${init_phone}","password":"123456"}</t>
+    <t>{"mobile":"${phone_a}","password":"123456"}</t>
   </si>
   <si>
     <t>登录
@@ -236,25 +269,70 @@
     <t>{"mobile":"","code":"1234"}</t>
   </si>
   <si>
-    <t>{"mobile":"${init_phone}","register":"false","code"}</t>
+    <t>{"mobile":"${phone_a}","register":"false"}</t>
   </si>
   <si>
     <t>验证码为空</t>
   </si>
   <si>
-    <t>{"mobile":"${init_phone}","code":""}</t>
-  </si>
-  <si>
-    <t>{"mobile":"${init_phone}","register":"false"}</t>
-  </si>
-  <si>
-    <t>{"mobile":"${init_phone}","code":"4321"}</t>
+    <t>{"mobile":"${phone_a}","code":""}</t>
+  </si>
+  <si>
+    <t>{"mobile":"${phone_a}","code":"4321"}</t>
   </si>
   <si>
     <t>验证码 - 正常登录</t>
   </si>
   <si>
-    <t>{"mobile":"${init_phone}","code":"1234"}</t>
+    <t>{"mobile":"${phone_a}","code":"1234"}</t>
+  </si>
+  <si>
+    <t>${ticket_a}=.*"ticket":"(.*?)".*</t>
+  </si>
+  <si>
+    <t>${userId_a}=.*"id":"(.*?)".*</t>
+  </si>
+  <si>
+    <t>发送好友请求</t>
+  </si>
+  <si>
+    <t>没有权限</t>
+  </si>
+  <si>
+    <t>friend/request/send</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/friend/request/send</t>
+  </si>
+  <si>
+    <t>对方不存在</t>
+  </si>
+  <si>
+    <t>对方将我拉黑</t>
+  </si>
+  <si>
+    <t>失败了，失败原因在附加属性里给出</t>
+  </si>
+  <si>
+    <t>不需要设置,后台带有提示信息</t>
+  </si>
+  <si>
+    <t>添加 - 熟人</t>
+  </si>
+  <si>
+    <t>{"user":"Gr5AziDRI5_W16qv20-Hlg","type":"1","from":"0","ticket":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>添加 - 朋友</t>
+  </si>
+  <si>
+    <t>{"user":"${userId_b}","type":"2","from":"1","ticket":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>添加 - 好朋友</t>
+  </si>
+  <si>
+    <t>{"user":"${userId_c}","type":"3","from":"2","ticket":"${ticket_a}"}</t>
   </si>
   <si>
     <t>成功注册-无昵称</t>
@@ -365,16 +443,19 @@
     <t>value</t>
   </si>
   <si>
-    <t>${init_phone}</t>
-  </si>
-  <si>
-    <t>13210000061</t>
-  </si>
-  <si>
-    <t>${init_phone_1}</t>
-  </si>
-  <si>
-    <t>${init_pre_phone}</t>
+    <t>${phone_a}</t>
+  </si>
+  <si>
+    <t>13210000114</t>
+  </si>
+  <si>
+    <t>${phone_b}</t>
+  </si>
+  <si>
+    <t>${phone_c}</t>
+  </si>
+  <si>
+    <t>${pre_phone_a}</t>
   </si>
 </sst>
 </file>
@@ -423,7 +504,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -460,6 +541,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -475,7 +568,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -504,14 +597,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,10 +629,6 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,8 +636,12 @@
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -843,28 +951,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F28"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="7"/>
-    <col customWidth="1" max="2" min="2" style="26" width="15.33203125"/>
+    <col customWidth="1" max="1" min="1" style="13" width="7"/>
+    <col customWidth="1" max="2" min="2" style="31" width="15.33203125"/>
     <col customWidth="1" max="3" min="3" width="32.5"/>
-    <col customWidth="1" max="4" min="4" style="26" width="18.5"/>
-    <col customWidth="1" max="5" min="5" style="26" width="8.83203125"/>
-    <col customWidth="1" max="6" min="6" width="44"/>
+    <col customWidth="1" max="4" min="4" style="31" width="18.5"/>
+    <col customWidth="1" max="5" min="5" style="31" width="8.83203125"/>
+    <col customWidth="1" max="6" min="6" width="47"/>
     <col customWidth="1" max="7" min="7" width="110.6640625"/>
     <col customWidth="1" max="8" min="8" width="15"/>
-    <col customWidth="1" max="9" min="9" style="25" width="13"/>
+    <col customWidth="1" max="9" min="9" style="30" width="13"/>
     <col customWidth="1" max="10" min="10" width="33.33203125"/>
+    <col customWidth="1" max="11" min="11" style="31" width="31.83203125"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15" r="1" s="25" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="30" spans="1:11">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -894,753 +1003,1068 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="2" s="20" spans="1:10">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20" t="s">
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="2" s="27" spans="1:11">
+      <c r="A2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="3" s="27" spans="1:11">
+      <c r="A3" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="3" s="20" spans="1:10">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="4" s="27" spans="1:11">
+      <c r="A4" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="4" s="20" spans="1:10">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="5" s="27" spans="1:11">
+      <c r="A5" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="5" s="20" spans="1:10">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="6" s="27" spans="1:11">
+      <c r="A6" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="7" s="27" spans="1:11">
+      <c r="A7" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="I7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="8" s="27" spans="1:11">
+      <c r="A8" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="6" s="20" spans="1:10">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="9" s="25" spans="1:11">
+      <c r="A9" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="10" s="25" spans="1:11">
+      <c r="A10" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="7" s="20" spans="1:10">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="8" s="20" spans="1:10">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="9" s="22" spans="1:10">
-      <c r="A9" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="E10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="11" s="25" spans="1:11">
+      <c r="A11" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>36</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="10" s="22" spans="1:10">
-      <c r="A10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="11" s="22" spans="1:10">
-      <c r="A11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="12" s="25" spans="1:11">
+      <c r="A12" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="13" s="25" spans="1:11">
+      <c r="A13" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="14" s="25" spans="1:11">
+      <c r="A14" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="15" s="25" spans="1:11">
+      <c r="A15" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="16" s="25" spans="1:11">
+      <c r="A16" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="17" s="25" spans="1:11">
+      <c r="A17" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="18" s="27" spans="1:11">
+      <c r="A18" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="19" s="27" spans="1:11">
+      <c r="A19" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="20" s="27" spans="1:11">
+      <c r="A20" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="I11" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="12" s="22" spans="1:10">
-      <c r="A12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C20" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="21" s="27" spans="1:11">
+      <c r="A21" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="22" s="27" spans="1:11">
+      <c r="A22" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="23" s="27" spans="1:11">
+      <c r="A23" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="24" s="25" spans="1:11">
+      <c r="A24" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="25" s="25" spans="1:11">
+      <c r="A25" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="26" s="25" spans="1:11">
+      <c r="A26" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="27" s="25" spans="1:11">
+      <c r="A27" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="28" s="25" spans="1:11">
+      <c r="A28" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="29" s="25" spans="1:11">
+      <c r="A29" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="30" s="25" spans="1:11">
+      <c r="A30" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="31" s="25" spans="1:11">
+      <c r="A31" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="7" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="32" s="25" spans="1:11">
+      <c r="A32" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16" r="33" s="27" spans="1:11">
+      <c r="A33" s="13" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="34" s="27" spans="1:11">
+      <c r="A34" s="13" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="35" s="27" spans="1:11">
+      <c r="A35" s="13" t="n">
         <v>34</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="C35" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="36" s="27" spans="1:11">
+      <c r="A36" s="13" t="n">
         <v>35</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="13" s="22" spans="1:10">
-      <c r="A13" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="14" s="22" spans="1:10">
-      <c r="A14" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="15" s="20" spans="1:10">
-      <c r="A15" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="16" s="20" spans="1:10">
-      <c r="A16" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="17" s="20" spans="1:10">
-      <c r="A17" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="18" s="20" spans="1:10">
-      <c r="A18" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="19" s="20" spans="1:10">
-      <c r="A19" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="20" s="20" spans="1:10">
-      <c r="A20" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="21" s="22" spans="1:10">
-      <c r="A21" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="22" s="22" spans="1:10">
-      <c r="A22" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="23" s="22" spans="1:10">
-      <c r="A23" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="24" s="22" spans="1:10">
-      <c r="A24" s="4" t="n">
+      <c r="C36" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="37" s="27" spans="1:11">
+      <c r="A37" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="38" s="27" spans="1:11">
+      <c r="A38" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="25" s="22" spans="1:10">
-      <c r="A25" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="26" s="22" spans="1:10">
-      <c r="A26" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="27" s="22" spans="1:10">
-      <c r="A27" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="28" s="22" spans="1:10">
-      <c r="A28" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="29" s="22" spans="1:10">
-      <c r="A29" s="7" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="39" s="27" spans="1:11">
+      <c r="A39" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="40" s="27" spans="1:11">
+      <c r="A40" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="B33:B40"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
@@ -1661,18 +2085,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="7"/>
-    <col customWidth="1" max="2" min="2" style="26" width="8.83203125"/>
+    <col customWidth="1" max="1" min="1" style="31" width="7"/>
+    <col customWidth="1" max="2" min="2" style="31" width="8.83203125"/>
     <col customWidth="1" max="3" min="3" width="21.1640625"/>
-    <col customWidth="1" max="4" min="4" style="26" width="14.33203125"/>
-    <col customWidth="1" max="5" min="5" style="26" width="8.83203125"/>
+    <col customWidth="1" max="4" min="4" style="31" width="14.33203125"/>
+    <col customWidth="1" max="5" min="5" style="31" width="8.83203125"/>
     <col customWidth="1" max="6" min="6" width="60.83203125"/>
     <col customWidth="1" max="7" min="7" width="68.33203125"/>
     <col customWidth="1" max="8" min="8" width="55.1640625"/>
     <col customWidth="1" max="9" min="9" width="14.5"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="22" r="1" s="25" spans="1:9">
+    <row customFormat="1" customHeight="1" ht="22" r="1" s="30" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1702,370 +2126,370 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>32</v>
+      <c r="A2" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>80</v>
+        <v>105</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="26" t="n">
+      <c r="A3" s="31" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>80</v>
+        <v>110</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="26" t="n">
+      <c r="A4" s="31" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>80</v>
+        <v>112</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="26" t="n">
+      <c r="A5" s="31" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>80</v>
+        <v>61</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="26" t="n">
+      <c r="A6" s="31" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>80</v>
+        <v>115</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="26" t="n">
+      <c r="A7" s="31" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>80</v>
+        <v>117</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="26" t="n">
+      <c r="A8" s="31" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>80</v>
+        <v>119</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="26" t="n">
+      <c r="A9" s="31" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>80</v>
+        <v>121</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="26" t="n">
+      <c r="A10" s="31" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>80</v>
+        <v>123</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="26" t="n">
+      <c r="A11" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>98</v>
+      <c r="B11" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="31" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="31" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="26" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="26" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="26" t="n">
-        <v>13</v>
-      </c>
       <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>13</v>
+        <v>130</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="26" t="n">
+      <c r="A15" s="31" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="26" t="n">
+      <c r="A16" s="31" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>107</v>
+      <c r="B16" s="31" t="s">
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>13</v>
+        <v>134</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="26" t="n">
+      <c r="A17" s="31" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>13</v>
+        <v>134</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="26" t="n">
+      <c r="A18" s="31" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>13</v>
+        <v>134</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="26" t="n">
+      <c r="A19" s="31" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="26" t="n">
+      <c r="A20" s="31" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="26" t="n">
+      <c r="A21" s="31" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="26" t="n">
+      <c r="A22" s="31" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="26" t="n">
+      <c r="A23" s="31" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="26" t="n">
+      <c r="A24" s="31" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="26" t="n">
+      <c r="A25" s="31" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="26" t="n">
+      <c r="A26" s="31" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2090,50 +2514,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="25" width="15.83203125"/>
-    <col customWidth="1" max="2" min="2" style="27" width="16"/>
+    <col customWidth="1" max="1" min="1" style="15" width="15.83203125"/>
+    <col customWidth="1" max="2" min="2" style="32" width="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>114</v>
+      <c r="A1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>116</v>
+      <c r="A2" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="27">
-        <f>B2+1</f>
-        <v/>
+      <c r="A3" s="15" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="27">
-        <f>B2-1</f>
-        <v/>
+      <c r="A4" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/TestDatas/api_info.xlsx
+++ b/TestDatas/api_info.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xiangmu\pupu_api\TestDatas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19400" windowHeight="7470" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case_datas" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prepare_datas" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="case_datas" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="145">
   <si>
     <t>case_id</t>
   </si>
@@ -444,9 +449,6 @@
   </si>
   <si>
     <t>${phone_a}</t>
-  </si>
-  <si>
-    <t>13210000114</t>
   </si>
   <si>
     <t>${phone_b}</t>
@@ -461,71 +463,72 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="0_);[Red]\(0\)" numFmtId="164"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <color theme="11"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,101 +567,107 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -946,33 +955,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="7"/>
-    <col customWidth="1" max="2" min="2" style="31" width="15.33203125"/>
-    <col customWidth="1" max="3" min="3" width="32.5"/>
-    <col customWidth="1" max="4" min="4" style="31" width="18.5"/>
-    <col customWidth="1" max="5" min="5" style="31" width="8.83203125"/>
-    <col customWidth="1" max="6" min="6" width="47"/>
-    <col customWidth="1" max="7" min="7" width="110.6640625"/>
-    <col customWidth="1" max="8" min="8" width="15"/>
-    <col customWidth="1" max="9" min="9" style="30" width="13"/>
-    <col customWidth="1" max="10" min="10" width="33.33203125"/>
-    <col customWidth="1" max="11" min="11" style="31" width="31.83203125"/>
+    <col min="1" max="1" width="7" style="13" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="7" max="7" width="110.6328125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="13" style="21" customWidth="1"/>
+    <col min="10" max="10" width="33.36328125" customWidth="1"/>
+    <col min="11" max="11" width="31.81640625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15" r="1" s="30" spans="1:11">
+    <row r="1" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1007,14 +1012,14 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="2" s="27" spans="1:11">
-      <c r="A2" s="13" t="n">
+    <row r="2" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1023,25 +1028,25 @@
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="3" s="27" spans="1:11">
-      <c r="A3" s="13" t="n">
+      <c r="I2" s="20">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1050,25 +1055,25 @@
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="4" s="27" spans="1:11">
-      <c r="A4" s="13" t="n">
+      <c r="I3" s="20">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1077,25 +1082,25 @@
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="5" s="27" spans="1:11">
-      <c r="A5" s="13" t="n">
+      <c r="I4" s="20">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1104,25 +1109,25 @@
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="6" s="27" spans="1:11">
-      <c r="A6" s="13" t="n">
+      <c r="I5" s="20">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1131,25 +1136,25 @@
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="7" s="27" spans="1:11">
-      <c r="A7" s="13" t="n">
+      <c r="I6" s="20">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1158,25 +1163,25 @@
       <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="8" s="27" spans="1:11">
-      <c r="A8" s="13" t="n">
+      <c r="I7" s="20">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1185,28 +1190,28 @@
       <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="9" s="25" spans="1:11">
-      <c r="A9" s="13" t="n">
+      <c r="I8" s="20">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1215,24 +1220,25 @@
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="10" s="25" spans="1:11">
-      <c r="A10" s="13" t="n">
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
+      <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
         <v>38</v>
       </c>
@@ -1248,18 +1254,19 @@
       <c r="G10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="11" s="25" spans="1:11">
-      <c r="A11" s="13" t="n">
+      <c r="I10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1268,30 +1275,31 @@
       <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="25" t="s">
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="12" s="25" spans="1:11">
-      <c r="A12" s="13" t="n">
+    <row r="12" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1300,25 +1308,26 @@
       <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="13" s="25" spans="1:11">
-      <c r="A13" s="13" t="n">
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1327,25 +1336,26 @@
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="14" s="25" spans="1:11">
-      <c r="A14" s="13" t="n">
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1354,25 +1364,26 @@
       <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="15" s="25" spans="1:11">
-      <c r="A15" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1381,25 +1392,26 @@
       <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="16" s="25" spans="1:11">
-      <c r="A16" s="13" t="n">
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1408,25 +1420,25 @@
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="17" s="25" spans="1:11">
-      <c r="A17" s="13" t="n">
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1435,33 +1447,33 @@
       <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="25" t="s">
+      <c r="I17" s="17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="18" s="27" spans="1:11">
-      <c r="A18" s="13" t="n">
+    <row r="18" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1470,25 +1482,26 @@
       <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="19" s="27" spans="1:11">
-      <c r="A19" s="13" t="n">
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1497,25 +1510,26 @@
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="20" s="27" spans="1:11">
-      <c r="A20" s="13" t="n">
+      <c r="I19" s="17">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1524,25 +1538,26 @@
       <c r="E20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="21" s="27" spans="1:11">
-      <c r="A21" s="13" t="n">
+      <c r="I20" s="17">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1551,25 +1566,26 @@
       <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="22" s="27" spans="1:11">
-      <c r="A22" s="13" t="n">
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1578,25 +1594,26 @@
       <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="23" s="27" spans="1:11">
-      <c r="A23" s="13" t="n">
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1605,28 +1622,28 @@
       <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="24" s="25" spans="1:11">
-      <c r="A24" s="13" t="n">
+      <c r="I23" s="17">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -1635,25 +1652,26 @@
       <c r="E24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="25" s="25" spans="1:11">
-      <c r="A25" s="13" t="n">
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="18" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1662,25 +1680,26 @@
       <c r="E25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="26" s="25" spans="1:11">
-      <c r="A26" s="13" t="n">
+      <c r="I25" s="17">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -1689,24 +1708,25 @@
       <c r="E26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="27" s="25" spans="1:11">
-      <c r="A27" s="13" t="n">
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
+      <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
         <v>21</v>
       </c>
@@ -1722,19 +1742,20 @@
       <c r="G27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="28" s="25" spans="1:11">
-      <c r="A28" s="13" t="n">
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="18" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1743,24 +1764,25 @@
       <c r="E28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="29" s="25" spans="1:11">
-      <c r="A29" s="13" t="n">
+      <c r="I28" s="17">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
+      <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
         <v>21</v>
       </c>
@@ -1776,19 +1798,20 @@
       <c r="G29" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="30" s="25" spans="1:11">
-      <c r="A30" s="13" t="n">
+      <c r="I29" s="17">
+        <v>1</v>
+      </c>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1797,24 +1820,25 @@
       <c r="E30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="31" s="25" spans="1:11">
-      <c r="A31" s="13" t="n">
+      <c r="I30" s="17">
+        <v>1</v>
+      </c>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
+      <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
         <v>21</v>
       </c>
@@ -1830,19 +1854,20 @@
       <c r="G31" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="32" s="25" spans="1:11">
-      <c r="A32" s="13" t="n">
+      <c r="I31" s="17">
+        <v>1</v>
+      </c>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="18" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -1851,33 +1876,33 @@
       <c r="E32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="25" t="s">
+      <c r="I32" s="17">
+        <v>1</v>
+      </c>
+      <c r="J32" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16" r="33" s="27" spans="1:11">
-      <c r="A33" s="13" t="n">
+    <row r="33" spans="1:11" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="19" t="s">
         <v>92</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1886,19 +1911,20 @@
       <c r="E33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="34" s="27" spans="1:11">
-      <c r="A34" s="13" t="n">
+      <c r="I33" s="14">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="19" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -1907,19 +1933,20 @@
       <c r="E34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="35" s="27" spans="1:11">
-      <c r="A35" s="13" t="n">
+      <c r="I34" s="14">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="27"/>
+      <c r="C35" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1928,19 +1955,20 @@
       <c r="E35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="36" s="27" spans="1:11">
-      <c r="A36" s="13" t="n">
+      <c r="I35" s="14">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="19" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1949,19 +1977,20 @@
       <c r="E36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="37" s="27" spans="1:11">
-      <c r="A37" s="13" t="n">
+      <c r="I36" s="14">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="B37" s="27"/>
+      <c r="C37" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -1970,19 +1999,20 @@
       <c r="E37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="38" s="27" spans="1:11">
-      <c r="A38" s="13" t="n">
+      <c r="I37" s="14">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="B38" s="27"/>
+      <c r="C38" s="19" t="s">
         <v>99</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -1991,25 +2021,26 @@
       <c r="E38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="39" s="27" spans="1:11">
-      <c r="A39" s="13" t="n">
+      <c r="I38" s="14">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="B39" s="27"/>
+      <c r="C39" s="19" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -2018,25 +2049,26 @@
       <c r="E39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="40" s="27" spans="1:11">
-      <c r="A40" s="13" t="n">
+      <c r="I39" s="14">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="B40" s="27"/>
+      <c r="C40" s="19" t="s">
         <v>103</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -2045,19 +2077,19 @@
       <c r="E40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="4" t="n"/>
+      <c r="I40" s="14">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2066,37 +2098,34 @@
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="B33:B40"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="31" width="7"/>
-    <col customWidth="1" max="2" min="2" style="31" width="8.83203125"/>
-    <col customWidth="1" max="3" min="3" width="21.1640625"/>
-    <col customWidth="1" max="4" min="4" style="31" width="14.33203125"/>
-    <col customWidth="1" max="5" min="5" style="31" width="8.83203125"/>
-    <col customWidth="1" max="6" min="6" width="60.83203125"/>
-    <col customWidth="1" max="7" min="7" width="68.33203125"/>
-    <col customWidth="1" max="8" min="8" width="55.1640625"/>
-    <col customWidth="1" max="9" min="9" width="14.5"/>
+    <col min="1" max="1" width="7" style="22" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="60.81640625" customWidth="1"/>
+    <col min="7" max="7" width="68.36328125" customWidth="1"/>
+    <col min="8" max="8" width="55.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="22" r="1" s="30" spans="1:9">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2125,8 +2154,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="31" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -2135,10 +2164,10 @@
       <c r="C2" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="22" t="s">
         <v>106</v>
       </c>
       <c r="F2" t="s">
@@ -2151,17 +2180,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="31" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
+      <c r="B3" s="31"/>
       <c r="C3" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="22" t="s">
         <v>106</v>
       </c>
       <c r="F3" t="s">
@@ -2171,17 +2201,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="31" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
+      <c r="B4" s="31"/>
       <c r="C4" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="22" t="s">
         <v>106</v>
       </c>
       <c r="F4" t="s">
@@ -2191,17 +2222,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="31" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
+      <c r="B5" s="31"/>
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="22" t="s">
         <v>106</v>
       </c>
       <c r="F5" t="s">
@@ -2211,17 +2243,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="31" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
+      <c r="B6" s="31"/>
       <c r="C6" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="22" t="s">
         <v>106</v>
       </c>
       <c r="F6" t="s">
@@ -2231,17 +2264,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="31" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
+      <c r="B7" s="31"/>
       <c r="C7" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="22" t="s">
         <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2251,17 +2285,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="31" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
+      <c r="B8" s="31"/>
       <c r="C8" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="22" t="s">
         <v>106</v>
       </c>
       <c r="F8" t="s">
@@ -2271,17 +2306,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="31" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
+      <c r="B9" s="31"/>
       <c r="C9" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="22" t="s">
         <v>106</v>
       </c>
       <c r="F9" t="s">
@@ -2291,17 +2327,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="31" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
+      <c r="B10" s="31"/>
       <c r="C10" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="22" t="s">
         <v>106</v>
       </c>
       <c r="F10" t="s">
@@ -2311,8 +2348,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="31" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -2321,175 +2358,179 @@
       <c r="C11" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="31" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
+      <c r="B12" s="31"/>
       <c r="C12" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="31" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
+      <c r="B13" s="31"/>
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="31" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
+      <c r="B14" s="31"/>
       <c r="C14" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="31" t="n">
-        <v>14</v>
-      </c>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31"/>
       <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="31" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="22" t="s">
         <v>133</v>
       </c>
       <c r="C16" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="31" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="31" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="31" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="31" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="31" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="31" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="31" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="31" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="31" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="31" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
     </row>
@@ -2498,67 +2539,65 @@
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B15"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="F15" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge" ref="F18" r:id="rId4"/>
+    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="F15" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="F16" r:id="rId3"/>
+    <hyperlink ref="F18" r:id="rId4" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="15.83203125"/>
-    <col customWidth="1" max="2" min="2" style="32" width="16"/>
+    <col min="1" max="1" width="15.81640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="23">
+        <v>13410000114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestDatas/api_info.xlsx
+++ b/TestDatas/api_info.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zws/git/pupu_api/TestDatas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-8920" yWindow="-21600" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case_datas" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prepare_datas" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="case_datas" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="168">
   <si>
     <t>case_id</t>
   </si>
@@ -320,27 +333,93 @@
     <t>添加 - 熟人</t>
   </si>
   <si>
-    <t>{"user":"Gr5AziDRI5_W16qv20-Hlg","type":"1","from":"0","ticket":"${ticket_a}"}</t>
+    <t>{"user":"Gr5AziDRI5_W16qv20-Hlg","type":"1","from":"0","p:"${ticket_a}"}</t>
   </si>
   <si>
     <t>添加 - 朋友</t>
   </si>
   <si>
-    <t>{"user":"${userId_b}","type":"2","from":"1","ticket":"${ticket_a}"}</t>
+    <t>{"user":"${userId_b}","type":"2","from":"1","p":"${ticket_a}"}</t>
   </si>
   <si>
     <t>添加 - 好朋友</t>
   </si>
   <si>
-    <t>{"user":"${userId_c}","type":"3","from":"2","ticket":"${ticket_a}"}</t>
+    <t>{"user":"${userId_c}","type":"3","from":"2","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>接收的好友请求列表</t>
+  </si>
+  <si>
+    <t>好友请求列表为空</t>
+  </si>
+  <si>
+    <t>friend/request/accept/list</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/friend/request/accept/list</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_a}","count":"20","cursor":""}</t>
+  </si>
+  <si>
+    <t>好友请求列表不为空</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_b}"}</t>
+  </si>
+  <si>
+    <t>接收好友请求</t>
+  </si>
+  <si>
+    <t>接受好友请求 - 列表中有的 - 熟人</t>
+  </si>
+  <si>
+    <t>friend/request/accept</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/friend/request/accept</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_b}","user":"${userId_a}","type":"1"}</t>
+  </si>
+  <si>
+    <t>接受好友请求 - 列表中有的 - 朋友</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_c}","user":"${userId_a}","type":"2"}</t>
+  </si>
+  <si>
+    <t>接受好友请求 - 列表中没有的</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_c}","user":"${userId_b}","type":"3"}</t>
+  </si>
+  <si>
+    <t>"code":403</t>
+  </si>
+  <si>
+    <t>好友列表</t>
+  </si>
+  <si>
+    <t>查看好友列表</t>
+  </si>
+  <si>
+    <t>user/friend/list</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/friend/list</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_a}"}</t>
   </si>
   <si>
     <t>成功注册-无昵称</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/register</t>
   </si>
   <si>
@@ -446,7 +525,7 @@
     <t>${phone_a}</t>
   </si>
   <si>
-    <t>13210000114</t>
+    <t>13210000169</t>
   </si>
   <si>
     <t>${phone_b}</t>
@@ -461,71 +540,71 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="0_);[Red]\(0\)" numFmtId="164"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="11"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,101 +643,104 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -946,33 +1028,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="7"/>
-    <col customWidth="1" max="2" min="2" style="31" width="15.33203125"/>
-    <col customWidth="1" max="3" min="3" width="32.5"/>
-    <col customWidth="1" max="4" min="4" style="31" width="18.5"/>
-    <col customWidth="1" max="5" min="5" style="31" width="8.83203125"/>
-    <col customWidth="1" max="6" min="6" width="47"/>
-    <col customWidth="1" max="7" min="7" width="110.6640625"/>
-    <col customWidth="1" max="8" min="8" width="15"/>
-    <col customWidth="1" max="9" min="9" style="30" width="13"/>
-    <col customWidth="1" max="10" min="10" width="33.33203125"/>
-    <col customWidth="1" max="11" min="11" style="31" width="31.83203125"/>
+    <col min="1" max="1" width="7" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="32" style="18" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="52.1640625" customWidth="1"/>
+    <col min="7" max="7" width="110.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="13" style="17" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.83203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15" r="1" s="30" spans="1:11">
+    <row r="1" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1007,14 +1085,14 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="2" s="27" spans="1:11">
-      <c r="A2" s="13" t="n">
+    <row r="2" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1023,25 +1101,25 @@
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="3" s="27" spans="1:11">
-      <c r="A3" s="13" t="n">
+      <c r="I2" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1050,25 +1128,25 @@
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="4" s="27" spans="1:11">
-      <c r="A4" s="13" t="n">
+      <c r="I3" s="22">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1077,25 +1155,25 @@
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="5" s="27" spans="1:11">
-      <c r="A5" s="13" t="n">
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1104,25 +1182,25 @@
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="6" s="27" spans="1:11">
-      <c r="A6" s="13" t="n">
+      <c r="I5" s="22">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1131,25 +1209,25 @@
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="7" s="27" spans="1:11">
-      <c r="A7" s="13" t="n">
+      <c r="I6" s="22">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1158,25 +1236,25 @@
       <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="8" s="27" spans="1:11">
-      <c r="A8" s="13" t="n">
+      <c r="I7" s="22">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1185,28 +1263,28 @@
       <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="9" s="25" spans="1:11">
-      <c r="A9" s="13" t="n">
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1215,24 +1293,25 @@
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="10" s="25" spans="1:11">
-      <c r="A10" s="13" t="n">
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
+      <c r="B10" s="27"/>
       <c r="C10" s="8" t="s">
         <v>38</v>
       </c>
@@ -1248,18 +1327,19 @@
       <c r="G10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="11" s="25" spans="1:11">
-      <c r="A11" s="13" t="n">
+      <c r="I10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1268,30 +1348,31 @@
       <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="25" t="s">
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="12" s="25" spans="1:11">
-      <c r="A12" s="13" t="n">
+    <row r="12" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1300,25 +1381,26 @@
       <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="13" s="25" spans="1:11">
-      <c r="A13" s="13" t="n">
+      <c r="I12" s="19">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1327,25 +1409,26 @@
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="14" s="25" spans="1:11">
-      <c r="A14" s="13" t="n">
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1354,25 +1437,26 @@
       <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="15" s="25" spans="1:11">
-      <c r="A15" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="I14" s="19">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1381,25 +1465,26 @@
       <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="16" s="25" spans="1:11">
-      <c r="A16" s="13" t="n">
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1408,25 +1493,25 @@
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="17" s="25" spans="1:11">
-      <c r="A17" s="13" t="n">
+      <c r="I16" s="19">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1435,33 +1520,33 @@
       <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="25" t="s">
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="18" s="27" spans="1:11">
-      <c r="A18" s="13" t="n">
+    <row r="18" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1470,25 +1555,26 @@
       <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="19" s="27" spans="1:11">
-      <c r="A19" s="13" t="n">
+      <c r="I18" s="19">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1497,25 +1583,26 @@
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="20" s="27" spans="1:11">
-      <c r="A20" s="13" t="n">
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1524,25 +1611,26 @@
       <c r="E20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="21" t="s">
         <v>63</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="21" s="27" spans="1:11">
-      <c r="A21" s="13" t="n">
+      <c r="I20" s="19">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1551,25 +1639,26 @@
       <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="21" t="s">
         <v>63</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="22" s="27" spans="1:11">
-      <c r="A22" s="13" t="n">
+      <c r="I21" s="19">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1578,25 +1667,26 @@
       <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="23" s="27" spans="1:11">
-      <c r="A23" s="13" t="n">
+      <c r="I22" s="19">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1605,28 +1695,28 @@
       <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="24" s="25" spans="1:11">
-      <c r="A24" s="13" t="n">
+      <c r="I23" s="19">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -1635,25 +1725,26 @@
       <c r="E24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="25" s="25" spans="1:11">
-      <c r="A25" s="13" t="n">
+      <c r="I24" s="19">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1662,25 +1753,26 @@
       <c r="E25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="26" s="25" spans="1:11">
-      <c r="A26" s="13" t="n">
+      <c r="I25" s="19">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -1689,24 +1781,25 @@
       <c r="E26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="27" s="25" spans="1:11">
-      <c r="A27" s="13" t="n">
+      <c r="I26" s="19">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
+      <c r="B27" s="27"/>
       <c r="C27" s="8" t="s">
         <v>21</v>
       </c>
@@ -1722,19 +1815,20 @@
       <c r="G27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="28" s="25" spans="1:11">
-      <c r="A28" s="13" t="n">
+      <c r="I27" s="19">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1743,24 +1837,25 @@
       <c r="E28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="29" s="25" spans="1:11">
-      <c r="A29" s="13" t="n">
+      <c r="I28" s="19">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
+      <c r="B29" s="27"/>
       <c r="C29" s="8" t="s">
         <v>21</v>
       </c>
@@ -1776,19 +1871,20 @@
       <c r="G29" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="30" s="25" spans="1:11">
-      <c r="A30" s="13" t="n">
+      <c r="I29" s="19">
+        <v>1</v>
+      </c>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1797,24 +1893,25 @@
       <c r="E30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="31" s="25" spans="1:11">
-      <c r="A31" s="13" t="n">
+      <c r="I30" s="19">
+        <v>1</v>
+      </c>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
+      <c r="B31" s="27"/>
       <c r="C31" s="8" t="s">
         <v>21</v>
       </c>
@@ -1830,19 +1927,20 @@
       <c r="G31" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="32" s="25" spans="1:11">
-      <c r="A32" s="13" t="n">
+      <c r="I31" s="19">
+        <v>1</v>
+      </c>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="20" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -1851,33 +1949,33 @@
       <c r="E32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="25" t="s">
+      <c r="I32" s="19">
+        <v>1</v>
+      </c>
+      <c r="J32" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16" r="33" s="27" spans="1:11">
-      <c r="A33" s="13" t="n">
+    <row r="33" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="21" t="s">
         <v>92</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1886,19 +1984,20 @@
       <c r="E33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="34" s="27" spans="1:11">
-      <c r="A34" s="13" t="n">
+      <c r="I33" s="14">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="21" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -1907,19 +2006,20 @@
       <c r="E34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="35" s="27" spans="1:11">
-      <c r="A35" s="13" t="n">
+      <c r="I34" s="14">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1928,19 +2028,20 @@
       <c r="E35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="36" s="27" spans="1:11">
-      <c r="A36" s="13" t="n">
+      <c r="I35" s="14">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1949,19 +2050,20 @@
       <c r="E36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="37" s="27" spans="1:11">
-      <c r="A37" s="13" t="n">
+      <c r="I36" s="14">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="21" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -1970,19 +2072,20 @@
       <c r="E37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="38" s="27" spans="1:11">
-      <c r="A38" s="13" t="n">
+      <c r="I37" s="14">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="21" t="s">
         <v>99</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -1991,25 +2094,26 @@
       <c r="E38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="39" s="27" spans="1:11">
-      <c r="A39" s="13" t="n">
+      <c r="I38" s="14">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="21" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -2018,25 +2122,26 @@
       <c r="E39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="40" s="27" spans="1:11">
-      <c r="A40" s="13" t="n">
+      <c r="I39" s="14">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="21" t="s">
         <v>103</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -2045,58 +2150,241 @@
       <c r="E40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="4" t="n"/>
+      <c r="I40" s="14">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13">
+        <v>41</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="13">
+        <v>43</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="13">
+        <v>45</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="13">
+        <v>46</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B45"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="31" width="7"/>
-    <col customWidth="1" max="2" min="2" style="31" width="8.83203125"/>
-    <col customWidth="1" max="3" min="3" width="21.1640625"/>
-    <col customWidth="1" max="4" min="4" style="31" width="14.33203125"/>
-    <col customWidth="1" max="5" min="5" style="31" width="8.83203125"/>
-    <col customWidth="1" max="6" min="6" width="60.83203125"/>
-    <col customWidth="1" max="7" min="7" width="68.33203125"/>
-    <col customWidth="1" max="8" min="8" width="55.1640625"/>
-    <col customWidth="1" max="9" min="9" width="14.5"/>
+    <col min="1" max="1" width="7" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="60.83203125" customWidth="1"/>
+    <col min="7" max="7" width="68.33203125" customWidth="1"/>
+    <col min="8" max="8" width="55.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="22" r="1" s="30" spans="1:9">
+    <row r="1" spans="1:9" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2125,371 +2413,383 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>106</v>
+      <c r="E2" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="H2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>106</v>
+      <c r="E4" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="31" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>106</v>
+      <c r="E5" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="31" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>106</v>
+      <c r="E6" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="31" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>106</v>
+      <c r="E7" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="31" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>106</v>
+      <c r="E8" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="31" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
+      <c r="B9" s="25"/>
       <c r="C9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>106</v>
+      <c r="E9" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="31" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
+      <c r="B10" s="25"/>
       <c r="C10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>106</v>
+      <c r="E10" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="31" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>124</v>
+      <c r="B11" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="31" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
+      <c r="B12" s="25"/>
       <c r="C12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="31" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
+      <c r="B13" s="25"/>
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="31" t="s">
+      <c r="D13" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="31" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
+      <c r="B14" s="25"/>
       <c r="C14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="31" t="n">
-        <v>14</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25"/>
       <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="31" t="s">
+      <c r="D15" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="31" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>133</v>
+      <c r="B16" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="31" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="31" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="31" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="31" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="31" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="31" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="31" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="31" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="31" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="31" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
     </row>
@@ -2498,67 +2798,65 @@
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B15"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="F15" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge" ref="F18" r:id="rId4"/>
+    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="F15" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="F16" r:id="rId3"/>
+    <hyperlink ref="F18" r:id="rId4" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="15.83203125"/>
-    <col customWidth="1" max="2" min="2" style="32" width="16"/>
+    <col min="1" max="1" width="15.83203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>163</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/TestDatas/api_info.xlsx
+++ b/TestDatas/api_info.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pupu_api\pupu_api\TestDatas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case_datas" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prepare_datas" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="case_datas" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="218">
   <si>
     <t>case_id</t>
   </si>
@@ -335,12 +340,215 @@
     <t>{"user":"${userId_c}","type":"3","from":"2","ticket":"${ticket_a}"}</t>
   </si>
   <si>
+    <t>他人/个人详情页</t>
+  </si>
+  <si>
+    <t>登录-密码登录</t>
+  </si>
+  <si>
+    <t>{"mobile":"18701699800","password":"123456"}</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>${tickets_p}="ticket": "(.*)"</t>
+  </si>
+  <si>
+    <t>个人详情页</t>
+  </si>
+  <si>
+    <t>user/info/profile</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/info/profile</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>他人详情页-正常请求</t>
+  </si>
+  <si>
+    <t>{"user":"userId_a","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>他人详情页-用户不存在</t>
+  </si>
+  <si>
+    <t>{"user":"","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>"code":40050</t>
+  </si>
+  <si>
+    <t>好友tab页</t>
+  </si>
+  <si>
+    <t>好友tab-正常请求</t>
+  </si>
+  <si>
+    <t>user/friend/profile</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/friend/profile</t>
+  </si>
+  <si>
+    <t>好友tab
+修改基础信息</t>
+  </si>
+  <si>
+    <t>修改个性签名-正常</t>
+  </si>
+  <si>
+    <t>user/friend/update/signature</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/friend/update/signature</t>
+  </si>
+  <si>
+    <t>修改个性签名-超出字符限制</t>
+  </si>
+  <si>
+    <t>"code":40008</t>
+  </si>
+  <si>
+    <t>修改个性签名-违禁词</t>
+  </si>
+  <si>
+    <t>{"signature":"","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>"code":40013</t>
+  </si>
+  <si>
+    <t>修改名字-正常</t>
+  </si>
+  <si>
+    <t>user/friend/update/name</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/friend/update/name</t>
+  </si>
+  <si>
+    <t>{"nickname":"黄玉平","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改名字-超出字数限制</t>
+  </si>
+  <si>
+    <t>{"nickname":"哈哈哈哈哈哈奥奥奥哈哈","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改名字-敏感字</t>
+  </si>
+  <si>
+    <t>{"nickname":"","p"="${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改头像-正常修改</t>
+  </si>
+  <si>
+    <t>user/friend/update/avatar</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/friend/update/avatar</t>
+  </si>
+  <si>
+    <t>{"type":"1","image":"","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改头像-上传失败</t>
+  </si>
+  <si>
+    <t>"code":-1</t>
+  </si>
+  <si>
+    <t>修改头像-上传错误</t>
+  </si>
+  <si>
+    <t>"code":40011</t>
+  </si>
+  <si>
+    <t>好友tab
+粉丝/关注列表</t>
+  </si>
+  <si>
+    <t>粉丝列表-正常请求</t>
+  </si>
+  <si>
+    <t>user/friend/followers</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/followers</t>
+  </si>
+  <si>
+    <t>关注列表-正常请求</t>
+  </si>
+  <si>
+    <t>user/followings</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/followings</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-正常请求</t>
+  </si>
+  <si>
+    <t>/user/follow</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/follow</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_a}","user":"${userId_b}"}</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-无访问权限</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_a}","user":"yji52QuSVl3W16qv20-Hl"}</t>
+  </si>
+  <si>
+    <t>"code":403</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-被对方拉黑</t>
+  </si>
+  <si>
+    <t>"code":400038</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-不能被关注</t>
+  </si>
+  <si>
+    <t>"code":400061</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-已经是好友</t>
+  </si>
+  <si>
+    <t>"code":400057</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-取消关注-正常请求</t>
+  </si>
+  <si>
+    <t>/user/follow/cancel</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/follow/cancel</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-取消关注-没有权限</t>
+  </si>
+  <si>
     <t>成功注册-无昵称</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/register</t>
   </si>
   <si>
@@ -446,7 +654,7 @@
     <t>${phone_a}</t>
   </si>
   <si>
-    <t>13210000114</t>
+    <t>13310000126</t>
   </si>
   <si>
     <t>${phone_b}</t>
@@ -456,76 +664,97 @@
   </si>
   <si>
     <t>${pre_phone_a}</t>
+  </si>
+  <si>
+    <t>{"signature":"啪啪啪啪啪啪啪啪啪啪啪啪那啪啪怕怕怕啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪怕啪啪啪","p":"${ticket_a}"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"signature":"啪啪啪","p":"${ticket_a}"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"p":"${ticket_a}"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="0_);[Red]\(0\)" numFmtId="164"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <color theme="11"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,6 +782,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -564,101 +799,160 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="53">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -946,34 +1240,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="7"/>
-    <col customWidth="1" max="2" min="2" style="31" width="15.33203125"/>
-    <col customWidth="1" max="3" min="3" width="32.5"/>
-    <col customWidth="1" max="4" min="4" style="31" width="18.5"/>
-    <col customWidth="1" max="5" min="5" style="31" width="8.83203125"/>
-    <col customWidth="1" max="6" min="6" width="47"/>
-    <col customWidth="1" max="7" min="7" width="110.6640625"/>
-    <col customWidth="1" max="8" min="8" width="15"/>
-    <col customWidth="1" max="9" min="9" style="30" width="13"/>
-    <col customWidth="1" max="10" min="10" width="33.33203125"/>
-    <col customWidth="1" max="11" min="11" style="31" width="31.83203125"/>
+    <col min="1" max="1" width="7" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="62.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="22" customWidth="1"/>
+    <col min="10" max="10" width="33.36328125" customWidth="1"/>
+    <col min="11" max="11" width="31.81640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15" r="1" s="30" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1007,1096 +1297,1801 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="2" s="27" spans="1:11">
-      <c r="A2" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="3" s="27" spans="1:11">
-      <c r="A3" s="13" t="n">
+      <c r="I2" s="21">
+        <v>1</v>
+      </c>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="4" s="27" spans="1:11">
-      <c r="A4" s="13" t="n">
+      <c r="I3" s="21">
+        <v>1</v>
+      </c>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="5" s="27" spans="1:11">
-      <c r="A5" s="13" t="n">
+      <c r="I4" s="21">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="6" s="27" spans="1:11">
-      <c r="A6" s="13" t="n">
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="7" s="27" spans="1:11">
-      <c r="A7" s="13" t="n">
+      <c r="I6" s="21">
+        <v>1</v>
+      </c>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="8" s="27" spans="1:11">
-      <c r="A8" s="13" t="n">
+      <c r="I7" s="21">
+        <v>1</v>
+      </c>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="E8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="9" s="25" spans="1:11">
-      <c r="A9" s="13" t="n">
+      <c r="I8" s="21">
+        <v>1</v>
+      </c>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="25" t="s">
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="10" s="25" spans="1:11">
-      <c r="A10" s="13" t="n">
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="11" s="25" spans="1:11">
-      <c r="A11" s="13" t="n">
+      <c r="I10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="25" t="s">
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="25" t="s">
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="12" s="25" spans="1:11">
-      <c r="A12" s="13" t="n">
+    <row r="12" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="13" s="25" spans="1:11">
-      <c r="A13" s="13" t="n">
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="25" t="s">
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="14" s="25" spans="1:11">
-      <c r="A14" s="13" t="n">
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="15" s="25" spans="1:11">
-      <c r="A15" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="16" s="25" spans="1:11">
-      <c r="A16" s="13" t="n">
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="17" s="25" spans="1:11">
-      <c r="A17" s="13" t="n">
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="25" t="s">
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="25" t="s">
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="18" s="27" spans="1:11">
-      <c r="A18" s="13" t="n">
+    <row r="18" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="27" t="s">
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="19" s="27" spans="1:11">
-      <c r="A19" s="13" t="n">
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="27" t="s">
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="20" s="27" spans="1:11">
-      <c r="A20" s="13" t="n">
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="21" s="27" spans="1:11">
-      <c r="A21" s="13" t="n">
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="27" t="s">
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="22" s="27" spans="1:11">
-      <c r="A22" s="13" t="n">
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="27" t="s">
+      <c r="E22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="23" s="27" spans="1:11">
-      <c r="A23" s="13" t="n">
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="27" t="s">
+      <c r="E23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="24" s="25" spans="1:11">
-      <c r="A24" s="13" t="n">
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="25" t="s">
+      <c r="E24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="25" s="25" spans="1:11">
-      <c r="A25" s="13" t="n">
+      <c r="I24" s="18">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="25" t="s">
+      <c r="E25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="26" s="25" spans="1:11">
-      <c r="A26" s="13" t="n">
+      <c r="I25" s="18">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="25" t="s">
+      <c r="E26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="27" s="25" spans="1:11">
-      <c r="A27" s="13" t="n">
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="28" s="25" spans="1:11">
-      <c r="A28" s="13" t="n">
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="29" s="25" spans="1:11">
-      <c r="A29" s="13" t="n">
+      <c r="I28" s="18">
+        <v>1</v>
+      </c>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="30" s="25" spans="1:11">
-      <c r="A30" s="13" t="n">
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="31" s="25" spans="1:11">
-      <c r="A31" s="13" t="n">
+      <c r="I30" s="18">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="32" s="25" spans="1:11">
-      <c r="A32" s="13" t="n">
+      <c r="I31" s="18">
+        <v>1</v>
+      </c>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="25" t="s">
+      <c r="E32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="25" t="s">
+      <c r="I32" s="18">
+        <v>1</v>
+      </c>
+      <c r="J32" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16" r="33" s="27" spans="1:11">
-      <c r="A33" s="13" t="n">
+    <row r="33" spans="1:15" s="20" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="27" t="s">
+      <c r="E33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="34" s="27" spans="1:11">
-      <c r="A34" s="13" t="n">
+      <c r="I33" s="13">
+        <v>1</v>
+      </c>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:15" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="27" t="s">
+      <c r="E34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="35" s="27" spans="1:11">
-      <c r="A35" s="13" t="n">
+      <c r="I34" s="13">
+        <v>1</v>
+      </c>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:15" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="27" t="s">
+      <c r="E35" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="36" s="27" spans="1:11">
-      <c r="A36" s="13" t="n">
+      <c r="I35" s="13">
+        <v>1</v>
+      </c>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:15" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="27" t="s">
+      <c r="E36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="37" s="27" spans="1:11">
-      <c r="A37" s="13" t="n">
+      <c r="I36" s="13">
+        <v>1</v>
+      </c>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="1:15" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="27" t="s">
+      <c r="E37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="38" s="27" spans="1:11">
-      <c r="A38" s="13" t="n">
+      <c r="I37" s="13">
+        <v>1</v>
+      </c>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="1:15" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="27" t="s">
+      <c r="E38" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="39" s="27" spans="1:11">
-      <c r="A39" s="13" t="n">
+      <c r="I38" s="13">
+        <v>1</v>
+      </c>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="1:15" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="27" t="s">
+      <c r="E39" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="4" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="40" s="27" spans="1:11">
-      <c r="A40" s="13" t="n">
+      <c r="I39" s="13">
+        <v>1</v>
+      </c>
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="1:15" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="27" t="s">
+      <c r="E40" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="4" t="n"/>
+      <c r="I40" s="13">
+        <v>1</v>
+      </c>
+      <c r="K40" s="16"/>
+    </row>
+    <row r="41" spans="1:15" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>40</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" s="36">
+        <v>1</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+    </row>
+    <row r="42" spans="1:15" s="40" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
+        <v>41</v>
+      </c>
+      <c r="B42" s="49"/>
+      <c r="C42" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="40" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
+        <v>42</v>
+      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="44" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="32">
+        <v>43</v>
+      </c>
+      <c r="B44" s="49"/>
+      <c r="C44" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I44" s="36">
+        <v>1</v>
+      </c>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+    </row>
+    <row r="45" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="32">
+        <v>44</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="I45" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32">
+        <v>45</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="I46" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="32">
+        <v>46</v>
+      </c>
+      <c r="B47" s="51"/>
+      <c r="C47" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="I47" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="32">
+        <v>47</v>
+      </c>
+      <c r="B48" s="52"/>
+      <c r="C48" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" s="36">
+        <v>1</v>
+      </c>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+    </row>
+    <row r="49" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32">
+        <v>48</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
+        <v>49</v>
+      </c>
+      <c r="B50" s="51"/>
+      <c r="C50" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32">
+        <v>50</v>
+      </c>
+      <c r="B51" s="52"/>
+      <c r="C51" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" s="36">
+        <v>1</v>
+      </c>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+    </row>
+    <row r="52" spans="1:15" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="32">
+        <v>51</v>
+      </c>
+      <c r="B52" s="52"/>
+      <c r="C52" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="36">
+        <v>1</v>
+      </c>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+    </row>
+    <row r="53" spans="1:15" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="32">
+        <v>52</v>
+      </c>
+      <c r="B53" s="52"/>
+      <c r="C53" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="I53" s="36">
+        <v>1</v>
+      </c>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+    </row>
+    <row r="54" spans="1:15" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>53</v>
+      </c>
+      <c r="B54" s="52"/>
+      <c r="C54" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="I54" s="36">
+        <v>1</v>
+      </c>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+    </row>
+    <row r="55" spans="1:15" s="39" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="32">
+        <v>54</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="39" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="32">
+        <v>55</v>
+      </c>
+      <c r="B56" s="51"/>
+      <c r="C56" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="32">
+        <v>56</v>
+      </c>
+      <c r="B57" s="51"/>
+      <c r="C57" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H57" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="41">
+        <v>1</v>
+      </c>
+      <c r="K57" s="38"/>
+    </row>
+    <row r="58" spans="1:15" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="32">
+        <v>57</v>
+      </c>
+      <c r="B58" s="52"/>
+      <c r="C58" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I58" s="36">
+        <v>1</v>
+      </c>
+      <c r="K58" s="46"/>
+    </row>
+    <row r="59" spans="1:15" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="32">
+        <v>58</v>
+      </c>
+      <c r="B59" s="52"/>
+      <c r="C59" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I59" s="36">
+        <v>1</v>
+      </c>
+      <c r="K59" s="46"/>
+    </row>
+    <row r="60" spans="1:15" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="32">
+        <v>59</v>
+      </c>
+      <c r="B60" s="52"/>
+      <c r="C60" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="I60" s="36">
+        <v>1</v>
+      </c>
+      <c r="K60" s="46"/>
+    </row>
+    <row r="61" spans="1:15" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="32">
+        <v>60</v>
+      </c>
+      <c r="B61" s="52"/>
+      <c r="C61" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="I61" s="36">
+        <v>1</v>
+      </c>
+      <c r="K61" s="46"/>
+    </row>
+    <row r="62" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="32">
+        <v>61</v>
+      </c>
+      <c r="B62" s="51"/>
+      <c r="C62" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="G62" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H62" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="41">
+        <v>1</v>
+      </c>
+      <c r="K62" s="38"/>
+    </row>
+    <row r="63" spans="1:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="32">
+        <v>62</v>
+      </c>
+      <c r="B63" s="52"/>
+      <c r="C63" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="H63" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="I63" s="41">
+        <v>1</v>
+      </c>
+      <c r="K63" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="B55:B63"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B41:B44"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F62" r:id="rId1"/>
+    <hyperlink ref="F63" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="31" width="7"/>
-    <col customWidth="1" max="2" min="2" style="31" width="8.83203125"/>
-    <col customWidth="1" max="3" min="3" width="21.1640625"/>
-    <col customWidth="1" max="4" min="4" style="31" width="14.33203125"/>
-    <col customWidth="1" max="5" min="5" style="31" width="8.83203125"/>
-    <col customWidth="1" max="6" min="6" width="60.83203125"/>
-    <col customWidth="1" max="7" min="7" width="68.33203125"/>
-    <col customWidth="1" max="8" min="8" width="55.1640625"/>
-    <col customWidth="1" max="9" min="9" width="14.5"/>
+    <col min="1" max="1" width="7" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="60.81640625" customWidth="1"/>
+    <col min="7" max="7" width="68.36328125" customWidth="1"/>
+    <col min="8" max="8" width="55.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="22" r="1" s="30" spans="1:9">
+    <row r="1" spans="1:9" s="22" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2125,371 +3120,383 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>106</v>
+      <c r="E2" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="31" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
+      <c r="B3" s="25"/>
       <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>106</v>
+      <c r="E3" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="31" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
+      <c r="B4" s="25"/>
       <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>106</v>
-      </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="31" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>106</v>
+      <c r="E5" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="31" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>106</v>
+      <c r="E6" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="31" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>106</v>
+      <c r="E7" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="31" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>106</v>
+      <c r="E8" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="31" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
+      <c r="B9" s="25"/>
       <c r="C9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>106</v>
+      <c r="E9" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="31" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
+      <c r="B10" s="25"/>
       <c r="C10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>106</v>
+      <c r="E10" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="31" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>124</v>
+      <c r="B11" s="31" t="s">
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="31" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
+      <c r="B12" s="25"/>
       <c r="C12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="31" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
+      <c r="B13" s="25"/>
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="31" t="s">
+      <c r="D13" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="31" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
+      <c r="B14" s="25"/>
       <c r="C14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="31" t="n">
-        <v>14</v>
-      </c>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25"/>
       <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="31" t="s">
+      <c r="D15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="31" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>133</v>
+      <c r="B16" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="31" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="31" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="31" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="31" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="31" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="31" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="31" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="31" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="31" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="31" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
     </row>
@@ -2498,67 +3505,65 @@
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B15"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="F15" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge" ref="F18" r:id="rId4"/>
+    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="F15" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="F16" r:id="rId3"/>
+    <hyperlink ref="F18" r:id="rId4" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="15.83203125"/>
-    <col customWidth="1" max="2" min="2" style="32" width="16"/>
+    <col min="1" max="1" width="15.81640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
-        <v>145</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/TestDatas/api_info.xlsx
+++ b/TestDatas/api_info.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zws/git/pupu_api/TestDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pupu_api\pupu_api\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,9 +18,6 @@
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="232">
   <si>
     <t>case_id</t>
   </si>
@@ -535,6 +532,204 @@
   </si>
   <si>
     <t>${pre_phone_a}</t>
+  </si>
+  <si>
+    <t>个人详情页</t>
+  </si>
+  <si>
+    <t>user/info/profile</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/info/profile</t>
+  </si>
+  <si>
+    <t>他人详情页-正常请求</t>
+  </si>
+  <si>
+    <t>{"user":"userId_a","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>他人详情页-用户不存在</t>
+  </si>
+  <si>
+    <t>{"user":"","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>"code":40050</t>
+  </si>
+  <si>
+    <t>好友tab页</t>
+  </si>
+  <si>
+    <t>好友tab-正常请求</t>
+  </si>
+  <si>
+    <t>user/friend/profile</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/friend/profile</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_a}"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友tab
+修改基础信息</t>
+  </si>
+  <si>
+    <t>修改个性签名-正常</t>
+  </si>
+  <si>
+    <t>user/friend/update/signature</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/friend/update/signature</t>
+  </si>
+  <si>
+    <t>{"signature":"啪啪啪","p":"${ticket_a}"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个性签名-超出字符限制</t>
+  </si>
+  <si>
+    <t>{"signature":"啪啪啪啪啪啪啪啪啪啪啪啪那啪啪怕怕怕啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪怕啪啪啪","p":"${ticket_a}"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":40008</t>
+  </si>
+  <si>
+    <t>修改个性签名-违禁词</t>
+  </si>
+  <si>
+    <t>{"signature":"","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>"code":40013</t>
+  </si>
+  <si>
+    <t>修改名字-正常</t>
+  </si>
+  <si>
+    <t>user/friend/update/name</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/friend/update/name</t>
+  </si>
+  <si>
+    <t>{"nickname":"黄玉平","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改名字-超出字数限制</t>
+  </si>
+  <si>
+    <t>{"nickname":"哈哈哈哈哈哈奥奥奥哈哈","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改名字-敏感字</t>
+  </si>
+  <si>
+    <t>{"nickname":"","p"="${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改头像-正常修改</t>
+  </si>
+  <si>
+    <t>user/friend/update/avatar</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/friend/update/avatar</t>
+  </si>
+  <si>
+    <t>{"type":"1","image":"","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改头像-上传失败</t>
+  </si>
+  <si>
+    <t>"code":-1</t>
+  </si>
+  <si>
+    <t>修改头像-上传错误</t>
+  </si>
+  <si>
+    <t>"code":40011</t>
+  </si>
+  <si>
+    <t>好友tab
+粉丝/关注列表</t>
+  </si>
+  <si>
+    <t>粉丝列表-正常请求</t>
+  </si>
+  <si>
+    <t>user/friend/followers</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/followers</t>
+  </si>
+  <si>
+    <t>关注列表-正常请求</t>
+  </si>
+  <si>
+    <t>user/followings</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/followings</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-正常请求</t>
+  </si>
+  <si>
+    <t>/user/follow</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/follow</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_a}","user":"${userId_b}"}</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-无访问权限</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_a}","user":"yji52QuSVl3W16qv20-Hl"}</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-被对方拉黑</t>
+  </si>
+  <si>
+    <t>"code":400038</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-不能被关注</t>
+  </si>
+  <si>
+    <t>"code":400061</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-已经是好友</t>
+  </si>
+  <si>
+    <t>"code":400057</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-取消关注-正常请求</t>
+  </si>
+  <si>
+    <t>/user/follow/cancel</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/follow/cancel</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-取消关注-没有权限</t>
   </si>
 </sst>
 </file>
@@ -544,7 +739,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,8 +777,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,6 +834,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -647,7 +855,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -728,6 +936,50 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -739,6 +991,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1029,28 +1284,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" customWidth="1"/>
     <col min="4" max="4" width="32" style="18" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="52.1640625" customWidth="1"/>
-    <col min="7" max="7" width="110.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="52.1796875" customWidth="1"/>
+    <col min="7" max="7" width="110.6328125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="13" style="17" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" customWidth="1"/>
-    <col min="11" max="11" width="31.83203125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="33.36328125" customWidth="1"/>
+    <col min="11" max="11" width="31.81640625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1115,7 +1370,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1142,7 +1397,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1169,7 +1424,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1196,7 +1451,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1223,7 +1478,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1250,7 +1505,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1277,7 +1532,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1307,7 +1562,7 @@
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1334,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1367,7 +1622,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1395,7 +1650,7 @@
       </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1423,7 +1678,7 @@
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1451,7 +1706,7 @@
       </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1479,7 +1734,7 @@
       </c>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1507,7 +1762,7 @@
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1539,7 +1794,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1569,7 +1824,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1597,7 +1852,7 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1625,7 +1880,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1653,7 +1908,7 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -1681,7 +1936,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -1709,7 +1964,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -1739,7 +1994,7 @@
       </c>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -1767,7 +2022,7 @@
       </c>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -1795,7 +2050,7 @@
       </c>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -1823,7 +2078,7 @@
       </c>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -1851,7 +2106,7 @@
       </c>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -1879,7 +2134,7 @@
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -1907,7 +2162,7 @@
       </c>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -1935,7 +2190,7 @@
       </c>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -1968,7 +2223,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -1992,7 +2247,7 @@
       </c>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -2014,7 +2269,7 @@
       </c>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -2036,7 +2291,7 @@
       </c>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -2058,7 +2313,7 @@
       </c>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -2080,7 +2335,7 @@
       </c>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -2108,7 +2363,7 @@
       </c>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -2136,7 +2391,7 @@
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -2164,7 +2419,7 @@
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -2193,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -2220,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -2249,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -2276,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -2303,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -2326,7 +2581,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -2347,8 +2602,647 @@
         <v>112</v>
       </c>
     </row>
+    <row r="48" spans="1:11" s="34" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="34" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>48</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="42" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>49</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="I50" s="40">
+        <v>1</v>
+      </c>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+    </row>
+    <row r="51" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>50</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="I51" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>51</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>52</v>
+      </c>
+      <c r="B53" s="44"/>
+      <c r="C53" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="I53" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>53</v>
+      </c>
+      <c r="B54" s="45"/>
+      <c r="C54" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G54" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="I54" s="40">
+        <v>1</v>
+      </c>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+    </row>
+    <row r="55" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>54</v>
+      </c>
+      <c r="B55" s="44"/>
+      <c r="C55" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
+      <c r="B56" s="44"/>
+      <c r="C56" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>56</v>
+      </c>
+      <c r="B57" s="45"/>
+      <c r="C57" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="I57" s="40">
+        <v>1</v>
+      </c>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+    </row>
+    <row r="58" spans="1:15" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>57</v>
+      </c>
+      <c r="B58" s="45"/>
+      <c r="C58" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G58" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H58" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="40">
+        <v>1</v>
+      </c>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+    </row>
+    <row r="59" spans="1:15" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>58</v>
+      </c>
+      <c r="B59" s="45"/>
+      <c r="C59" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G59" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I59" s="40">
+        <v>1</v>
+      </c>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+    </row>
+    <row r="60" spans="1:15" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>59</v>
+      </c>
+      <c r="B60" s="45"/>
+      <c r="C60" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="I60" s="40">
+        <v>1</v>
+      </c>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+    </row>
+    <row r="61" spans="1:15" s="32" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>60</v>
+      </c>
+      <c r="B61" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="32" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>61</v>
+      </c>
+      <c r="B62" s="44"/>
+      <c r="C62" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="G62" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>62</v>
+      </c>
+      <c r="B63" s="44"/>
+      <c r="C63" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="35">
+        <v>1</v>
+      </c>
+      <c r="K63" s="33"/>
+    </row>
+    <row r="64" spans="1:15" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <v>63</v>
+      </c>
+      <c r="B64" s="45"/>
+      <c r="C64" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G64" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="H64" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="I64" s="40">
+        <v>1</v>
+      </c>
+      <c r="K64" s="48"/>
+    </row>
+    <row r="65" spans="1:11" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>64</v>
+      </c>
+      <c r="B65" s="45"/>
+      <c r="C65" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="I65" s="40">
+        <v>1</v>
+      </c>
+      <c r="K65" s="48"/>
+    </row>
+    <row r="66" spans="1:11" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>65</v>
+      </c>
+      <c r="B66" s="45"/>
+      <c r="C66" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="I66" s="40">
+        <v>1</v>
+      </c>
+      <c r="K66" s="48"/>
+    </row>
+    <row r="67" spans="1:11" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>66</v>
+      </c>
+      <c r="B67" s="45"/>
+      <c r="C67" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="I67" s="40">
+        <v>1</v>
+      </c>
+      <c r="K67" s="48"/>
+    </row>
+    <row r="68" spans="1:11" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>67</v>
+      </c>
+      <c r="B68" s="44"/>
+      <c r="C68" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="H68" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" s="35">
+        <v>1</v>
+      </c>
+      <c r="K68" s="33"/>
+    </row>
+    <row r="69" spans="1:11" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>68</v>
+      </c>
+      <c r="B69" s="45"/>
+      <c r="C69" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H69" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I69" s="35">
+        <v>1</v>
+      </c>
+      <c r="K69" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="B61:B69"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="B18:B23"/>
@@ -2358,6 +3252,10 @@
     <mergeCell ref="B43:B45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F68" r:id="rId1"/>
+    <hyperlink ref="F69" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2371,20 +3269,20 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="60.83203125" customWidth="1"/>
-    <col min="7" max="7" width="68.33203125" customWidth="1"/>
-    <col min="8" max="8" width="55.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="60.81640625" customWidth="1"/>
+    <col min="7" max="7" width="68.36328125" customWidth="1"/>
+    <col min="8" max="8" width="55.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +3311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2439,7 +3337,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2460,7 +3358,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2481,7 +3379,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2502,7 +3400,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2523,7 +3421,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -2544,7 +3442,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -2565,7 +3463,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -2586,7 +3484,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -2607,7 +3505,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -2627,7 +3525,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -2645,7 +3543,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -2663,7 +3561,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -2681,7 +3579,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -2699,7 +3597,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -2719,7 +3617,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -2736,7 +3634,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -2753,42 +3651,42 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -2817,13 +3715,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="16" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>161</v>
       </c>
@@ -2831,7 +3729,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>163</v>
       </c>
@@ -2839,17 +3737,17 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>167</v>
       </c>

--- a/TestDatas/api_info.xlsx
+++ b/TestDatas/api_info.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="234">
   <si>
     <t>case_id</t>
   </si>
@@ -345,9 +345,6 @@
     <t>{"user":"${userId_c}","type":"3","from":"2","p":"${ticket_a}"}</t>
   </si>
   <si>
-    <t>接收的好友请求列表</t>
-  </si>
-  <si>
     <t>好友请求列表为空</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t>{"p":"${ticket_b}"}</t>
   </si>
   <si>
-    <t>接收好友请求</t>
-  </si>
-  <si>
     <t>接受好友请求 - 列表中有的 - 熟人</t>
   </si>
   <si>
@@ -556,9 +550,6 @@
   </si>
   <si>
     <t>"code":40050</t>
-  </si>
-  <si>
-    <t>好友tab页</t>
   </si>
   <si>
     <t>好友tab-正常请求</t>
@@ -578,158 +569,180 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>修改个性签名-正常</t>
+  </si>
+  <si>
+    <t>user/friend/update/signature</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/friend/update/signature</t>
+  </si>
+  <si>
+    <t>{"signature":"啪啪啪","p":"${ticket_a}"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个性签名-超出字符限制</t>
+  </si>
+  <si>
+    <t>{"signature":"啪啪啪啪啪啪啪啪啪啪啪啪那啪啪怕怕怕啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪怕啪啪啪","p":"${ticket_a}"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":40008</t>
+  </si>
+  <si>
+    <t>修改个性签名-违禁词</t>
+  </si>
+  <si>
+    <t>{"signature":"","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>"code":40013</t>
+  </si>
+  <si>
+    <t>修改名字-正常</t>
+  </si>
+  <si>
+    <t>user/friend/update/name</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/friend/update/name</t>
+  </si>
+  <si>
+    <t>{"nickname":"黄玉平","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改名字-超出字数限制</t>
+  </si>
+  <si>
+    <t>{"nickname":"哈哈哈哈哈哈奥奥奥哈哈","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改名字-敏感字</t>
+  </si>
+  <si>
+    <t>{"nickname":"","p"="${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改头像-正常修改</t>
+  </si>
+  <si>
+    <t>user/friend/update/avatar</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/friend/update/avatar</t>
+  </si>
+  <si>
+    <t>{"type":"1","image":"","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改头像-上传失败</t>
+  </si>
+  <si>
+    <t>"code":-1</t>
+  </si>
+  <si>
+    <t>修改头像-上传错误</t>
+  </si>
+  <si>
+    <t>"code":40011</t>
+  </si>
+  <si>
+    <t>好友tab
+粉丝/关注列表</t>
+  </si>
+  <si>
+    <t>user/friend/followers</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/followers</t>
+  </si>
+  <si>
+    <t>关注列表-正常请求</t>
+  </si>
+  <si>
+    <t>user/followings</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/followings</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-正常请求</t>
+  </si>
+  <si>
+    <t>/user/follow</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/follow</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_a}","user":"${userId_b}"}</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-无访问权限</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_a}","user":"yji52QuSVl3W16qv20-Hl"}</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-被对方拉黑</t>
+  </si>
+  <si>
+    <t>"code":400038</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-不能被关注</t>
+  </si>
+  <si>
+    <t>"code":400061</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-添加关注-已经是好友</t>
+  </si>
+  <si>
+    <t>"code":400057</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-取消关注-正常请求</t>
+  </si>
+  <si>
+    <t>/user/follow/cancel</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/follow/cancel</t>
+  </si>
+  <si>
+    <t>粉丝/关注列表-取消关注-没有权限</t>
+  </si>
+  <si>
+    <t>好友tab页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>好友tab
 修改基础信息</t>
-  </si>
-  <si>
-    <t>修改个性签名-正常</t>
-  </si>
-  <si>
-    <t>user/friend/update/signature</t>
-  </si>
-  <si>
-    <t>http://api798.impupu.com/api/user/friend/update/signature</t>
-  </si>
-  <si>
-    <t>{"signature":"啪啪啪","p":"${ticket_a}"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改个性签名-超出字符限制</t>
-  </si>
-  <si>
-    <t>{"signature":"啪啪啪啪啪啪啪啪啪啪啪啪那啪啪怕怕怕啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪啪怕啪啪啪","p":"${ticket_a}"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"code":40008</t>
-  </si>
-  <si>
-    <t>修改个性签名-违禁词</t>
-  </si>
-  <si>
-    <t>{"signature":"","p":"${ticket_a}"}</t>
-  </si>
-  <si>
-    <t>"code":40013</t>
-  </si>
-  <si>
-    <t>修改名字-正常</t>
-  </si>
-  <si>
-    <t>user/friend/update/name</t>
-  </si>
-  <si>
-    <t>http://api798.impupu.com/api/user/friend/update/name</t>
-  </si>
-  <si>
-    <t>{"nickname":"黄玉平","p":"${ticket_a}"}</t>
-  </si>
-  <si>
-    <t>修改名字-超出字数限制</t>
-  </si>
-  <si>
-    <t>{"nickname":"哈哈哈哈哈哈奥奥奥哈哈","p":"${ticket_a}"}</t>
-  </si>
-  <si>
-    <t>修改名字-敏感字</t>
-  </si>
-  <si>
-    <t>{"nickname":"","p"="${ticket_a}"}</t>
-  </si>
-  <si>
-    <t>修改头像-正常修改</t>
-  </si>
-  <si>
-    <t>user/friend/update/avatar</t>
-  </si>
-  <si>
-    <t>http://api798.impupu.com/api/user/friend/update/avatar</t>
-  </si>
-  <si>
-    <t>{"type":"1","image":"","p":"${ticket_a}"}</t>
-  </si>
-  <si>
-    <t>修改头像-上传失败</t>
-  </si>
-  <si>
-    <t>"code":-1</t>
-  </si>
-  <si>
-    <t>修改头像-上传错误</t>
-  </si>
-  <si>
-    <t>"code":40011</t>
-  </si>
-  <si>
-    <t>好友tab
-粉丝/关注列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他人/自己详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"1","image":"111","p":"${ticket_a}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>粉丝列表-正常请求</t>
-  </si>
-  <si>
-    <t>user/friend/followers</t>
-  </si>
-  <si>
-    <t>http://api798.impupu.com/api/user/followers</t>
-  </si>
-  <si>
-    <t>关注列表-正常请求</t>
-  </si>
-  <si>
-    <t>user/followings</t>
-  </si>
-  <si>
-    <t>http://api798.impupu.com/api/user/followings</t>
-  </si>
-  <si>
-    <t>粉丝/关注列表-添加关注-正常请求</t>
-  </si>
-  <si>
-    <t>/user/follow</t>
-  </si>
-  <si>
-    <t>http://api798.impupu.com/api/user/follow</t>
-  </si>
-  <si>
-    <t>{"p":"${ticket_a}","user":"${userId_b}"}</t>
-  </si>
-  <si>
-    <t>粉丝/关注列表-添加关注-无访问权限</t>
-  </si>
-  <si>
-    <t>{"p":"${ticket_a}","user":"yji52QuSVl3W16qv20-Hl"}</t>
-  </si>
-  <si>
-    <t>粉丝/关注列表-添加关注-被对方拉黑</t>
-  </si>
-  <si>
-    <t>"code":400038</t>
-  </si>
-  <si>
-    <t>粉丝/关注列表-添加关注-不能被关注</t>
-  </si>
-  <si>
-    <t>"code":400061</t>
-  </si>
-  <si>
-    <t>粉丝/关注列表-添加关注-已经是好友</t>
-  </si>
-  <si>
-    <t>"code":400057</t>
-  </si>
-  <si>
-    <t>粉丝/关注列表-取消关注-正常请求</t>
-  </si>
-  <si>
-    <t>/user/follow/cancel</t>
-  </si>
-  <si>
-    <t>http://api798.impupu.com/api/user/follow/cancel</t>
-  </si>
-  <si>
-    <t>粉丝/关注列表-取消关注-没有权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收的好友请求列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收好友请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -785,7 +798,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,26 +831,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAEEF3"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -883,21 +890,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -915,6 +912,34 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -936,50 +961,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1284,29 +1291,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A69"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="7" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" style="14" customWidth="1"/>
     <col min="3" max="3" width="32.453125" customWidth="1"/>
-    <col min="4" max="4" width="32" style="18" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="32" style="14" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="14" customWidth="1"/>
     <col min="6" max="6" width="52.1796875" customWidth="1"/>
     <col min="7" max="7" width="110.6328125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="13" style="17" customWidth="1"/>
+    <col min="9" max="9" width="13" style="13" customWidth="1"/>
     <col min="10" max="10" width="33.36328125" customWidth="1"/>
-    <col min="11" max="11" width="31.81640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="31.81640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1340,14 +1347,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1356,25 +1363,26 @@
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="18">
         <v>1</v>
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1383,25 +1391,26 @@
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="18">
         <v>1</v>
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1410,25 +1419,26 @@
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="18">
         <v>1</v>
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1437,25 +1447,26 @@
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="18">
         <v>1</v>
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    <row r="6" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1464,25 +1475,26 @@
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="18">
         <v>1</v>
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1491,25 +1503,26 @@
       <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="18">
         <v>1</v>
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1518,28 +1531,28 @@
       <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="18">
         <v>1</v>
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+    <row r="9" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1548,25 +1561,25 @@
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="15">
         <v>1</v>
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="8" t="s">
         <v>38</v>
       </c>
@@ -1582,19 +1595,19 @@
       <c r="G10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1603,31 +1616,31 @@
       <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="20" t="s">
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+    <row r="12" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1636,26 +1649,26 @@
       <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="15">
         <v>1</v>
       </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1664,26 +1677,26 @@
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="15">
         <v>1</v>
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+    <row r="14" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1692,26 +1705,26 @@
       <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="15">
         <v>1</v>
       </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="20" t="s">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1720,26 +1733,26 @@
       <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="15">
         <v>1</v>
       </c>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1748,25 +1761,25 @@
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="15">
         <v>1</v>
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1775,203 +1788,203 @@
       <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="20" t="s">
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+    <row r="18" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="21" t="s">
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="23">
         <v>1</v>
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+    <row r="19" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="22" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="21" t="s">
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="23">
         <v>1</v>
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+    <row r="20" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="23">
         <v>1</v>
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+    <row r="21" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="23">
         <v>1</v>
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+    <row r="22" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="22" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="23">
         <v>1</v>
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+    <row r="23" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="22" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="21" t="s">
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="23">
         <v>1</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+    <row r="24" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -1980,26 +1993,26 @@
       <c r="E24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="15">
         <v>1</v>
       </c>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+    <row r="25" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="16" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -2008,26 +2021,26 @@
       <c r="E25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="15">
         <v>1</v>
       </c>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+    <row r="26" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="16" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -2036,25 +2049,25 @@
       <c r="E26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="15">
         <v>1</v>
       </c>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+    <row r="27" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="27"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="8" t="s">
         <v>21</v>
       </c>
@@ -2073,17 +2086,17 @@
       <c r="H27" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="15">
         <v>1</v>
       </c>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+    <row r="28" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="16" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -2092,25 +2105,25 @@
       <c r="E28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="15">
         <v>1</v>
       </c>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+    <row r="29" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="8" t="s">
         <v>21</v>
       </c>
@@ -2129,17 +2142,17 @@
       <c r="H29" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="15">
         <v>1</v>
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+    <row r="30" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -2148,25 +2161,25 @@
       <c r="E30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="16" t="s">
         <v>86</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="15">
         <v>1</v>
       </c>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+    <row r="31" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="8" t="s">
         <v>21</v>
       </c>
@@ -2185,17 +2198,17 @@
       <c r="H31" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="15">
         <v>1</v>
       </c>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+    <row r="32" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="16" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -2204,143 +2217,133 @@
       <c r="E32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="16" t="s">
         <v>88</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="19">
-        <v>1</v>
-      </c>
-      <c r="J32" s="20" t="s">
+      <c r="I32" s="15">
+        <v>1</v>
+      </c>
+      <c r="J32" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+    <row r="33" spans="1:11" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="47">
         <v>1</v>
       </c>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+    <row r="34" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="47">
         <v>1</v>
       </c>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+    <row r="35" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="47">
         <v>1</v>
       </c>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+    <row r="36" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="37"/>
+      <c r="C36" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="47">
         <v>1</v>
       </c>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+    <row r="37" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="47">
         <v>1</v>
       </c>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+    <row r="38" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -2349,26 +2352,26 @@
       <c r="E38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="47">
         <v>1</v>
       </c>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+    <row r="39" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="22" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -2377,26 +2380,26 @@
       <c r="E39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="47">
         <v>1</v>
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+    <row r="40" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="22" t="s">
         <v>103</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -2405,844 +2408,804 @@
       <c r="E40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="47">
         <v>1</v>
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+    <row r="41" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="D41" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="E41" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="F41" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="G41" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="H41" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
+      <c r="I41" s="46">
+        <v>1</v>
+      </c>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="H42" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+      <c r="I42" s="46">
+        <v>1</v>
+      </c>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="E43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="G43" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="21" t="s">
+      <c r="H43" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="47">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="48"/>
+      <c r="C44" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="D44" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="H44" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>43</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="21" t="s">
+      <c r="I44" s="47">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="48"/>
+      <c r="C45" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G44" s="21" t="s">
+      <c r="D45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H45" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="47">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="49"/>
+      <c r="C47" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>44</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="21" t="s">
+      <c r="I48" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I50" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="40" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="I52" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="I53" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="31"/>
+      <c r="C54" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I54" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="31"/>
+      <c r="C57" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I57" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="31"/>
+      <c r="C58" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="I59" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="31"/>
+      <c r="C60" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="I60" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="40" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G61" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="40" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="44"/>
+      <c r="C62" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="G62" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="44"/>
+      <c r="C63" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="42">
+        <v>1</v>
+      </c>
+      <c r="K63" s="41"/>
+    </row>
+    <row r="64" spans="1:11" s="40" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="44"/>
+      <c r="C64" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="H64" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I45" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
-        <v>45</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>46</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="34" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <v>47</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H48" s="32" t="s">
+      <c r="I64" s="42">
+        <v>1</v>
+      </c>
+      <c r="K64" s="41"/>
+    </row>
+    <row r="65" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="44"/>
+      <c r="C65" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="H65" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="I65" s="42">
+        <v>1</v>
+      </c>
+      <c r="K65" s="41"/>
+    </row>
+    <row r="66" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="44"/>
+      <c r="C66" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="I66" s="42">
+        <v>1</v>
+      </c>
+      <c r="K66" s="41"/>
+    </row>
+    <row r="67" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="44"/>
+      <c r="C67" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="I67" s="42">
+        <v>1</v>
+      </c>
+      <c r="K67" s="41"/>
+    </row>
+    <row r="68" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="44"/>
+      <c r="C68" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H68" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I48" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="34" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
-        <v>48</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="42" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
-        <v>49</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H50" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="I50" s="40">
-        <v>1</v>
-      </c>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41"/>
-    </row>
-    <row r="51" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
-        <v>50</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H51" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="I51" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
-        <v>51</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="G52" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="H52" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="I52" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>52</v>
-      </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="H53" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="I53" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <v>53</v>
-      </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="G54" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="H54" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="I54" s="40">
-        <v>1</v>
-      </c>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-    </row>
-    <row r="55" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
-        <v>54</v>
-      </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H55" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>55</v>
-      </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="G56" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H56" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
-        <v>56</v>
-      </c>
-      <c r="B57" s="45"/>
-      <c r="C57" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="I57" s="40">
-        <v>1</v>
-      </c>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-    </row>
-    <row r="58" spans="1:15" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
-        <v>57</v>
-      </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="E58" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="G58" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="H58" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58" s="40">
-        <v>1</v>
-      </c>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-    </row>
-    <row r="59" spans="1:15" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
-        <v>58</v>
-      </c>
-      <c r="B59" s="45"/>
-      <c r="C59" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="G59" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="I59" s="40">
-        <v>1</v>
-      </c>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-    </row>
-    <row r="60" spans="1:15" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
-        <v>59</v>
-      </c>
-      <c r="B60" s="45"/>
-      <c r="C60" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="G60" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="I60" s="40">
-        <v>1</v>
-      </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-    </row>
-    <row r="61" spans="1:15" s="32" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
-        <v>60</v>
-      </c>
-      <c r="B61" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="D61" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="G61" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="H61" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I61" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" s="32" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>61</v>
-      </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="G62" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="H62" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I62" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>62</v>
-      </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="32" t="s">
+      <c r="I68" s="42">
+        <v>1</v>
+      </c>
+      <c r="K68" s="41"/>
+    </row>
+    <row r="69" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="44"/>
+      <c r="C69" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="G69" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D63" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="H63" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63" s="35">
-        <v>1</v>
-      </c>
-      <c r="K63" s="33"/>
-    </row>
-    <row r="64" spans="1:15" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>63</v>
-      </c>
-      <c r="B64" s="45"/>
-      <c r="C64" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="G64" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="H64" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I64" s="40">
-        <v>1</v>
-      </c>
-      <c r="K64" s="48"/>
-    </row>
-    <row r="65" spans="1:11" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>64</v>
-      </c>
-      <c r="B65" s="45"/>
-      <c r="C65" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E65" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="I65" s="40">
-        <v>1</v>
-      </c>
-      <c r="K65" s="48"/>
-    </row>
-    <row r="66" spans="1:11" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>65</v>
-      </c>
-      <c r="B66" s="45"/>
-      <c r="C66" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="I66" s="40">
-        <v>1</v>
-      </c>
-      <c r="K66" s="48"/>
-    </row>
-    <row r="67" spans="1:11" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>66</v>
-      </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="I67" s="40">
-        <v>1</v>
-      </c>
-      <c r="K67" s="48"/>
-    </row>
-    <row r="68" spans="1:11" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>67</v>
-      </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="G68" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="H68" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68" s="35">
-        <v>1</v>
-      </c>
-      <c r="K68" s="33"/>
-    </row>
-    <row r="69" spans="1:11" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>68</v>
-      </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="G69" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="H69" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="I69" s="35">
-        <v>1</v>
-      </c>
-      <c r="K69" s="33"/>
+      <c r="H69" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="I69" s="42">
+        <v>1</v>
+      </c>
+      <c r="K69" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B61:B69"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B2:B8"/>
     <mergeCell ref="B52:B60"/>
-    <mergeCell ref="B61:B69"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="B18:B23"/>
@@ -3252,10 +3215,6 @@
     <mergeCell ref="B43:B45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F68" r:id="rId1"/>
-    <hyperlink ref="F69" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3271,18 +3230,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="7" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="14" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="14" customWidth="1"/>
     <col min="6" max="6" width="60.81640625" customWidth="1"/>
     <col min="7" max="7" width="68.36328125" customWidth="1"/>
     <col min="8" max="8" width="55.1796875" customWidth="1"/>
     <col min="9" max="9" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3312,382 +3271,382 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="H2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" t="s">
-        <v>135</v>
-      </c>
-    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="33"/>
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>108</v>
+      <c r="E5" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="E8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E10" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="D11" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="18" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="33"/>
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>153</v>
-      </c>
-    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33"/>
       <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="D16" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="18" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>160</v>
-      </c>
-    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
     </row>
@@ -3717,39 +3676,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="16" style="23" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="23" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/TestDatas/api_info.xlsx
+++ b/TestDatas/api_info.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zws/git/pupu_api/TestDatas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="case_datas" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
-    <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case_datas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prepare_datas" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
   <si>
     <t>case_id</t>
   </si>
@@ -333,19 +320,19 @@
     <t>friend/request/send</t>
   </si>
   <si>
-    <t>{"user":"Gr5AziDRI5_W16qv20-Hlg","type":"1","from":"0","p":"${ticket_a}"}</t>
+    <t>{"user":"Gr5AziDRI5_W16qv20-Hlg","type":"2","from":"0","p":"${ticket_a}"}</t>
   </si>
   <si>
     <t>添加 - 朋友</t>
   </si>
   <si>
-    <t>{"user":"${userId_b}","type":"2","from":"1","p":"${ticket_a}"}</t>
+    <t>{"user":"${userId_b}","type":"3","from":"1","p":"${ticket_a}"}</t>
   </si>
   <si>
     <t>添加 - 好朋友</t>
   </si>
   <si>
-    <t>{"user":"${userId_c}","type":"3","from":"2","p":"${ticket_a}"}</t>
+    <t>{"user":"${userId_c}","type":"4","from":"2","p":"${ticket_a}"}</t>
   </si>
   <si>
     <t>接收的好友请求列表</t>
@@ -438,10 +425,10 @@
     <t>他人详情页-正常请求</t>
   </si>
   <si>
-    <t>{"user":"userId_a","p":"${ticket_a}"}</t>
-  </si>
-  <si>
-    <t>他人详情页-用户不存在</t>
+    <t>{"user":"userId_b","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>[预留]他人详情页-用户不存在</t>
   </si>
   <si>
     <t>{"user":"","p":"${ticket_a}"}</t>
@@ -487,7 +474,7 @@
     <t>"code":40008</t>
   </si>
   <si>
-    <t>修改个性签名-违禁词</t>
+    <t>[预留]修改个性签名-违禁词</t>
   </si>
   <si>
     <t>{"signature":"","p":"${ticket_a}"}</t>
@@ -514,13 +501,13 @@
     <t>{"nickname":"哈哈哈哈哈哈奥奥奥哈哈","p":"${ticket_a}"}</t>
   </si>
   <si>
-    <t>修改名字-敏感字</t>
+    <t>[预留]修改名字-敏感字</t>
   </si>
   <si>
     <t>{"nickname":"","p"="${ticket_a}"}</t>
   </si>
   <si>
-    <t>修改头像-正常修改</t>
+    <t>修改头像-正常修改-类型1</t>
   </si>
   <si>
     <t>user/friend/update/avatar</t>
@@ -529,16 +516,31 @@
     <t>http://api798.impupu.com/api/user/friend/update/avatar</t>
   </si>
   <si>
+    <t>{"type":"1","image":"L8etTz_pehro7csz1RiiBg","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改头像-正常修改-类型2</t>
+  </si>
+  <si>
+    <t>{"type":"2","image":"L8etTz_pehro7csz1RiiBg","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>修改头像-正常修改-类型3</t>
+  </si>
+  <si>
+    <t>{"type":"3","image":"L8etTz_pehro7csz1RiiBg","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>[预留]修改头像-上传失败</t>
+  </si>
+  <si>
     <t>{"type":"1","image":"","p":"${ticket_a}"}</t>
   </si>
   <si>
-    <t>修改头像-上传失败</t>
-  </si>
-  <si>
     <t>"code":-1</t>
   </si>
   <si>
-    <t>修改头像-上传错误</t>
+    <t>[预留]修改头像-上传错误</t>
   </si>
   <si>
     <t>{"type":"1","image":"111","p":"${ticket_a}"}</t>
@@ -551,6 +553,18 @@
 粉丝/关注列表</t>
   </si>
   <si>
+    <t>粉丝/关注列表-添加关注-正常请求</t>
+  </si>
+  <si>
+    <t>/user/follow</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/user/follow</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_a}","user":"${userId_b}"}</t>
+  </si>
+  <si>
     <t>粉丝列表-正常请求</t>
   </si>
   <si>
@@ -569,18 +583,6 @@
     <t>http://api798.impupu.com/api/user/followings</t>
   </si>
   <si>
-    <t>粉丝/关注列表-添加关注-正常请求</t>
-  </si>
-  <si>
-    <t>/user/follow</t>
-  </si>
-  <si>
-    <t>http://api798.impupu.com/api/user/follow</t>
-  </si>
-  <si>
-    <t>{"p":"${ticket_a}","user":"${userId_b}"}</t>
-  </si>
-  <si>
     <t>粉丝/关注列表-添加关注-无访问权限</t>
   </si>
   <si>
@@ -728,7 +730,7 @@
     <t>${phone_a}</t>
   </si>
   <si>
-    <t>13210000196</t>
+    <t>13210000205</t>
   </si>
   <si>
     <t>${phone_b}</t>
@@ -743,71 +745,72 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt formatCode="0_);[Red]\(0\)" numFmtId="164"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <family val="3"/>
-      <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,13 +828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -846,107 +849,104 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+  <cellXfs count="34">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1234,29 +1234,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
+      <selection activeCell="D40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.81640625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="32" style="22" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="52.1640625" customWidth="1"/>
-    <col min="7" max="7" width="110.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="13" style="21" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" customWidth="1"/>
-    <col min="11" max="11" width="31.83203125" style="22" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="7" width="7"/>
+    <col customWidth="1" max="2" min="2" style="32" width="24.1796875"/>
+    <col customWidth="1" max="3" min="3" width="32.453125"/>
+    <col customWidth="1" max="4" min="4" style="32" width="32"/>
+    <col customWidth="1" max="5" min="5" style="32" width="8.81640625"/>
+    <col customWidth="1" max="6" min="6" width="52.1796875"/>
+    <col customWidth="1" max="7" min="7" width="66.81640625"/>
+    <col customWidth="1" max="8" min="8" width="22.453125"/>
+    <col customWidth="1" max="9" min="9" style="31" width="13"/>
+    <col customWidth="1" max="10" min="10" width="33.36328125"/>
+    <col customWidth="1" max="11" min="11" style="32" width="31.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="31" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1291,14 +1295,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
+    <row customFormat="1" customHeight="1" ht="15" r="2" s="28" spans="1:11">
+      <c r="A2" s="15" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -1307,26 +1311,25 @@
       <c r="E2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="17">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15">
+      <c r="I2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="3" s="28" spans="1:11">
+      <c r="A3" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -1335,26 +1338,25 @@
       <c r="E3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15">
+      <c r="I3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="4" s="28" spans="1:11">
+      <c r="A4" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -1363,26 +1365,25 @@
       <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="17">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15">
+      <c r="I4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="5" s="28" spans="1:11">
+      <c r="A5" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1391,26 +1392,25 @@
       <c r="E5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="17">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15">
+      <c r="I5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="6" s="28" spans="1:11">
+      <c r="A6" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1419,26 +1419,25 @@
       <c r="E6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="17">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15">
+      <c r="I6" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="7" s="28" spans="1:11">
+      <c r="A7" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="28" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -1447,26 +1446,25 @@
       <c r="E7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="17">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15">
+      <c r="I7" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="8" s="28" spans="1:11">
+      <c r="A8" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -1475,28 +1473,28 @@
       <c r="E8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="17">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
+      <c r="I8" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="9" s="25" spans="1:11">
+      <c r="A9" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -1505,25 +1503,24 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="20">
-        <v>1</v>
-      </c>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14">
+      <c r="I9" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="10" s="25" spans="1:11">
+      <c r="A10" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
       <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1539,19 +1536,18 @@
       <c r="G10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14">
+      <c r="I10" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="11" s="25" spans="1:11">
+      <c r="A11" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -1560,31 +1556,30 @@
       <c r="E11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="20">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14">
+    <row customFormat="1" customHeight="1" ht="15" r="12" s="25" spans="1:11">
+      <c r="A12" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="25" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -1593,26 +1588,25 @@
       <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="20">
-        <v>1</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14">
+      <c r="I12" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="13" s="25" spans="1:11">
+      <c r="A13" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="25" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -1621,26 +1615,25 @@
       <c r="E13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="20">
-        <v>1</v>
-      </c>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14">
+      <c r="I13" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="14" s="25" spans="1:11">
+      <c r="A14" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -1649,26 +1642,25 @@
       <c r="E14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="20">
-        <v>1</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="16" t="s">
+      <c r="I14" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="15" s="25" spans="1:11">
+      <c r="A15" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -1677,26 +1669,25 @@
       <c r="E15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="20">
-        <v>1</v>
-      </c>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14">
+      <c r="I15" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="16" s="25" spans="1:11">
+      <c r="A16" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="25" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -1705,25 +1696,25 @@
       <c r="E16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="20">
-        <v>1</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14">
+      <c r="I16" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="17" s="25" spans="1:11">
+      <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="25" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -1732,33 +1723,33 @@
       <c r="E17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="20">
-        <v>1</v>
-      </c>
-      <c r="J17" s="16" t="s">
+      <c r="I17" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15">
+    <row customFormat="1" customHeight="1" ht="15" r="18" s="28" spans="1:11">
+      <c r="A18" s="15" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="28" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -1767,26 +1758,25 @@
       <c r="E18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="17">
-        <v>1</v>
-      </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15">
+      <c r="I18" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="19" s="28" spans="1:11">
+      <c r="A19" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="28" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -1795,26 +1785,25 @@
       <c r="E19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="17">
-        <v>1</v>
-      </c>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15">
+      <c r="I19" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="20" s="28" spans="1:11">
+      <c r="A20" s="15" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="28" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -1823,26 +1812,25 @@
       <c r="E20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="28" t="s">
         <v>63</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="17">
-        <v>1</v>
-      </c>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15">
+      <c r="I20" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="21" s="28" spans="1:11">
+      <c r="A21" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="15" t="s">
@@ -1851,26 +1839,25 @@
       <c r="E21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="28" t="s">
         <v>63</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="17">
-        <v>1</v>
-      </c>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15">
+      <c r="I21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="22" s="28" spans="1:11">
+      <c r="A22" s="15" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="28" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -1879,26 +1866,25 @@
       <c r="E22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="17">
-        <v>1</v>
-      </c>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15">
+      <c r="I22" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="23" s="28" spans="1:11">
+      <c r="A23" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="28" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="15" t="s">
@@ -1907,28 +1893,28 @@
       <c r="E23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="17">
-        <v>1</v>
-      </c>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
+      <c r="I23" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="24" s="25" spans="1:11">
+      <c r="A24" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -1937,26 +1923,25 @@
       <c r="E24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="20">
-        <v>1</v>
-      </c>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14">
+      <c r="I24" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="25" s="25" spans="1:11">
+      <c r="A25" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -1965,26 +1950,25 @@
       <c r="E25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="20">
-        <v>1</v>
-      </c>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14">
+      <c r="I25" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="26" s="25" spans="1:11">
+      <c r="A26" s="14" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -1993,25 +1977,24 @@
       <c r="E26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="20">
-        <v>1</v>
-      </c>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14">
+      <c r="I26" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="27" s="25" spans="1:11">
+      <c r="A27" s="14" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="25"/>
       <c r="C27" s="4" t="s">
         <v>21</v>
       </c>
@@ -2027,20 +2010,19 @@
       <c r="G27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="20">
-        <v>1</v>
-      </c>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="14">
+      <c r="I27" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="28" s="25" spans="1:11">
+      <c r="A28" s="14" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="25" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -2049,25 +2031,24 @@
       <c r="E28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="20">
-        <v>1</v>
-      </c>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="14">
+      <c r="I28" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="29" s="25" spans="1:11">
+      <c r="A29" s="14" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="25"/>
       <c r="C29" s="4" t="s">
         <v>21</v>
       </c>
@@ -2083,20 +2064,19 @@
       <c r="G29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="20">
-        <v>1</v>
-      </c>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="14">
+      <c r="I29" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="30" s="25" spans="1:11">
+      <c r="A30" s="14" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -2105,25 +2085,24 @@
       <c r="E30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="20">
-        <v>1</v>
-      </c>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="14">
+      <c r="I30" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="31" s="25" spans="1:11">
+      <c r="A31" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="25"/>
       <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
@@ -2139,20 +2118,19 @@
       <c r="G31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="20">
-        <v>1</v>
-      </c>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="14">
+      <c r="I31" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="32" s="25" spans="1:11">
+      <c r="A32" s="14" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -2161,133 +2139,128 @@
       <c r="E32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="20">
-        <v>1</v>
-      </c>
-      <c r="J32" s="16" t="s">
+      <c r="I32" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="15">
+    <row customFormat="1" customHeight="1" ht="16" r="33" s="28" spans="1:11">
+      <c r="A33" s="14" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="15" t="n"/>
       <c r="E33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="13">
-        <v>1</v>
-      </c>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="15">
+      <c r="I33" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="34" s="28" spans="1:11">
+      <c r="A34" s="14" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="15" t="n"/>
       <c r="E34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="13">
-        <v>1</v>
-      </c>
-      <c r="K34" s="15"/>
-    </row>
-    <row r="35" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="15">
+      <c r="I34" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="35" s="28" spans="1:11">
+      <c r="A35" s="14" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="15" t="n"/>
       <c r="E35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="13">
-        <v>1</v>
-      </c>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15">
+      <c r="I35" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="36" s="28" spans="1:11">
+      <c r="A36" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="15" t="n"/>
       <c r="E36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="13">
-        <v>1</v>
-      </c>
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15">
+      <c r="I36" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="37" s="28" spans="1:11">
+      <c r="A37" s="14" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="15" t="n"/>
       <c r="E37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I37" s="13">
-        <v>1</v>
-      </c>
-      <c r="K37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="15">
+      <c r="I37" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="38" s="28" spans="1:11">
+      <c r="A38" s="14" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="15" t="s">
@@ -2296,26 +2269,25 @@
       <c r="E38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="13">
-        <v>1</v>
-      </c>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15">
+      <c r="I38" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="39" s="28" spans="1:11">
+      <c r="A39" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="28" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -2324,26 +2296,25 @@
       <c r="E39" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="13">
-        <v>1</v>
-      </c>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15">
+      <c r="I39" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="40" s="28" spans="1:11">
+      <c r="A40" s="14" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D40" s="15" t="s">
@@ -2352,28 +2323,28 @@
       <c r="E40" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="13">
-        <v>1</v>
-      </c>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="14">
+      <c r="I40" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="41" s="25" spans="1:11">
+      <c r="A41" s="14" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -2382,26 +2353,25 @@
       <c r="E41" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="12">
-        <v>1</v>
-      </c>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="14">
+      <c r="I41" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="42" s="25" spans="1:11">
+      <c r="A42" s="14" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="25" t="s">
         <v>111</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -2410,28 +2380,28 @@
       <c r="E42" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="12">
-        <v>1</v>
-      </c>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15">
+      <c r="I42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="43" s="28" spans="1:11">
+      <c r="A43" s="14" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="28" t="s">
         <v>114</v>
       </c>
       <c r="D43" s="15" t="s">
@@ -2440,26 +2410,25 @@
       <c r="E43" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="19" t="s">
+      <c r="H43" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="13">
-        <v>1</v>
-      </c>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15">
+      <c r="I43" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="44" s="28" spans="1:11">
+      <c r="A44" s="14" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="28" t="s">
         <v>118</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -2468,26 +2437,25 @@
       <c r="E44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="19" t="s">
+      <c r="H44" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="13">
-        <v>1</v>
-      </c>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="15">
+      <c r="I44" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="45" s="28" spans="1:11">
+      <c r="A45" s="14" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="28" t="s">
         <v>120</v>
       </c>
       <c r="D45" s="15" t="s">
@@ -2496,28 +2464,28 @@
       <c r="E45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H45" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="I45" s="13">
-        <v>1</v>
-      </c>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="14">
+      <c r="I45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="46" s="25" spans="1:11">
+      <c r="A46" s="14" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="25" t="s">
         <v>124</v>
       </c>
       <c r="D46" s="14" t="s">
@@ -2526,26 +2494,25 @@
       <c r="E46" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="I46" s="13">
-        <v>1</v>
-      </c>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="14">
+      <c r="I46" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="47" s="25" spans="1:11">
+      <c r="A47" s="14" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="25" t="s">
         <v>124</v>
       </c>
       <c r="D47" s="14" t="s">
@@ -2554,28 +2521,28 @@
       <c r="E47" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="I47" s="13">
-        <v>1</v>
-      </c>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="1:11" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="15">
+      <c r="I47" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14" r="48" s="27" spans="1:11">
+      <c r="A48" s="14" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="28" t="s">
         <v>131</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -2584,25 +2551,24 @@
       <c r="E48" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="H48" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I48" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="15">
+      <c r="I48" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14" r="49" s="27" spans="1:11">
+      <c r="A49" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="28" t="s">
         <v>134</v>
       </c>
       <c r="D49" s="15" t="s">
@@ -2611,52 +2577,51 @@
       <c r="E49" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="28" t="s">
         <v>133</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H49" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="15">
+      <c r="H49" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I49" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14" r="50" s="27" spans="1:11">
+      <c r="A50" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="15"/>
+      <c r="D50" s="15" t="n"/>
       <c r="E50" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="28" t="s">
         <v>133</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="H50" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="I50" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="14">
+      <c r="I50" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14.5" r="51" s="25" spans="1:11">
+      <c r="A51" s="14" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -2665,27 +2630,27 @@
       <c r="E51" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="15">
+      <c r="I51" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="52" s="28" spans="1:11">
+      <c r="A52" s="14" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="28" t="s">
         <v>144</v>
       </c>
       <c r="D52" s="15" t="s">
@@ -2694,25 +2659,24 @@
       <c r="E52" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="28" t="s">
         <v>146</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H52" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="15">
+      <c r="I52" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="53" s="28" spans="1:11">
+      <c r="A53" s="14" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="28" t="s">
         <v>148</v>
       </c>
       <c r="D53" s="15" t="s">
@@ -2721,50 +2685,48 @@
       <c r="E53" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="28" t="s">
         <v>146</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="I53" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="15">
+      <c r="I53" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="54" s="28" spans="1:11">
+      <c r="A54" s="14" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D54" s="15"/>
+      <c r="D54" s="15" t="n"/>
       <c r="E54" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="28" t="s">
         <v>146</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H54" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="I54" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="15">
+      <c r="I54" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="55" s="28" spans="1:11">
+      <c r="A55" s="14" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="28" t="s">
         <v>154</v>
       </c>
       <c r="D55" s="15" t="s">
@@ -2773,25 +2735,24 @@
       <c r="E55" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="28" t="s">
         <v>156</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="H55" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I55" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="15">
+      <c r="I55" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="56" s="28" spans="1:11">
+      <c r="A56" s="14" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="28" t="s">
         <v>158</v>
       </c>
       <c r="D56" s="15" t="s">
@@ -2800,50 +2761,48 @@
       <c r="E56" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="F56" s="28" t="s">
         <v>156</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H56" s="19" t="s">
+      <c r="H56" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I56" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="15">
+      <c r="I56" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="57" s="28" spans="1:11">
+      <c r="A57" s="14" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="15"/>
+      <c r="D57" s="15" t="n"/>
       <c r="E57" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="28" t="s">
         <v>156</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H57" s="19" t="s">
+      <c r="H57" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="I57" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="15">
+      <c r="I57" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="58" s="28" spans="1:11">
+      <c r="A58" s="14" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="28" t="s">
         <v>162</v>
       </c>
       <c r="D58" s="15" t="s">
@@ -2852,50 +2811,50 @@
       <c r="E58" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="28" t="s">
         <v>164</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="H58" s="19" t="s">
+      <c r="H58" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="15">
+      <c r="I58" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="59" s="28" spans="1:11">
+      <c r="A59" s="14" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="15"/>
+      <c r="D59" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="E59" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="F59" s="28" t="s">
         <v>164</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H59" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="I59" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="15">
+      <c r="H59" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="60" s="28" spans="1:11">
+      <c r="A60" s="14" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="28" t="s">
         <v>168</v>
       </c>
       <c r="D60" s="15" t="s">
@@ -2904,262 +2863,304 @@
       <c r="E60" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="28" t="s">
         <v>164</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H60" s="19" t="s">
+      <c r="H60" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="61" s="28" spans="1:11">
+      <c r="A61" s="14" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="I60" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="14">
-        <v>60</v>
-      </c>
-      <c r="B61" s="24" t="s">
+      <c r="D61" s="15" t="n"/>
+      <c r="E61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="H61" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="I61" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="62" s="28" spans="1:11">
+      <c r="A62" s="14" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="D62" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="I62" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="63" s="25" spans="1:11">
+      <c r="A63" s="14" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14" r="64" s="25" spans="1:11">
+      <c r="A64" s="14" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F61" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G61" s="10" t="s">
+      <c r="F64" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I64" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14" r="65" s="25" spans="1:11">
+      <c r="A65" s="14" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H65" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I65" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14" r="66" s="25" spans="1:11">
+      <c r="A66" s="14" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I66" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="67" s="25" spans="1:11">
+      <c r="A67" s="14" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="14" t="n"/>
+      <c r="E67" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I67" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="68" s="25" spans="1:11">
+      <c r="A68" s="14" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" s="14" t="n"/>
+      <c r="E68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I68" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="69" s="25" spans="1:11">
+      <c r="A69" s="14" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="14" t="n"/>
+      <c r="E69" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I69" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="70" s="25" spans="1:11">
+      <c r="A70" s="14" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="H70" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I61" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="14">
-        <v>61</v>
-      </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I62" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="14">
-        <v>62</v>
-      </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63" s="20">
-        <v>1</v>
-      </c>
-      <c r="K63" s="14"/>
-    </row>
-    <row r="64" spans="1:11" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="14">
-        <v>63</v>
-      </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="H64" s="16" t="s">
+      <c r="I70" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="71" s="25" spans="1:11">
+      <c r="A71" s="14" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H71" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="I64" s="20">
-        <v>1</v>
-      </c>
-      <c r="K64" s="14"/>
-    </row>
-    <row r="65" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="14">
-        <v>64</v>
-      </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="I65" s="20">
-        <v>1</v>
-      </c>
-      <c r="K65" s="14"/>
-    </row>
-    <row r="66" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="14">
-        <v>65</v>
-      </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="I66" s="20">
-        <v>1</v>
-      </c>
-      <c r="K66" s="14"/>
-    </row>
-    <row r="67" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="14">
-        <v>66</v>
-      </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="I67" s="20">
-        <v>1</v>
-      </c>
-      <c r="K67" s="14"/>
-    </row>
-    <row r="68" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="14">
-        <v>67</v>
-      </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68" s="20">
-        <v>1</v>
-      </c>
-      <c r="K68" s="14"/>
-    </row>
-    <row r="69" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="14">
-        <v>68</v>
-      </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I69" s="20">
-        <v>1</v>
-      </c>
-      <c r="K69" s="14"/>
+      <c r="I71" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" s="14" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B61:B69"/>
+    <mergeCell ref="B63:B71"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="B52:B62"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="B18:B23"/>
@@ -3168,34 +3169,37 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B45"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7" style="22" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="60.83203125" customWidth="1"/>
-    <col min="7" max="7" width="68.33203125" customWidth="1"/>
-    <col min="8" max="8" width="55.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="32" width="7"/>
+    <col customWidth="1" max="2" min="2" style="32" width="8.81640625"/>
+    <col customWidth="1" max="3" min="3" width="21.1796875"/>
+    <col customWidth="1" max="4" min="4" style="32" width="14.36328125"/>
+    <col customWidth="1" max="5" min="5" style="32" width="8.81640625"/>
+    <col customWidth="1" max="6" min="6" width="60.81640625"/>
+    <col customWidth="1" max="7" min="7" width="68.36328125"/>
+    <col customWidth="1" max="8" min="8" width="55.1796875"/>
+    <col customWidth="1" max="9" min="9" width="14.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="22" r="1" s="31" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -3224,383 +3228,371 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="22">
+    <row r="2" spans="1:9">
+      <c r="A2" s="32" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="32" t="s">
         <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="22">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
       <c r="C3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="32" t="s">
         <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
       <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>196</v>
-      </c>
       <c r="G4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="22">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="32" t="s">
         <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="22">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
       <c r="C6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="32" t="s">
         <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="22">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
       <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="22">
-        <v>7</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="D12" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="32" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="32"/>
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="32" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="32"/>
       <c r="C14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
-        <v>14</v>
-      </c>
-      <c r="B15" s="32"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="32" t="n">
+        <v>14</v>
+      </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>222</v>
+      <c r="B16" s="32" t="s">
+        <v>227</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="32" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="22">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="32" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="22">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="22">
+    <row r="20" spans="1:9">
+      <c r="A20" s="32" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="22">
+    <row r="21" spans="1:9">
+      <c r="A21" s="32" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="22">
+    <row r="22" spans="1:9">
+      <c r="A22" s="32" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="22">
+    <row r="23" spans="1:9">
+      <c r="A23" s="32" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="22">
+    <row r="24" spans="1:9">
+      <c r="A24" s="32" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="22">
+    <row r="25" spans="1:9">
+      <c r="A25" s="32" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="22">
+    <row r="26" spans="1:9">
+      <c r="A26" s="32" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3609,65 +3601,67 @@
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B15"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
-    <hyperlink ref="F15" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
-    <hyperlink ref="F16" r:id="rId3"/>
-    <hyperlink ref="F18" r:id="rId4" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="F15" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge" ref="F18" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16" style="23" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="8" width="15.81640625"/>
+    <col customWidth="1" max="2" min="2" style="33" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
+      <c r="A1" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/TestDatas/api_info.xlsx
+++ b/TestDatas/api_info.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zws/git/pupu_api/TestDatas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="case_datas" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
-    <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case_datas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prepare_datas" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>case_id</t>
   </si>
@@ -327,25 +314,25 @@
     <t>[预留]不需要设置,后台带有提示信息</t>
   </si>
   <si>
-    <t>添加 - 熟人</t>
+    <t>添加 - 熟人 -qtxVd5ZyTUfW16qv20-Hlg</t>
   </si>
   <si>
     <t>friend/request/send</t>
   </si>
   <si>
-    <t>{"user":"Gr5AziDRI5_W16qv20-Hlg","type":"1","from":"0","p":"${ticket_a}"}</t>
-  </si>
-  <si>
-    <t>添加 - 朋友</t>
-  </si>
-  <si>
-    <t>{"user":"${userId_b}","type":"2","from":"1","p":"${ticket_a}"}</t>
-  </si>
-  <si>
-    <t>添加 - 好朋友</t>
-  </si>
-  <si>
-    <t>{"user":"${userId_c}","type":"3","from":"2","p":"${ticket_a}"}</t>
+    <t>{"user":"qtxVd5ZyTUfW16qv20-Hlg","type":"1","from":"0","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>添加 - 朋友 - b</t>
+  </si>
+  <si>
+    <t>{"user":"${userId_b}","type":"4","from":"2","p":"${ticket_a}"}</t>
+  </si>
+  <si>
+    <t>添加 - 好朋友 - c</t>
+  </si>
+  <si>
+    <t>{"user":"${userId_c}","type":"4","from":"2","p":"${ticket_a}"}</t>
   </si>
   <si>
     <t>接收的好友请求列表</t>
@@ -384,13 +371,13 @@
     <t>http://api798.impupu.com/api/friend/request/accept</t>
   </si>
   <si>
-    <t>{"p":"${ticket_b}","user":"${userId_a}","type":"1"}</t>
+    <t>{"p":"${ticket_b}","user":"${userId_a}","type":"4"}</t>
   </si>
   <si>
     <t>接受好友请求 - 列表中有的 - 朋友</t>
   </si>
   <si>
-    <t>{"p":"${ticket_c}","user":"${userId_a}","type":"2"}</t>
+    <t>{"p":"${ticket_c}","user":"${userId_a}","type":"4"}</t>
   </si>
   <si>
     <t>接受好友请求 - 列表中没有的</t>
@@ -405,7 +392,7 @@
     <t>好友列表</t>
   </si>
   <si>
-    <t>查看好友列表</t>
+    <t>查看好友列表 - a</t>
   </si>
   <si>
     <t>user/friend/list</t>
@@ -420,7 +407,16 @@
     <t>"id":"${userId_b}"</t>
   </si>
   <si>
+    <t>查看好友列表 - b</t>
+  </si>
+  <si>
     <t>"id":"${userId_a}"</t>
+  </si>
+  <si>
+    <t>查看好友列表 - c</t>
+  </si>
+  <si>
+    <t>{"p":"${ticket_c}"}</t>
   </si>
   <si>
     <t>他人/自己详情页</t>
@@ -728,7 +724,7 @@
     <t>${phone_a}</t>
   </si>
   <si>
-    <t>13210000196</t>
+    <t>13210000262</t>
   </si>
   <si>
     <t>${phone_b}</t>
@@ -743,71 +739,71 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt formatCode="0_);[Red]\(0\)" numFmtId="164"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,13 +821,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -846,107 +842,104 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+  <cellXfs count="34">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1234,29 +1227,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="32" style="22" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="52.1640625" customWidth="1"/>
-    <col min="7" max="7" width="110.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="13" style="21" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" customWidth="1"/>
-    <col min="11" max="11" width="31.83203125" style="22" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="7" width="7"/>
+    <col customWidth="1" max="2" min="2" style="32" width="24.1640625"/>
+    <col customWidth="1" max="3" min="3" width="32.5"/>
+    <col customWidth="1" max="4" min="4" style="32" width="32"/>
+    <col customWidth="1" max="5" min="5" style="32" width="8.83203125"/>
+    <col customWidth="1" max="6" min="6" width="52.1640625"/>
+    <col customWidth="1" max="7" min="7" width="110.6640625"/>
+    <col customWidth="1" max="8" min="8" width="22.5"/>
+    <col customWidth="1" max="9" min="9" style="31" width="13"/>
+    <col customWidth="1" max="10" min="10" width="33.33203125"/>
+    <col customWidth="1" max="11" min="11" style="32" width="31.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="31" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1291,14 +1288,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
+    <row customFormat="1" customHeight="1" ht="15" r="2" s="28" spans="1:11">
+      <c r="A2" s="15" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -1307,26 +1304,25 @@
       <c r="E2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="17">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15">
+      <c r="I2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="3" s="28" spans="1:11">
+      <c r="A3" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -1335,26 +1331,25 @@
       <c r="E3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15">
+      <c r="I3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="4" s="28" spans="1:11">
+      <c r="A4" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -1363,26 +1358,25 @@
       <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="17">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15">
+      <c r="I4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="5" s="28" spans="1:11">
+      <c r="A5" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1391,26 +1385,25 @@
       <c r="E5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="17">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15">
+      <c r="I5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="6" s="28" spans="1:11">
+      <c r="A6" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1419,26 +1412,25 @@
       <c r="E6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="17">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15">
+      <c r="I6" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="7" s="28" spans="1:11">
+      <c r="A7" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="28" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -1447,26 +1439,25 @@
       <c r="E7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="17">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15">
+      <c r="I7" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="8" s="28" spans="1:11">
+      <c r="A8" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -1475,28 +1466,28 @@
       <c r="E8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="17">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
+      <c r="I8" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="9" s="25" spans="1:11">
+      <c r="A9" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -1505,25 +1496,24 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="20">
-        <v>1</v>
-      </c>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14">
+      <c r="I9" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="10" s="25" spans="1:11">
+      <c r="A10" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
       <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1539,19 +1529,18 @@
       <c r="G10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14">
+      <c r="I10" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="11" s="25" spans="1:11">
+      <c r="A11" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -1560,31 +1549,30 @@
       <c r="E11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="20">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14">
+    <row customFormat="1" customHeight="1" ht="15" r="12" s="25" spans="1:11">
+      <c r="A12" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="25" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -1593,26 +1581,25 @@
       <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="20">
-        <v>1</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14">
+      <c r="I12" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="13" s="25" spans="1:11">
+      <c r="A13" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="25" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -1621,26 +1608,25 @@
       <c r="E13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="20">
-        <v>1</v>
-      </c>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14">
+      <c r="I13" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="14" s="25" spans="1:11">
+      <c r="A14" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -1649,26 +1635,25 @@
       <c r="E14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="20">
-        <v>1</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="16" t="s">
+      <c r="I14" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="15" s="25" spans="1:11">
+      <c r="A15" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -1677,26 +1662,25 @@
       <c r="E15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="20">
-        <v>1</v>
-      </c>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14">
+      <c r="I15" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="16" s="25" spans="1:11">
+      <c r="A16" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="25" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -1705,25 +1689,25 @@
       <c r="E16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="20">
-        <v>1</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14">
+      <c r="I16" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="17" s="25" spans="1:11">
+      <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="25" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -1732,33 +1716,33 @@
       <c r="E17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="20">
-        <v>1</v>
-      </c>
-      <c r="J17" s="16" t="s">
+      <c r="I17" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15">
+    <row customFormat="1" customHeight="1" ht="15" r="18" s="28" spans="1:11">
+      <c r="A18" s="15" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="28" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -1767,26 +1751,25 @@
       <c r="E18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="17">
-        <v>1</v>
-      </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15">
+      <c r="I18" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="19" s="28" spans="1:11">
+      <c r="A19" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="28" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -1795,26 +1778,25 @@
       <c r="E19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="17">
-        <v>1</v>
-      </c>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15">
+      <c r="I19" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="20" s="28" spans="1:11">
+      <c r="A20" s="15" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="28" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -1823,26 +1805,25 @@
       <c r="E20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="28" t="s">
         <v>63</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="17">
-        <v>1</v>
-      </c>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15">
+      <c r="I20" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="21" s="28" spans="1:11">
+      <c r="A21" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="15" t="s">
@@ -1851,26 +1832,25 @@
       <c r="E21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="28" t="s">
         <v>63</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="17">
-        <v>1</v>
-      </c>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15">
+      <c r="I21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="22" s="28" spans="1:11">
+      <c r="A22" s="15" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="28" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -1879,26 +1859,25 @@
       <c r="E22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="17">
-        <v>1</v>
-      </c>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15">
+      <c r="I22" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="23" s="28" spans="1:11">
+      <c r="A23" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="28" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="15" t="s">
@@ -1907,28 +1886,28 @@
       <c r="E23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="17">
-        <v>1</v>
-      </c>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
+      <c r="I23" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="24" s="25" spans="1:11">
+      <c r="A24" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -1937,26 +1916,25 @@
       <c r="E24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="20">
-        <v>1</v>
-      </c>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14">
+      <c r="I24" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="25" s="25" spans="1:11">
+      <c r="A25" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -1965,26 +1943,25 @@
       <c r="E25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="20">
-        <v>1</v>
-      </c>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14">
+      <c r="I25" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="26" s="25" spans="1:11">
+      <c r="A26" s="14" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -1993,25 +1970,24 @@
       <c r="E26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="20">
-        <v>1</v>
-      </c>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14">
+      <c r="I26" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="27" s="25" spans="1:11">
+      <c r="A27" s="14" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="25"/>
       <c r="C27" s="4" t="s">
         <v>21</v>
       </c>
@@ -2027,20 +2003,19 @@
       <c r="G27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="20">
-        <v>1</v>
-      </c>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="14">
+      <c r="I27" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="28" s="25" spans="1:11">
+      <c r="A28" s="14" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="25" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -2049,25 +2024,24 @@
       <c r="E28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="20">
-        <v>1</v>
-      </c>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="14">
+      <c r="I28" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="29" s="25" spans="1:11">
+      <c r="A29" s="14" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="25"/>
       <c r="C29" s="4" t="s">
         <v>21</v>
       </c>
@@ -2083,20 +2057,19 @@
       <c r="G29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="20">
-        <v>1</v>
-      </c>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="14">
+      <c r="I29" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="30" s="25" spans="1:11">
+      <c r="A30" s="14" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -2105,25 +2078,24 @@
       <c r="E30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="20">
-        <v>1</v>
-      </c>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="14">
+      <c r="I30" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="31" s="25" spans="1:11">
+      <c r="A31" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="25"/>
       <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
@@ -2139,20 +2111,19 @@
       <c r="G31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="20">
-        <v>1</v>
-      </c>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="14">
+      <c r="I31" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="32" s="25" spans="1:11">
+      <c r="A32" s="14" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -2161,133 +2132,128 @@
       <c r="E32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="20">
-        <v>1</v>
-      </c>
-      <c r="J32" s="16" t="s">
+      <c r="I32" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="15">
+    <row customFormat="1" customHeight="1" ht="16" r="33" s="28" spans="1:11">
+      <c r="A33" s="15" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="15" t="n"/>
       <c r="E33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="13">
-        <v>1</v>
-      </c>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="15">
+      <c r="I33" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="34" s="28" spans="1:11">
+      <c r="A34" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="15" t="n"/>
       <c r="E34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="13">
-        <v>1</v>
-      </c>
-      <c r="K34" s="15"/>
-    </row>
-    <row r="35" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="15">
+      <c r="I34" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="35" s="28" spans="1:11">
+      <c r="A35" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="15" t="n"/>
       <c r="E35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="13">
-        <v>1</v>
-      </c>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15">
+      <c r="I35" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="36" s="28" spans="1:11">
+      <c r="A36" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="15" t="n"/>
       <c r="E36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="13">
-        <v>1</v>
-      </c>
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15">
+      <c r="I36" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="37" s="28" spans="1:11">
+      <c r="A37" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="15" t="n"/>
       <c r="E37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I37" s="13">
-        <v>1</v>
-      </c>
-      <c r="K37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="15">
+      <c r="I37" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="38" s="28" spans="1:11">
+      <c r="A38" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="15" t="s">
@@ -2296,26 +2262,25 @@
       <c r="E38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="13">
-        <v>1</v>
-      </c>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15">
+      <c r="I38" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="39" s="28" spans="1:11">
+      <c r="A39" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="28" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -2324,26 +2289,25 @@
       <c r="E39" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="13">
-        <v>1</v>
-      </c>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15">
+      <c r="I39" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="40" s="28" spans="1:11">
+      <c r="A40" s="15" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D40" s="15" t="s">
@@ -2352,28 +2316,28 @@
       <c r="E40" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="13">
-        <v>1</v>
-      </c>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="14">
+      <c r="I40" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="41" s="25" spans="1:11">
+      <c r="A41" s="14" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -2382,26 +2346,25 @@
       <c r="E41" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="12">
-        <v>1</v>
-      </c>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="14">
+      <c r="I41" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="42" s="25" spans="1:11">
+      <c r="A42" s="14" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="25" t="s">
         <v>111</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -2410,28 +2373,28 @@
       <c r="E42" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="12">
-        <v>1</v>
-      </c>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15">
+      <c r="I42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="43" s="28" spans="1:11">
+      <c r="A43" s="15" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="28" t="s">
         <v>114</v>
       </c>
       <c r="D43" s="15" t="s">
@@ -2440,26 +2403,25 @@
       <c r="E43" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="19" t="s">
+      <c r="H43" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="13">
-        <v>1</v>
-      </c>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15">
+      <c r="I43" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="44" s="28" spans="1:11">
+      <c r="A44" s="15" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="28" t="s">
         <v>118</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -2468,26 +2430,25 @@
       <c r="E44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="19" t="s">
+      <c r="H44" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="13">
-        <v>1</v>
-      </c>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="15">
+      <c r="I44" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="45" s="28" spans="1:11">
+      <c r="A45" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="28" t="s">
         <v>120</v>
       </c>
       <c r="D45" s="15" t="s">
@@ -2496,28 +2457,28 @@
       <c r="E45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H45" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="I45" s="13">
-        <v>1</v>
-      </c>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="14">
+      <c r="I45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="46" s="25" spans="1:11">
+      <c r="A46" s="14" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="25" t="s">
         <v>124</v>
       </c>
       <c r="D46" s="14" t="s">
@@ -2526,27 +2487,26 @@
       <c r="E46" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="I46" s="13">
-        <v>1</v>
-      </c>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="14">
+      <c r="I46" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="47" s="25" spans="1:11">
+      <c r="A47" s="14" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="16" t="s">
-        <v>124</v>
+      <c r="C47" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>125</v>
@@ -2554,404 +2514,394 @@
       <c r="E47" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H47" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I47" s="13">
-        <v>1</v>
-      </c>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="1:11" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="15">
+      <c r="H47" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="48" s="25" spans="1:11">
+      <c r="A48" s="15" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="C48" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="19" t="s">
+      <c r="I48" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14" r="49" s="27" spans="1:11">
+      <c r="A49" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I48" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="15">
-        <v>48</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="28" t="s">
         <v>134</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G49" s="9" t="s">
+      <c r="F49" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14" r="50" s="27" spans="1:11">
+      <c r="A50" s="15" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="H49" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="15">
-        <v>49</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="19" t="s">
-        <v>133</v>
+      <c r="F50" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H50" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="I50" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="14">
+      <c r="H50" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14" r="51" s="27" spans="1:11">
+      <c r="A51" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="C51" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="D51" s="15" t="n"/>
+      <c r="E51" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="H51" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="I51" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14.5" r="52" s="25" spans="1:11">
+      <c r="A52" s="15" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F51" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="16" t="s">
+      <c r="F52" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H52" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="15">
-        <v>51</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="19" t="s">
+      <c r="I52" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="53" s="28" spans="1:11">
+      <c r="A53" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="C53" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="D53" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H53" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="15">
-        <v>52</v>
-      </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="19" t="s">
+      <c r="I53" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="54" s="28" spans="1:11">
+      <c r="A54" s="15" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G53" s="9" t="s">
+      <c r="E54" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="28" t="s">
         <v>149</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="I53" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="15">
-        <v>53</v>
-      </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>146</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H54" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="I54" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="15">
+      <c r="I54" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="55" s="28" spans="1:11">
+      <c r="A55" s="14" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="15" t="n"/>
+      <c r="E55" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="19" t="s">
+      <c r="H55" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="I55" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="56" s="28" spans="1:11">
+      <c r="A56" s="14" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="D56" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H56" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I55" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="15">
-        <v>55</v>
-      </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="19" t="s">
+      <c r="I56" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="57" s="28" spans="1:11">
+      <c r="A57" s="15" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="19" t="s">
+      <c r="E57" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="58" s="28" spans="1:11">
+      <c r="A58" s="15" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="15" t="n"/>
+      <c r="E58" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="15">
-        <v>56</v>
-      </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="I57" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="15">
-        <v>57</v>
-      </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="G58" s="9" t="s">
+      <c r="I58" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="59" s="28" spans="1:11">
+      <c r="A59" s="15" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="H58" s="19" t="s">
+      <c r="D59" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="15">
-        <v>58</v>
-      </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="19" t="s">
+      <c r="I59" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="60" s="28" spans="1:11">
+      <c r="A60" s="14" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="15" t="n"/>
+      <c r="E60" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="I60" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="61" s="28" spans="1:11">
+      <c r="A61" s="14" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H59" s="19" t="s">
+      <c r="E61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="I59" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="15">
-        <v>59</v>
-      </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="I60" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="14">
-        <v>60</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C61" s="16" t="s">
+      <c r="G61" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="H61" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" s="16" t="s">
+      <c r="I61" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14" r="62" s="25" spans="1:11">
+      <c r="A62" s="15" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I61" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="14">
-        <v>61</v>
-      </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="25" t="s">
         <v>175</v>
       </c>
       <c r="D62" s="14" t="s">
@@ -2960,206 +2910,225 @@
       <c r="E62" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="25" t="s">
         <v>177</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I62" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="14">
+      <c r="I62" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14" r="63" s="25" spans="1:11">
+      <c r="A63" s="15" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="25" t="s">
         <v>178</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>179</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="64" s="25" spans="1:11">
+      <c r="A64" s="15" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="H63" s="16" t="s">
+      <c r="D64" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="H64" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I63" s="20">
-        <v>1</v>
-      </c>
-      <c r="K63" s="14"/>
-    </row>
-    <row r="64" spans="1:11" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="14">
-        <v>63</v>
-      </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="16" t="s">
+      <c r="I64" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14" r="65" s="25" spans="1:11">
+      <c r="A65" s="15" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D64" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="G64" s="16" t="s">
+      <c r="E65" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="G65" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H65" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="I64" s="20">
-        <v>1</v>
-      </c>
-      <c r="K64" s="14"/>
-    </row>
-    <row r="65" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="14">
-        <v>64</v>
-      </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="16" t="s">
+      <c r="I65" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="66" s="25" spans="1:11">
+      <c r="A66" s="15" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="14" t="n"/>
+      <c r="E66" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="I66" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="67" s="25" spans="1:11">
+      <c r="A67" s="15" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="14" t="n"/>
+      <c r="E67" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I67" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="68" s="25" spans="1:11">
+      <c r="A68" s="15" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" s="14" t="n"/>
+      <c r="E68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I68" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="69" s="25" spans="1:11">
+      <c r="A69" s="14" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G69" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="I65" s="20">
-        <v>1</v>
-      </c>
-      <c r="K65" s="14"/>
-    </row>
-    <row r="66" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="14">
-        <v>65</v>
-      </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="16" t="s">
+      <c r="H69" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" s="14" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="70" s="25" spans="1:11">
+      <c r="A70" s="14" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G70" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="I66" s="20">
-        <v>1</v>
-      </c>
-      <c r="K66" s="14"/>
-    </row>
-    <row r="67" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="14">
-        <v>66</v>
-      </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="I67" s="20">
-        <v>1</v>
-      </c>
-      <c r="K67" s="14"/>
-    </row>
-    <row r="68" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="14">
-        <v>67</v>
-      </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68" s="20">
-        <v>1</v>
-      </c>
-      <c r="K68" s="14"/>
-    </row>
-    <row r="69" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="14">
-        <v>68</v>
-      </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="H69" s="16" t="s">
+      <c r="H70" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="I69" s="20">
-        <v>1</v>
-      </c>
-      <c r="K69" s="14"/>
+      <c r="I70" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" s="14" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B61:B69"/>
-    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B62:B70"/>
+    <mergeCell ref="B49:B51"/>
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="B53:B61"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="B18:B23"/>
@@ -3168,34 +3137,37 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B45"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7" style="22" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="60.83203125" customWidth="1"/>
-    <col min="7" max="7" width="68.33203125" customWidth="1"/>
-    <col min="8" max="8" width="55.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="32" width="7"/>
+    <col customWidth="1" max="2" min="2" style="32" width="8.83203125"/>
+    <col customWidth="1" max="3" min="3" width="21.1640625"/>
+    <col customWidth="1" max="4" min="4" style="32" width="14.33203125"/>
+    <col customWidth="1" max="5" min="5" style="32" width="8.83203125"/>
+    <col customWidth="1" max="6" min="6" width="60.83203125"/>
+    <col customWidth="1" max="7" min="7" width="68.33203125"/>
+    <col customWidth="1" max="8" min="8" width="55.1640625"/>
+    <col customWidth="1" max="9" min="9" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="22" r="1" s="31" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3203,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -3224,383 +3196,371 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="22">
+    <row r="2" spans="1:9">
+      <c r="A2" s="32" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="32" t="s">
         <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="22">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
       <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="G3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E4" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>108</v>
-      </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="22">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="32" t="s">
         <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="22">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
       <c r="C6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="22">
-        <v>7</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="D12" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="32" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="32"/>
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
-        <v>13</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
-        <v>14</v>
-      </c>
-      <c r="B15" s="32"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="32" t="n">
+        <v>14</v>
+      </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>222</v>
+      <c r="B16" s="32" t="s">
+        <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="32" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="32" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="22">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="22" t="s">
+      <c r="D18" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="22">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="22">
+    <row r="20" spans="1:9">
+      <c r="A20" s="32" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="22">
+    <row r="21" spans="1:9">
+      <c r="A21" s="32" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="22">
+    <row r="22" spans="1:9">
+      <c r="A22" s="32" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="22">
+    <row r="23" spans="1:9">
+      <c r="A23" s="32" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="22">
+    <row r="24" spans="1:9">
+      <c r="A24" s="32" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="22">
+    <row r="25" spans="1:9">
+      <c r="A25" s="32" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="22">
+    <row r="26" spans="1:9">
+      <c r="A26" s="32" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3609,65 +3569,67 @@
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B15"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
-    <hyperlink ref="F15" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
-    <hyperlink ref="F16" r:id="rId3"/>
-    <hyperlink ref="F18" r:id="rId4" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="F15" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge" ref="F18" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16" style="23" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="8" width="15.83203125"/>
+    <col customWidth="1" max="2" min="2" style="33" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
+      <c r="A1" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/TestDatas/api_info.xlsx
+++ b/TestDatas/api_info.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pupu_api\pupu_api\TestDatas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case_datas" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prepare_datas" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="case_datas" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="232">
   <si>
     <t>case_id</t>
   </si>
@@ -371,7 +376,7 @@
     <t>http://api798.impupu.com/api/friend/request/accept</t>
   </si>
   <si>
-    <t>{"p":"${ticket_b}","user":"${userId_a}","type":"1"}</t>
+    <t>{"p":"${ticket_b}","user":"${userId_a}","type":"2"}</t>
   </si>
   <si>
     <t>接受好友请求 - 列表中有的 - 朋友</t>
@@ -425,13 +430,10 @@
     <t>他人详情页-正常请求</t>
   </si>
   <si>
-    <t>{"user":"userId_b","p":"${ticket_a}"}</t>
+    <t>{"p":"${ticket_a}","user":"${userId_b}"}</t>
   </si>
   <si>
     <t>[预留]他人详情页-用户不存在</t>
-  </si>
-  <si>
-    <t>{"user":"","p":"${ticket_a}"}</t>
   </si>
   <si>
     <t>"code":40050</t>
@@ -459,7 +461,7 @@
     <t>user/friend/update/signature</t>
   </si>
   <si>
-    <t>http://api798.impupu.com/api/user/friend/update/signature</t>
+    <t>http://api798.impupu.com/api/update/userInfo</t>
   </si>
   <si>
     <t>{"signature":"啪啪啪","p":"${ticket_a}"}</t>
@@ -477,9 +479,6 @@
     <t>[预留]修改个性签名-违禁词</t>
   </si>
   <si>
-    <t>{"signature":"","p":"${ticket_a}"}</t>
-  </si>
-  <si>
     <t>"code":40013</t>
   </si>
   <si>
@@ -489,9 +488,6 @@
     <t>user/friend/update/name</t>
   </si>
   <si>
-    <t>http://api798.impupu.com/api/user/friend/update/name</t>
-  </si>
-  <si>
     <t>{"nickname":"黄玉平","p":"${ticket_a}"}</t>
   </si>
   <si>
@@ -504,18 +500,12 @@
     <t>[预留]修改名字-敏感字</t>
   </si>
   <si>
-    <t>{"nickname":"","p"="${ticket_a}"}</t>
-  </si>
-  <si>
     <t>修改头像-正常修改-类型1</t>
   </si>
   <si>
     <t>user/friend/update/avatar</t>
   </si>
   <si>
-    <t>http://api798.impupu.com/api/user/friend/update/avatar</t>
-  </si>
-  <si>
     <t>{"type":"1","image":"L8etTz_pehro7csz1RiiBg","p":"${ticket_a}"}</t>
   </si>
   <si>
@@ -534,16 +524,10 @@
     <t>[预留]修改头像-上传失败</t>
   </si>
   <si>
-    <t>{"type":"1","image":"","p":"${ticket_a}"}</t>
-  </si>
-  <si>
     <t>"code":-1</t>
   </si>
   <si>
     <t>[预留]修改头像-上传错误</t>
-  </si>
-  <si>
-    <t>{"type":"1","image":"111","p":"${ticket_a}"}</t>
   </si>
   <si>
     <t>"code":40011</t>
@@ -562,9 +546,6 @@
     <t>http://api798.impupu.com/api/user/follow</t>
   </si>
   <si>
-    <t>{"p":"${ticket_a}","user":"${userId_b}"}</t>
-  </si>
-  <si>
     <t>粉丝列表-正常请求</t>
   </si>
   <si>
@@ -730,7 +711,7 @@
     <t>${phone_a}</t>
   </si>
   <si>
-    <t>13210000205</t>
+    <t>13590000238</t>
   </si>
   <si>
     <t>${phone_b}</t>
@@ -745,72 +726,72 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="0_);[Red]\(0\)" numFmtId="164"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="11"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,13 +809,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -849,104 +830,110 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1234,33 +1221,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
-      <selection activeCell="D40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.81640625" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="7"/>
-    <col customWidth="1" max="2" min="2" style="32" width="24.1796875"/>
-    <col customWidth="1" max="3" min="3" width="32.453125"/>
-    <col customWidth="1" max="4" min="4" style="32" width="32"/>
-    <col customWidth="1" max="5" min="5" style="32" width="8.81640625"/>
-    <col customWidth="1" max="6" min="6" width="52.1796875"/>
-    <col customWidth="1" max="7" min="7" width="66.81640625"/>
-    <col customWidth="1" max="8" min="8" width="22.453125"/>
-    <col customWidth="1" max="9" min="9" style="31" width="13"/>
-    <col customWidth="1" max="10" min="10" width="33.36328125"/>
-    <col customWidth="1" max="11" min="11" style="32" width="31.81640625"/>
+    <col min="1" max="1" width="7" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" customWidth="1"/>
+    <col min="4" max="4" width="32" style="22" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="60.26953125" customWidth="1"/>
+    <col min="7" max="7" width="66.81640625" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" customWidth="1"/>
+    <col min="9" max="9" width="13" style="21" customWidth="1"/>
+    <col min="10" max="10" width="33.36328125" customWidth="1"/>
+    <col min="11" max="11" width="31.81640625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15" r="1" s="31" spans="1:11">
+    <row r="1" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1295,14 +1278,14 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="2" s="28" spans="1:11">
-      <c r="A2" s="15" t="n">
+    <row r="2" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -1311,25 +1294,26 @@
       <c r="E2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="3" s="28" spans="1:11">
-      <c r="A3" s="15" t="n">
+      <c r="I2" s="17">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -1338,25 +1322,26 @@
       <c r="E3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="4" s="28" spans="1:11">
-      <c r="A4" s="15" t="n">
+      <c r="I3" s="17">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -1365,25 +1350,26 @@
       <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="5" s="28" spans="1:11">
-      <c r="A5" s="15" t="n">
+      <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1392,25 +1378,26 @@
       <c r="E5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="6" s="28" spans="1:11">
-      <c r="A6" s="15" t="n">
+      <c r="I5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1419,25 +1406,26 @@
       <c r="E6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="7" s="28" spans="1:11">
-      <c r="A7" s="15" t="n">
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -1446,25 +1434,26 @@
       <c r="E7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="8" s="28" spans="1:11">
-      <c r="A8" s="15" t="n">
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -1473,28 +1462,28 @@
       <c r="E8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="9" s="25" spans="1:11">
-      <c r="A9" s="14" t="n">
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -1503,24 +1492,25 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="10" s="25" spans="1:11">
-      <c r="A10" s="14" t="n">
+      <c r="I9" s="20">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
+      <c r="B10" s="25"/>
       <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1536,18 +1526,19 @@
       <c r="G10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="11" s="25" spans="1:11">
-      <c r="A11" s="14" t="n">
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -1556,30 +1547,31 @@
       <c r="E11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="25" t="s">
+      <c r="I11" s="20">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="12" s="25" spans="1:11">
-      <c r="A12" s="14" t="n">
+    <row r="12" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -1588,25 +1580,26 @@
       <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="13" s="25" spans="1:11">
-      <c r="A13" s="14" t="n">
+      <c r="I12" s="20">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -1615,25 +1608,26 @@
       <c r="E13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="14" s="25" spans="1:11">
-      <c r="A14" s="14" t="n">
+      <c r="I13" s="20">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -1642,25 +1636,26 @@
       <c r="E14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="15" s="25" spans="1:11">
-      <c r="A15" s="14" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="I14" s="20">
+        <v>1</v>
+      </c>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -1669,25 +1664,26 @@
       <c r="E15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="16" s="25" spans="1:11">
-      <c r="A16" s="14" t="n">
+      <c r="I15" s="20">
+        <v>1</v>
+      </c>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -1696,25 +1692,25 @@
       <c r="E16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="17" s="25" spans="1:11">
-      <c r="A17" s="14" t="n">
+      <c r="I16" s="20">
+        <v>1</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -1723,33 +1719,33 @@
       <c r="E17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="25" t="s">
+      <c r="I17" s="20">
+        <v>1</v>
+      </c>
+      <c r="J17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="18" s="28" spans="1:11">
-      <c r="A18" s="15" t="n">
+    <row r="18" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -1758,25 +1754,26 @@
       <c r="E18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="19" s="28" spans="1:11">
-      <c r="A19" s="15" t="n">
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -1785,25 +1782,26 @@
       <c r="E19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="20" s="28" spans="1:11">
-      <c r="A20" s="15" t="n">
+      <c r="I19" s="17">
+        <v>1</v>
+      </c>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -1812,25 +1810,26 @@
       <c r="E20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="21" s="28" spans="1:11">
-      <c r="A21" s="15" t="n">
+      <c r="I20" s="17">
+        <v>1</v>
+      </c>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="15" t="s">
@@ -1839,25 +1838,26 @@
       <c r="E21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="22" s="28" spans="1:11">
-      <c r="A22" s="15" t="n">
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -1866,25 +1866,26 @@
       <c r="E22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="23" s="28" spans="1:11">
-      <c r="A23" s="15" t="n">
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="15" t="s">
@@ -1893,28 +1894,28 @@
       <c r="E23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="24" s="25" spans="1:11">
-      <c r="A24" s="14" t="n">
+      <c r="I23" s="17">
+        <v>1</v>
+      </c>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -1923,25 +1924,26 @@
       <c r="E24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="25" s="25" spans="1:11">
-      <c r="A25" s="14" t="n">
+      <c r="I24" s="20">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="16" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -1950,25 +1952,26 @@
       <c r="E25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="26" s="25" spans="1:11">
-      <c r="A26" s="14" t="n">
+      <c r="I25" s="20">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="16" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -1977,24 +1980,25 @@
       <c r="E26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="27" s="25" spans="1:11">
-      <c r="A27" s="14" t="n">
+      <c r="I26" s="20">
+        <v>1</v>
+      </c>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
+      <c r="B27" s="25"/>
       <c r="C27" s="4" t="s">
         <v>21</v>
       </c>
@@ -2010,19 +2014,20 @@
       <c r="G27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="28" s="25" spans="1:11">
-      <c r="A28" s="14" t="n">
+      <c r="I27" s="20">
+        <v>1</v>
+      </c>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="16" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -2031,24 +2036,25 @@
       <c r="E28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="29" s="25" spans="1:11">
-      <c r="A29" s="14" t="n">
+      <c r="I28" s="20">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
+      <c r="B29" s="25"/>
       <c r="C29" s="4" t="s">
         <v>21</v>
       </c>
@@ -2064,19 +2070,20 @@
       <c r="G29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="30" s="25" spans="1:11">
-      <c r="A30" s="14" t="n">
+      <c r="I29" s="20">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -2085,24 +2092,25 @@
       <c r="E30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="31" s="25" spans="1:11">
-      <c r="A31" s="14" t="n">
+      <c r="I30" s="20">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
+      <c r="B31" s="25"/>
       <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
@@ -2118,19 +2126,20 @@
       <c r="G31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="32" s="25" spans="1:11">
-      <c r="A32" s="14" t="n">
+      <c r="I31" s="20">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="16" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -2139,128 +2148,133 @@
       <c r="E32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="25" t="s">
+      <c r="I32" s="20">
+        <v>1</v>
+      </c>
+      <c r="J32" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16" r="33" s="28" spans="1:11">
-      <c r="A33" s="14" t="n">
+    <row r="33" spans="1:11" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="15" t="n"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="34" s="28" spans="1:11">
-      <c r="A34" s="14" t="n">
+      <c r="I33" s="13">
+        <v>1</v>
+      </c>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="15" t="n"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="35" s="28" spans="1:11">
-      <c r="A35" s="14" t="n">
+      <c r="I34" s="13">
+        <v>1</v>
+      </c>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="15" t="n"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="36" s="28" spans="1:11">
-      <c r="A36" s="14" t="n">
+      <c r="I35" s="13">
+        <v>1</v>
+      </c>
+      <c r="K35" s="15"/>
+    </row>
+    <row r="36" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="15" t="n"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="37" s="28" spans="1:11">
-      <c r="A37" s="14" t="n">
+      <c r="I36" s="13">
+        <v>1</v>
+      </c>
+      <c r="K36" s="15"/>
+    </row>
+    <row r="37" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="15" t="n"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I37" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="38" s="28" spans="1:11">
-      <c r="A38" s="14" t="n">
+      <c r="I37" s="13">
+        <v>1</v>
+      </c>
+      <c r="K37" s="15"/>
+    </row>
+    <row r="38" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="15" t="s">
@@ -2269,25 +2283,26 @@
       <c r="E38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="H38" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="39" s="28" spans="1:11">
-      <c r="A39" s="14" t="n">
+      <c r="I38" s="13">
+        <v>1</v>
+      </c>
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="19" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -2296,25 +2311,26 @@
       <c r="E39" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="28" t="s">
+      <c r="H39" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="40" s="28" spans="1:11">
-      <c r="A40" s="14" t="n">
+      <c r="I39" s="13">
+        <v>1</v>
+      </c>
+      <c r="K39" s="15"/>
+    </row>
+    <row r="40" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="B40" s="28"/>
+      <c r="C40" s="19" t="s">
         <v>103</v>
       </c>
       <c r="D40" s="15" t="s">
@@ -2323,28 +2339,28 @@
       <c r="E40" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="28" t="s">
+      <c r="H40" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="41" s="25" spans="1:11">
-      <c r="A41" s="14" t="n">
+      <c r="I40" s="13">
+        <v>1</v>
+      </c>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="16" t="s">
         <v>106</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -2353,25 +2369,26 @@
       <c r="E41" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="42" s="25" spans="1:11">
-      <c r="A42" s="14" t="n">
+      <c r="I41" s="12">
+        <v>1</v>
+      </c>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -2380,28 +2397,28 @@
       <c r="E42" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="43" s="28" spans="1:11">
-      <c r="A43" s="14" t="n">
+      <c r="I42" s="12">
+        <v>1</v>
+      </c>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D43" s="15" t="s">
@@ -2410,25 +2427,26 @@
       <c r="E43" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="28" t="s">
+      <c r="H43" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="44" s="28" spans="1:11">
-      <c r="A44" s="14" t="n">
+      <c r="I43" s="13">
+        <v>1</v>
+      </c>
+      <c r="K43" s="15"/>
+    </row>
+    <row r="44" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -2437,25 +2455,26 @@
       <c r="E44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="28" t="s">
+      <c r="H44" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="45" s="28" spans="1:11">
-      <c r="A45" s="14" t="n">
+      <c r="I44" s="13">
+        <v>1</v>
+      </c>
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="B45" s="28"/>
+      <c r="C45" s="19" t="s">
         <v>120</v>
       </c>
       <c r="D45" s="15" t="s">
@@ -2464,28 +2483,28 @@
       <c r="E45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H45" s="28" t="s">
+      <c r="H45" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I45" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="15" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="46" s="25" spans="1:11">
-      <c r="A46" s="14" t="n">
+      <c r="I45" s="13">
+        <v>1</v>
+      </c>
+      <c r="K45" s="15"/>
+    </row>
+    <row r="46" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="16" t="s">
         <v>124</v>
       </c>
       <c r="D46" s="14" t="s">
@@ -2494,25 +2513,26 @@
       <c r="E46" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="G46" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="H46" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="I46" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="47" s="25" spans="1:11">
-      <c r="A47" s="14" t="n">
+      <c r="I46" s="13">
+        <v>1</v>
+      </c>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="B47" s="25"/>
+      <c r="C47" s="16" t="s">
         <v>124</v>
       </c>
       <c r="D47" s="14" t="s">
@@ -2521,28 +2541,28 @@
       <c r="E47" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="I47" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14" r="48" s="27" spans="1:11">
-      <c r="A48" s="14" t="n">
+      <c r="I47" s="13">
+        <v>1</v>
+      </c>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -2551,24 +2571,25 @@
       <c r="E48" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H48" s="28" t="s">
+      <c r="H48" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I48" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14" r="49" s="27" spans="1:11">
-      <c r="A49" s="14" t="n">
+      <c r="I48" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="B49" s="27"/>
+      <c r="C49" s="19" t="s">
         <v>134</v>
       </c>
       <c r="D49" s="15" t="s">
@@ -2577,584 +2598,594 @@
       <c r="E49" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="19" t="s">
         <v>133</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="H49" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="I49" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14" r="50" s="27" spans="1:11">
-      <c r="A50" s="14" t="n">
+      <c r="I49" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="B50" s="27"/>
+      <c r="C50" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="15" t="n"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H50" s="28" t="s">
+      <c r="I50" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I50" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14.5" r="51" s="25" spans="1:11">
-      <c r="A51" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" s="14" t="s">
+      <c r="C51" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="D51" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>141</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H51" s="25" t="s">
+      <c r="C52" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="52" s="28" spans="1:11">
-      <c r="A52" s="14" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="28" t="s">
+      <c r="I52" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="28"/>
+      <c r="C53" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="E53" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H52" s="28" t="s">
+      <c r="G53" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I54" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H55" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="53" s="28" spans="1:11">
-      <c r="A53" s="14" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="15" t="s">
+      <c r="I55" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="I53" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="54" s="28" spans="1:11">
-      <c r="A54" s="14" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" s="28" t="s">
+      <c r="G56" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="28"/>
+      <c r="C57" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D54" s="15" t="n"/>
-      <c r="E54" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I54" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="55" s="28" spans="1:11">
-      <c r="A55" s="14" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H55" s="28" t="s">
+      <c r="I57" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="28"/>
+      <c r="C58" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H58" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I55" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="56" s="28" spans="1:11">
-      <c r="A56" s="14" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="G56" s="9" t="s">
+      <c r="I58" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="H56" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="57" s="28" spans="1:11">
-      <c r="A57" s="14" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="15" t="n"/>
-      <c r="E57" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I57" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="58" s="28" spans="1:11">
-      <c r="A58" s="14" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" s="28" t="s">
+      <c r="E59" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="H59" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="28"/>
+      <c r="C60" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="28" t="s">
+      <c r="D60" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="H60" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="28"/>
+      <c r="C61" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="D61" s="15"/>
+      <c r="E61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="28"/>
+      <c r="C62" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I62" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H63" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="59" s="28" spans="1:11">
-      <c r="A59" s="14" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I59" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="60" s="28" spans="1:11">
-      <c r="A60" s="14" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I60" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="61" s="28" spans="1:11">
-      <c r="A61" s="14" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" s="15" t="n"/>
-      <c r="E61" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="I61" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="62" s="28" spans="1:11">
-      <c r="A62" s="14" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" s="28" t="s">
+      <c r="I63" s="20">
+        <v>1</v>
+      </c>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="1:11" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="25"/>
+      <c r="C64" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D62" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="G62" s="9" t="s">
+      <c r="D64" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="I62" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="63" s="25" spans="1:11">
-      <c r="A63" s="14" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14" r="64" s="25" spans="1:11">
-      <c r="A64" s="14" t="n">
-        <v>63</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>182</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F64" s="25" t="s">
-        <v>183</v>
+      <c r="F64" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="I64" s="30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14" r="65" s="25" spans="1:11">
-      <c r="A65" s="14" t="n">
+      <c r="I64" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="C65" s="25" t="s">
-        <v>184</v>
+      <c r="B65" s="25"/>
+      <c r="C65" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F65" s="25" t="s">
-        <v>186</v>
+      <c r="F65" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="I65" s="30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14" r="66" s="25" spans="1:11">
-      <c r="A66" s="14" t="n">
+      <c r="I65" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="B66" s="25"/>
+      <c r="C66" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I66" s="20">
+        <v>1</v>
+      </c>
+      <c r="K66" s="14"/>
+    </row>
+    <row r="67" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="25"/>
+      <c r="C67" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="I67" s="20">
+        <v>1</v>
+      </c>
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="I68" s="20">
+        <v>1</v>
+      </c>
+      <c r="K68" s="14"/>
+    </row>
+    <row r="69" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="25"/>
+      <c r="C69" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="I69" s="20">
+        <v>1</v>
+      </c>
+      <c r="K69" s="14"/>
+    </row>
+    <row r="70" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="G66" s="25" t="s">
+      <c r="D70" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="H66" s="25" t="s">
+      <c r="E70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" s="20">
+        <v>1</v>
+      </c>
+      <c r="K70" s="14"/>
+    </row>
+    <row r="71" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="25"/>
+      <c r="C71" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H71" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="I66" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="67" s="25" spans="1:11">
-      <c r="A67" s="14" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="14" t="n"/>
-      <c r="E67" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="I67" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="68" s="25" spans="1:11">
-      <c r="A68" s="14" t="n">
-        <v>67</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="14" t="n"/>
-      <c r="E68" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="I68" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="69" s="25" spans="1:11">
-      <c r="A69" s="14" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="14" t="n"/>
-      <c r="E69" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="H69" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="I69" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="70" s="25" spans="1:11">
-      <c r="A70" s="14" t="n">
-        <v>69</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" s="14" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="71" s="25" spans="1:11">
-      <c r="A71" s="14" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="I71" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" s="14" t="n"/>
-    </row>
+      <c r="I71" s="20">
+        <v>1</v>
+      </c>
+      <c r="K71" s="14"/>
+    </row>
+    <row r="72" spans="1:11" ht="14" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B63:B71"/>
@@ -3169,37 +3200,34 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B45"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="32" width="7"/>
-    <col customWidth="1" max="2" min="2" style="32" width="8.81640625"/>
-    <col customWidth="1" max="3" min="3" width="21.1796875"/>
-    <col customWidth="1" max="4" min="4" style="32" width="14.36328125"/>
-    <col customWidth="1" max="5" min="5" style="32" width="8.81640625"/>
-    <col customWidth="1" max="6" min="6" width="60.81640625"/>
-    <col customWidth="1" max="7" min="7" width="68.36328125"/>
-    <col customWidth="1" max="8" min="8" width="55.1796875"/>
-    <col customWidth="1" max="9" min="9" width="14.453125"/>
+    <col min="1" max="1" width="7" style="22" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="60.81640625" customWidth="1"/>
+    <col min="7" max="7" width="68.36328125" customWidth="1"/>
+    <col min="8" max="8" width="55.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="22" r="1" s="31" spans="1:9">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3207,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -3228,371 +3256,383 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="32" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="22" t="s">
         <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="32" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
+      <c r="B3" s="32"/>
       <c r="C3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="22" t="s">
         <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="32" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
+      <c r="B4" s="32"/>
       <c r="C4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="22" t="s">
         <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="32" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
+      <c r="B5" s="32"/>
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="22" t="s">
         <v>108</v>
       </c>
       <c r="F5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" t="s">
         <v>201</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="32" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E10" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C11" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="D11" s="22" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="32" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="32" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="32" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="32" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="32" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="32" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
+      <c r="B13" s="32"/>
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="32" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
+      <c r="B14" s="32"/>
       <c r="C14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="32" t="n">
-        <v>14</v>
-      </c>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32"/>
       <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" t="s">
         <v>220</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="32" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="32" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="E17" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="32" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="32" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="32" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="32" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="32" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="32" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="32" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="32" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="32" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
     </row>
@@ -3601,67 +3641,65 @@
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B15"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="F15" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge" ref="F18" r:id="rId4"/>
+    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="F15" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="F16" r:id="rId3"/>
+    <hyperlink ref="F18" r:id="rId4" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="8" width="15.81640625"/>
-    <col customWidth="1" max="2" min="2" style="33" width="16"/>
+    <col min="1" max="1" width="15.81640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>227</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/TestDatas/api_info.xlsx
+++ b/TestDatas/api_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pupu_api\pupu_api\TestDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xiangmu\pupu_api\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
     <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="287">
   <si>
     <t>case_id</t>
   </si>
@@ -721,6 +721,172 @@
   </si>
   <si>
     <t>${pre_phone_a}</t>
+  </si>
+  <si>
+    <t>{"post":"${postID_2}","author":"${userId_30}","p":"${ticket_30}"}</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/post/unfav</t>
+  </si>
+  <si>
+    <t>post/unfav</t>
+  </si>
+  <si>
+    <t>正常取消</t>
+  </si>
+  <si>
+    <t>取消点赞</t>
+  </si>
+  <si>
+    <t>{"post":"${postID_2}","author":"${userId_30}","p":"${ticket_29}"}</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/post/fav</t>
+  </si>
+  <si>
+    <t>post/fav</t>
+  </si>
+  <si>
+    <t>陌生人点赞</t>
+  </si>
+  <si>
+    <t>"code":40045</t>
+  </si>
+  <si>
+    <t>{"post":"${postID_1}","author":"${userId_30}","p":"${ticket_31}"}</t>
+  </si>
+  <si>
+    <t>该post已删除</t>
+  </si>
+  <si>
+    <t>正常点赞</t>
+  </si>
+  <si>
+    <t>点赞</t>
+  </si>
+  <si>
+    <t>"code":50000</t>
+  </si>
+  <si>
+    <t>{"post":"${postID_2}","p":"${ticket_31}"}</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/post/delete</t>
+  </si>
+  <si>
+    <t>post/delete</t>
+  </si>
+  <si>
+    <t>不是本人删除</t>
+  </si>
+  <si>
+    <t>{"post":"${postID_1}","p":"${ticket_30}"}</t>
+  </si>
+  <si>
+    <t>正常删除</t>
+  </si>
+  <si>
+    <t>删除post</t>
+  </si>
+  <si>
+    <t>{"images":"ftvz35E7kq3o7csz1RiiBg","p":"${ticket_30}","friendType":"5","content":"仅自己可见"}</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/post/publish/images</t>
+  </si>
+  <si>
+    <t>publish/images</t>
+  </si>
+  <si>
+    <t>图片可见范围-5仅自己可见</t>
+  </si>
+  <si>
+    <t>{"images":"mrKjP00SrbDo7csz1RiiBg","p":"${ticket_30}","friendType":"4","content":"可见范围好朋友"}</t>
+  </si>
+  <si>
+    <t>图片可见范围-4好朋友</t>
+  </si>
+  <si>
+    <t>{"images":"d5iCmZQpa1To7csz1RiiBg","p":"${ticket_30}","friendType":"3","content":"可见范围朋友"}</t>
+  </si>
+  <si>
+    <t>图片可见范围-3朋友</t>
+  </si>
+  <si>
+    <t>{"images":"F7hEceGhIhTo7csz1RiiBg","p":"${ticket_30}","friendType":"2","content":"可见范围熟人"}</t>
+  </si>
+  <si>
+    <t>图片可见范围-2熟人</t>
+  </si>
+  <si>
+    <t>{"images":"SU6BmkU9-ULo7csz1RiiBg","p":"${ticket_30}","friendType":"1","content":"可见范围关注我的人"}</t>
+  </si>
+  <si>
+    <t>图片可见范围-1关注我的人</t>
+  </si>
+  <si>
+    <t>"code":40072</t>
+  </si>
+  <si>
+    <t>{"images":"8TRt1agLgGfo7csz1RiiBg","p":"${ticket_30}","friendType":"1","content":"${ticket_30}，30"}</t>
+  </si>
+  <si>
+    <t>图片重复发布</t>
+  </si>
+  <si>
+    <t>${postID_2}="format":"jpeg"}],"id":"(.*?)",</t>
+  </si>
+  <si>
+    <t>发布图片</t>
+  </si>
+  <si>
+    <t>${postID_1}="format":"jpeg"}],"id":"(.*?)",</t>
+  </si>
+  <si>
+    <t>{"images":"ftvz35E7kq3o7csz1RiiBg","p":"${ticket_30}","content":"${ticket_30}"}</t>
+  </si>
+  <si>
+    <t>正常发布图片</t>
+  </si>
+  <si>
+    <t>${userId_29}=.*"id":"(.*?)".*</t>
+  </si>
+  <si>
+    <t>${ticket_29}="ticket":"(.*?)"</t>
+  </si>
+  <si>
+    <t>{"mobile":"13410000229","code":"1234"}</t>
+  </si>
+  <si>
+    <t>{"mobile":"13410000229","register":"false"}</t>
+  </si>
+  <si>
+    <t>${userId_31}=.*"id":"(.*?)".*</t>
+  </si>
+  <si>
+    <t>${ticket_31}="ticket":"(.*?)"</t>
+  </si>
+  <si>
+    <t>{"mobile":"13410000231","code":"1234"}</t>
+  </si>
+  <si>
+    <t>{"mobile":"13410000231","register":"false"}</t>
+  </si>
+  <si>
+    <t>${userId_30}=.*"id":"(.*?)".*</t>
+  </si>
+  <si>
+    <t>${ticket_30}="ticket":"(.*?)"</t>
+  </si>
+  <si>
+    <t>{"mobile":"13410000230","code":"1234"}</t>
+  </si>
+  <si>
+    <t>{"mobile":"13410000230","register":"false"}</t>
+  </si>
+  <si>
+    <t>发布图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -834,7 +1000,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -895,6 +1061,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -918,6 +1090,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1222,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1466,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -1312,7 +1496,7 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1524,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1368,7 +1552,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="19" t="s">
         <v>24</v>
       </c>
@@ -1396,7 +1580,7 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="19" t="s">
         <v>27</v>
       </c>
@@ -1424,7 +1608,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="19" t="s">
         <v>29</v>
       </c>
@@ -1452,7 +1636,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="19" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +1664,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -1510,7 +1694,7 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1537,7 +1721,7 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="16" t="s">
         <v>40</v>
       </c>
@@ -1570,7 +1754,7 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="16" t="s">
         <v>44</v>
       </c>
@@ -1598,7 +1782,7 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="16" t="s">
         <v>47</v>
       </c>
@@ -1626,7 +1810,7 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="16" t="s">
         <v>49</v>
       </c>
@@ -1654,7 +1838,7 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="16" t="s">
         <v>51</v>
       </c>
@@ -1682,7 +1866,7 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="16" t="s">
         <v>54</v>
       </c>
@@ -1742,7 +1926,7 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="31" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -1772,7 +1956,7 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="19" t="s">
         <v>66</v>
       </c>
@@ -1800,7 +1984,7 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="19" t="s">
         <v>68</v>
       </c>
@@ -1828,7 +2012,7 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="19" t="s">
         <v>71</v>
       </c>
@@ -1856,7 +2040,7 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="19" t="s">
         <v>73</v>
       </c>
@@ -1884,7 +2068,7 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="19" t="s">
         <v>75</v>
       </c>
@@ -1912,7 +2096,7 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="26" t="s">
         <v>77</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -1942,7 +2126,7 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="16" t="s">
         <v>71</v>
       </c>
@@ -1970,7 +2154,7 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="16" t="s">
         <v>73</v>
       </c>
@@ -1998,7 +2182,7 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="4" t="s">
         <v>21</v>
       </c>
@@ -2026,7 +2210,7 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="16" t="s">
         <v>84</v>
       </c>
@@ -2054,7 +2238,7 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="4" t="s">
         <v>21</v>
       </c>
@@ -2082,7 +2266,7 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="25"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="16" t="s">
         <v>51</v>
       </c>
@@ -2110,7 +2294,7 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
@@ -2138,7 +2322,7 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="16" t="s">
         <v>87</v>
       </c>
@@ -2171,7 +2355,7 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="28" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="19" t="s">
@@ -2193,7 +2377,7 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="19" t="s">
         <v>94</v>
       </c>
@@ -2213,7 +2397,7 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="19" t="s">
         <v>95</v>
       </c>
@@ -2233,7 +2417,7 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="19" t="s">
         <v>96</v>
       </c>
@@ -2253,7 +2437,7 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="19" t="s">
         <v>97</v>
       </c>
@@ -2273,7 +2457,7 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="28"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="19" t="s">
         <v>98</v>
       </c>
@@ -2301,7 +2485,7 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="28"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="19" t="s">
         <v>101</v>
       </c>
@@ -2329,7 +2513,7 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="28"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="19" t="s">
         <v>103</v>
       </c>
@@ -2357,7 +2541,7 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="32" t="s">
         <v>105</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -2387,7 +2571,7 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="16" t="s">
         <v>111</v>
       </c>
@@ -2415,7 +2599,7 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C43" s="19" t="s">
@@ -2445,7 +2629,7 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="19" t="s">
         <v>118</v>
       </c>
@@ -2473,7 +2657,7 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="28"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="19" t="s">
         <v>120</v>
       </c>
@@ -2501,7 +2685,7 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="32" t="s">
         <v>123</v>
       </c>
       <c r="C46" s="16" t="s">
@@ -2531,7 +2715,7 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="25"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="16" t="s">
         <v>124</v>
       </c>
@@ -2559,7 +2743,7 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="28" t="s">
         <v>130</v>
       </c>
       <c r="C48" s="19" t="s">
@@ -2588,7 +2772,7 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="27"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="19" t="s">
         <v>134</v>
       </c>
@@ -2615,7 +2799,7 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="27"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="19" t="s">
         <v>136</v>
       </c>
@@ -2667,7 +2851,7 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="31" t="s">
         <v>142</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -2696,7 +2880,7 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="28"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="19" t="s">
         <v>147</v>
       </c>
@@ -2723,7 +2907,7 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="28"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="19" t="s">
         <v>150</v>
       </c>
@@ -2746,7 +2930,7 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="28"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="19" t="s">
         <v>152</v>
       </c>
@@ -2773,7 +2957,7 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="28"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="19" t="s">
         <v>155</v>
       </c>
@@ -2800,7 +2984,7 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="28"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="19" t="s">
         <v>157</v>
       </c>
@@ -2823,7 +3007,7 @@
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="28"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="19" t="s">
         <v>158</v>
       </c>
@@ -2850,7 +3034,7 @@
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="19" t="s">
         <v>161</v>
       </c>
@@ -2877,7 +3061,7 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="28"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="19" t="s">
         <v>163</v>
       </c>
@@ -2904,7 +3088,7 @@
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="28"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="19" t="s">
         <v>165</v>
       </c>
@@ -2927,7 +3111,7 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="28"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="19" t="s">
         <v>167</v>
       </c>
@@ -2952,7 +3136,7 @@
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="26" t="s">
         <v>169</v>
       </c>
       <c r="C63" s="16" t="s">
@@ -2982,7 +3166,7 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="25"/>
+      <c r="B64" s="27"/>
       <c r="C64" s="16" t="s">
         <v>173</v>
       </c>
@@ -3009,7 +3193,7 @@
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="25"/>
+      <c r="B65" s="27"/>
       <c r="C65" s="16" t="s">
         <v>176</v>
       </c>
@@ -3036,7 +3220,7 @@
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="25"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="16" t="s">
         <v>179</v>
       </c>
@@ -3064,7 +3248,7 @@
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="25"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="16" t="s">
         <v>181</v>
       </c>
@@ -3087,7 +3271,7 @@
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="25"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="16" t="s">
         <v>183</v>
       </c>
@@ -3110,7 +3294,7 @@
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="25"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="16" t="s">
         <v>185</v>
       </c>
@@ -3133,7 +3317,7 @@
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="25"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="16" t="s">
         <v>187</v>
       </c>
@@ -3161,7 +3345,7 @@
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="25"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="16" t="s">
         <v>190</v>
       </c>
@@ -3185,9 +3369,597 @@
       </c>
       <c r="K71" s="14"/>
     </row>
-    <row r="72" spans="1:11" ht="14" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="37"/>
+      <c r="C72" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H72" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="25">
+        <v>1</v>
+      </c>
+      <c r="K72" s="14"/>
+    </row>
+    <row r="73" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="37"/>
+      <c r="C73" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" s="25">
+        <v>1</v>
+      </c>
+      <c r="J73" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="K73" s="35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="37"/>
+      <c r="C74" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H74" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74" s="25">
+        <v>1</v>
+      </c>
+      <c r="K74" s="14"/>
+    </row>
+    <row r="75" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="37"/>
+      <c r="C75" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="H75" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" s="25">
+        <v>1</v>
+      </c>
+      <c r="J75" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="K75" s="35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="37"/>
+      <c r="C76" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H76" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" s="25">
+        <v>1</v>
+      </c>
+      <c r="K76" s="14"/>
+    </row>
+    <row r="77" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="37"/>
+      <c r="C77" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="H77" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" s="25">
+        <v>1</v>
+      </c>
+      <c r="J77" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K77" s="35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="G78" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="H78" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" s="24">
+        <v>1</v>
+      </c>
+      <c r="J78" s="41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="28"/>
+      <c r="C79" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="G79" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="H79" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="24">
+        <v>1</v>
+      </c>
+      <c r="J79" s="41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="28"/>
+      <c r="C80" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G80" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="H80" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="I80" s="24">
+        <v>1</v>
+      </c>
+      <c r="K80" s="15"/>
+    </row>
+    <row r="81" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="28"/>
+      <c r="C81" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G81" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="H81" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="24">
+        <v>1</v>
+      </c>
+      <c r="K81" s="15"/>
+    </row>
+    <row r="82" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="28"/>
+      <c r="C82" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G82" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="H82" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" s="24">
+        <v>1</v>
+      </c>
+      <c r="K82" s="15"/>
+    </row>
+    <row r="83" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="28"/>
+      <c r="C83" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G83" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="H83" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" s="24">
+        <v>1</v>
+      </c>
+      <c r="K83" s="15"/>
+    </row>
+    <row r="84" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="28"/>
+      <c r="C84" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G84" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="H84" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" s="24">
+        <v>1</v>
+      </c>
+      <c r="K84" s="15"/>
+    </row>
+    <row r="85" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="28"/>
+      <c r="C85" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G85" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="H85" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" s="24">
+        <v>1</v>
+      </c>
+      <c r="K85" s="15"/>
+    </row>
+    <row r="86" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G86" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="H86" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86" s="25">
+        <v>1</v>
+      </c>
+      <c r="K86" s="14"/>
+    </row>
+    <row r="87" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="40"/>
+      <c r="C87" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="I87" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G88" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H88" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" s="24">
+        <v>1</v>
+      </c>
+      <c r="K88" s="15"/>
+    </row>
+    <row r="89" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="39"/>
+      <c r="C89" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G89" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="H89" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I89" s="24">
+        <v>1</v>
+      </c>
+      <c r="K89" s="15"/>
+    </row>
+    <row r="90" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="39"/>
+      <c r="C90" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G90" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="H90" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I90" s="24">
+        <v>1</v>
+      </c>
+      <c r="K90" s="15"/>
+    </row>
+    <row r="91" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="G91" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="H91" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I91" s="25">
+        <v>1</v>
+      </c>
+      <c r="K91" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B90"/>
     <mergeCell ref="B63:B71"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B2:B8"/>
@@ -3201,8 +3973,16 @@
     <mergeCell ref="B43:B45"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F78" r:id="rId1"/>
+    <hyperlink ref="F79" r:id="rId2"/>
+    <hyperlink ref="F88" r:id="rId3"/>
+    <hyperlink ref="F89" r:id="rId4"/>
+    <hyperlink ref="F90" r:id="rId5"/>
+    <hyperlink ref="F91" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3260,7 +4040,7 @@
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
@@ -3286,7 +4066,7 @@
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>196</v>
       </c>
@@ -3307,7 +4087,7 @@
       <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>198</v>
       </c>
@@ -3328,7 +4108,7 @@
       <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>61</v>
       </c>
@@ -3349,7 +4129,7 @@
       <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="34"/>
       <c r="C6" t="s">
         <v>201</v>
       </c>
@@ -3370,7 +4150,7 @@
       <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="34"/>
       <c r="C7" t="s">
         <v>203</v>
       </c>
@@ -3391,7 +4171,7 @@
       <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="34"/>
       <c r="C8" t="s">
         <v>205</v>
       </c>
@@ -3412,7 +4192,7 @@
       <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="34"/>
       <c r="C9" t="s">
         <v>207</v>
       </c>
@@ -3433,7 +4213,7 @@
       <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="34"/>
       <c r="C10" t="s">
         <v>209</v>
       </c>
@@ -3454,7 +4234,7 @@
       <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="33" t="s">
         <v>210</v>
       </c>
       <c r="C11" t="s">
@@ -3474,7 +4254,7 @@
       <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="34"/>
       <c r="C12" t="s">
         <v>198</v>
       </c>
@@ -3492,7 +4272,7 @@
       <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="34"/>
       <c r="C13" t="s">
         <v>61</v>
       </c>
@@ -3510,7 +4290,7 @@
       <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="34"/>
       <c r="C14" t="s">
         <v>216</v>
       </c>
@@ -3528,7 +4308,7 @@
       <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="34"/>
       <c r="C15" t="s">
         <v>66</v>
       </c>

--- a/TestDatas/api_info.xlsx
+++ b/TestDatas/api_info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="305">
   <si>
     <t>case_id</t>
   </si>
@@ -765,9 +765,6 @@
     <t>点赞</t>
   </si>
   <si>
-    <t>"code":50000</t>
-  </si>
-  <si>
     <t>{"post":"${postID_2}","p":"${ticket_31}"}</t>
   </si>
   <si>
@@ -834,15 +831,9 @@
     <t>图片重复发布</t>
   </si>
   <si>
-    <t>${postID_2}="format":"jpeg"}],"id":"(.*?)",</t>
-  </si>
-  <si>
     <t>发布图片</t>
   </si>
   <si>
-    <t>${postID_1}="format":"jpeg"}],"id":"(.*?)",</t>
-  </si>
-  <si>
     <t>{"images":"ftvz35E7kq3o7csz1RiiBg","p":"${ticket_30}","content":"${ticket_30}"}</t>
   </si>
   <si>
@@ -883,6 +874,69 @@
   </si>
   <si>
     <t>{"mobile":"13410000230","register":"false"}</t>
+  </si>
+  <si>
+    <t>${postID_1}="format":"jpeg","id":"ftvz35E7kq3o7csz1RiiBg"}],"id":"(.*?)",</t>
+  </si>
+  <si>
+    <t>${postID_2}="format":"jpeg","id":"8TRt1agLgGfo7csz1RiiBg"}],"id":"(.*?)",</t>
+  </si>
+  <si>
+    <t>评论</t>
+  </si>
+  <si>
+    <t>自己评论自己的post</t>
+  </si>
+  <si>
+    <t>post/comment</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/post/comment</t>
+  </si>
+  <si>
+    <t>{"post":"${postID_2}","content":"${postID_2}","p":"${ticket_30}"}</t>
+  </si>
+  <si>
+    <t>${comment_1}="id":"G_x6WwI0XgTW16qv20-Hlg"},"id":"(.*?)",</t>
+  </si>
+  <si>
+    <t>他人评论自己的post</t>
+  </si>
+  <si>
+    <t>{"post":"${postID_2}","content":"${postID_2}","p":"${ticket_29}"}</t>
+  </si>
+  <si>
+    <t>${comment_2}="id":"sfDsvfd1tUjW16qv20-Hlg","signature":"åªåªåª"},"id":"(.*?)",</t>
+  </si>
+  <si>
+    <t>{"post":"${postID_2}","content":"${postID_2}+${ticket_29}","p":"${ticket_29}"}</t>
+  </si>
+  <si>
+    <t>${comment_3}="id":"sfDsvfd1tUjW16qv20-Hlg","signature":"åªåªåª"},"id":"(.*?)",</t>
+  </si>
+  <si>
+    <t>删除评论</t>
+  </si>
+  <si>
+    <t>删除自己的评论</t>
+  </si>
+  <si>
+    <t>post/comment/delete</t>
+  </si>
+  <si>
+    <t>http://api798.impupu.com/api/post/comment/delete</t>
+  </si>
+  <si>
+    <t>{"comment":"${comment_1}","p"="${ticket_30}"}</t>
+  </si>
+  <si>
+    <t>{"comment":"${comment_2}","p"="${ticket_29}"}</t>
+  </si>
+  <si>
+    <t>删除他人评论</t>
+  </si>
+  <si>
+    <t>{"comment":"${comment_3}","p"="${ticket_30}"}</t>
   </si>
   <si>
     <t>发布图片</t>
@@ -1000,7 +1054,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1067,32 +1121,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1102,6 +1132,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1406,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1528,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -1496,7 +1558,7 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
@@ -1524,7 +1586,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
@@ -1552,7 +1614,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="19" t="s">
         <v>24</v>
       </c>
@@ -1580,7 +1642,7 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="19" t="s">
         <v>27</v>
       </c>
@@ -1608,7 +1670,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="19" t="s">
         <v>29</v>
       </c>
@@ -1636,7 +1698,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="19" t="s">
         <v>31</v>
       </c>
@@ -1664,7 +1726,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -1694,7 +1756,7 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1721,7 +1783,7 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="16" t="s">
         <v>40</v>
       </c>
@@ -1754,7 +1816,7 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="16" t="s">
         <v>44</v>
       </c>
@@ -1782,7 +1844,7 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="16" t="s">
         <v>47</v>
       </c>
@@ -1810,7 +1872,7 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="16" t="s">
         <v>49</v>
       </c>
@@ -1838,7 +1900,7 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="16" t="s">
         <v>51</v>
       </c>
@@ -1866,7 +1928,7 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="16" t="s">
         <v>54</v>
       </c>
@@ -1926,7 +1988,7 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="41" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -1956,7 +2018,7 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="19" t="s">
         <v>66</v>
       </c>
@@ -1984,7 +2046,7 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="19" t="s">
         <v>68</v>
       </c>
@@ -2012,7 +2074,7 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="19" t="s">
         <v>71</v>
       </c>
@@ -2040,7 +2102,7 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="19" t="s">
         <v>73</v>
       </c>
@@ -2068,7 +2130,7 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="19" t="s">
         <v>75</v>
       </c>
@@ -2096,7 +2158,7 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -2126,7 +2188,7 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="16" t="s">
         <v>71</v>
       </c>
@@ -2154,7 +2216,7 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="27"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="16" t="s">
         <v>73</v>
       </c>
@@ -2182,7 +2244,7 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="27"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="4" t="s">
         <v>21</v>
       </c>
@@ -2210,7 +2272,7 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="16" t="s">
         <v>84</v>
       </c>
@@ -2238,7 +2300,7 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="4" t="s">
         <v>21</v>
       </c>
@@ -2266,7 +2328,7 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="27"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="16" t="s">
         <v>51</v>
       </c>
@@ -2294,7 +2356,7 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
@@ -2322,7 +2384,7 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="27"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="16" t="s">
         <v>87</v>
       </c>
@@ -2355,7 +2417,7 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="33" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="19" t="s">
@@ -2377,7 +2439,7 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="19" t="s">
         <v>94</v>
       </c>
@@ -2397,7 +2459,7 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="30"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="19" t="s">
         <v>95</v>
       </c>
@@ -2417,7 +2479,7 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="30"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="19" t="s">
         <v>96</v>
       </c>
@@ -2437,7 +2499,7 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="30"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="19" t="s">
         <v>97</v>
       </c>
@@ -2457,7 +2519,7 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="30"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="19" t="s">
         <v>98</v>
       </c>
@@ -2485,7 +2547,7 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="30"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="19" t="s">
         <v>101</v>
       </c>
@@ -2513,7 +2575,7 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="30"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="19" t="s">
         <v>103</v>
       </c>
@@ -2541,7 +2603,7 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -2571,7 +2633,7 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="27"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="16" t="s">
         <v>111</v>
       </c>
@@ -2599,7 +2661,7 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="33" t="s">
         <v>113</v>
       </c>
       <c r="C43" s="19" t="s">
@@ -2629,7 +2691,7 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="30"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="19" t="s">
         <v>118</v>
       </c>
@@ -2657,7 +2719,7 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="30"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="19" t="s">
         <v>120</v>
       </c>
@@ -2685,7 +2747,7 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="34" t="s">
         <v>123</v>
       </c>
       <c r="C46" s="16" t="s">
@@ -2715,7 +2777,7 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="27"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="16" t="s">
         <v>124</v>
       </c>
@@ -2743,7 +2805,7 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="33" t="s">
         <v>130</v>
       </c>
       <c r="C48" s="19" t="s">
@@ -2772,7 +2834,7 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="19" t="s">
         <v>134</v>
       </c>
@@ -2799,7 +2861,7 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="19" t="s">
         <v>136</v>
       </c>
@@ -2851,7 +2913,7 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="41" t="s">
         <v>142</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -2880,7 +2942,7 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="30"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="19" t="s">
         <v>147</v>
       </c>
@@ -2907,7 +2969,7 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="30"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="19" t="s">
         <v>150</v>
       </c>
@@ -2930,7 +2992,7 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="30"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="19" t="s">
         <v>152</v>
       </c>
@@ -2957,7 +3019,7 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="30"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="19" t="s">
         <v>155</v>
       </c>
@@ -2984,7 +3046,7 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="19" t="s">
         <v>157</v>
       </c>
@@ -3007,7 +3069,7 @@
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="30"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="19" t="s">
         <v>158</v>
       </c>
@@ -3034,7 +3096,7 @@
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="30"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="19" t="s">
         <v>161</v>
       </c>
@@ -3061,7 +3123,7 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="30"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="19" t="s">
         <v>163</v>
       </c>
@@ -3088,7 +3150,7 @@
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="30"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="19" t="s">
         <v>165</v>
       </c>
@@ -3111,7 +3173,7 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="30"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="19" t="s">
         <v>167</v>
       </c>
@@ -3136,7 +3198,7 @@
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="37" t="s">
         <v>169</v>
       </c>
       <c r="C63" s="16" t="s">
@@ -3166,7 +3228,7 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="27"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="16" t="s">
         <v>173</v>
       </c>
@@ -3193,7 +3255,7 @@
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="27"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="16" t="s">
         <v>176</v>
       </c>
@@ -3220,7 +3282,7 @@
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="27"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="16" t="s">
         <v>179</v>
       </c>
@@ -3248,7 +3310,7 @@
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="27"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="16" t="s">
         <v>181</v>
       </c>
@@ -3271,7 +3333,7 @@
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="27"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="16" t="s">
         <v>183</v>
       </c>
@@ -3294,7 +3356,7 @@
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="27"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="16" t="s">
         <v>185</v>
       </c>
@@ -3317,7 +3379,7 @@
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="27"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="16" t="s">
         <v>187</v>
       </c>
@@ -3345,7 +3407,7 @@
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="27"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="16" t="s">
         <v>190</v>
       </c>
@@ -3369,12 +3431,12 @@
       </c>
       <c r="K71" s="14"/>
     </row>
-    <row r="72" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+    <row r="72" spans="1:11" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
         <v>71</v>
       </c>
-      <c r="B72" s="37"/>
-      <c r="C72" s="42" t="s">
+      <c r="B72" s="29"/>
+      <c r="C72" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -3383,59 +3445,59 @@
       <c r="E72" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="42" t="s">
+      <c r="F72" s="32" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="H72" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="H72" s="26" t="s">
         <v>23</v>
       </c>
       <c r="I72" s="25">
         <v>1</v>
       </c>
-      <c r="K72" s="14"/>
-    </row>
-    <row r="73" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+      <c r="K72" s="30"/>
+    </row>
+    <row r="73" spans="1:11" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A73" s="15">
         <v>72</v>
       </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="35" t="s">
+      <c r="B73" s="29"/>
+      <c r="C73" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E73" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="35" t="s">
+      <c r="E73" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="H73" s="35" t="s">
+      <c r="G73" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="H73" s="26" t="s">
         <v>23</v>
       </c>
       <c r="I73" s="25">
         <v>1</v>
       </c>
-      <c r="J73" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="K73" s="35" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+      <c r="J73" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="K73" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="42" t="s">
+      <c r="B74" s="29"/>
+      <c r="C74" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -3444,59 +3506,59 @@
       <c r="E74" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="42" t="s">
+      <c r="F74" s="32" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H74" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="H74" s="26" t="s">
         <v>23</v>
       </c>
       <c r="I74" s="25">
         <v>1</v>
       </c>
-      <c r="K74" s="14"/>
-    </row>
-    <row r="75" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+      <c r="K74" s="30"/>
+    </row>
+    <row r="75" spans="1:11" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A75" s="15">
         <v>74</v>
       </c>
-      <c r="B75" s="37"/>
-      <c r="C75" s="35" t="s">
+      <c r="B75" s="29"/>
+      <c r="C75" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E75" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="35" t="s">
+      <c r="E75" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G75" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="H75" s="35" t="s">
+      <c r="G75" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="H75" s="26" t="s">
         <v>23</v>
       </c>
       <c r="I75" s="25">
         <v>1</v>
       </c>
-      <c r="J75" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="K75" s="35" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
+      <c r="J75" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="K75" s="26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="37"/>
-      <c r="C76" s="42" t="s">
+      <c r="B76" s="29"/>
+      <c r="C76" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -3505,276 +3567,276 @@
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="42" t="s">
+      <c r="F76" s="32" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H76" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="H76" s="26" t="s">
         <v>23</v>
       </c>
       <c r="I76" s="25">
         <v>1</v>
       </c>
-      <c r="K76" s="14"/>
-    </row>
-    <row r="77" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+      <c r="K76" s="30"/>
+    </row>
+    <row r="77" spans="1:11" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A77" s="15">
         <v>76</v>
       </c>
-      <c r="B77" s="37"/>
-      <c r="C77" s="35" t="s">
+      <c r="B77" s="29"/>
+      <c r="C77" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E77" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="35" t="s">
+      <c r="E77" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G77" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="H77" s="35" t="s">
+      <c r="G77" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H77" s="26" t="s">
         <v>23</v>
       </c>
       <c r="I77" s="25">
         <v>1</v>
       </c>
-      <c r="J77" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="K77" s="35" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
+      <c r="J77" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="K77" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="29" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A78" s="15">
         <v>77</v>
       </c>
-      <c r="B78" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>273</v>
+      <c r="B78" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>270</v>
       </c>
       <c r="D78" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G78" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" s="24">
+        <v>1</v>
+      </c>
+      <c r="J78" s="31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="29" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A79" s="15">
+        <v>78</v>
+      </c>
+      <c r="B79" s="33"/>
+      <c r="C79" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G79" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H79" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="24">
+        <v>1</v>
+      </c>
+      <c r="J79" s="31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A80" s="15">
+        <v>79</v>
+      </c>
+      <c r="B80" s="33"/>
+      <c r="C80" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I80" s="24">
+        <v>1</v>
+      </c>
+      <c r="K80" s="15"/>
+    </row>
+    <row r="81" spans="1:11" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A81" s="15">
+        <v>80</v>
+      </c>
+      <c r="B81" s="33"/>
+      <c r="C81" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="24">
+        <v>1</v>
+      </c>
+      <c r="K81" s="15"/>
+    </row>
+    <row r="82" spans="1:11" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A82" s="15">
+        <v>81</v>
+      </c>
+      <c r="B82" s="33"/>
+      <c r="C82" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" s="24">
+        <v>1</v>
+      </c>
+      <c r="K82" s="15"/>
+    </row>
+    <row r="83" spans="1:11" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A83" s="15">
+        <v>82</v>
+      </c>
+      <c r="B83" s="33"/>
+      <c r="C83" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" s="24">
+        <v>1</v>
+      </c>
+      <c r="K83" s="15"/>
+    </row>
+    <row r="84" spans="1:11" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A84" s="15">
+        <v>83</v>
+      </c>
+      <c r="B84" s="33"/>
+      <c r="C84" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" s="24">
+        <v>1</v>
+      </c>
+      <c r="K84" s="15"/>
+    </row>
+    <row r="85" spans="1:11" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A85" s="15">
+        <v>84</v>
+      </c>
+      <c r="B85" s="33"/>
+      <c r="C85" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="E78" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="38" t="s">
+      <c r="D85" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="G78" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="H78" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I78" s="24">
-        <v>1</v>
-      </c>
-      <c r="J78" s="41" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
-        <v>78</v>
-      </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="G79" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="H79" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I79" s="24">
-        <v>1</v>
-      </c>
-      <c r="J79" s="41" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
-        <v>79</v>
-      </c>
-      <c r="B80" s="28"/>
-      <c r="C80" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="G80" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="H80" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="I80" s="24">
-        <v>1</v>
-      </c>
-      <c r="K80" s="15"/>
-    </row>
-    <row r="81" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
-        <v>80</v>
-      </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="G81" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="H81" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I81" s="24">
-        <v>1</v>
-      </c>
-      <c r="K81" s="15"/>
-    </row>
-    <row r="82" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
-        <v>81</v>
-      </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="G82" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="H82" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I82" s="24">
-        <v>1</v>
-      </c>
-      <c r="K82" s="15"/>
-    </row>
-    <row r="83" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
-        <v>82</v>
-      </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="G83" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="H83" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" s="24">
-        <v>1</v>
-      </c>
-      <c r="K83" s="15"/>
-    </row>
-    <row r="84" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
-        <v>83</v>
-      </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="G84" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="H84" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I84" s="24">
-        <v>1</v>
-      </c>
-      <c r="K84" s="15"/>
-    </row>
-    <row r="85" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
-        <v>84</v>
-      </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>256</v>
-      </c>
       <c r="E85" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="G85" s="37" t="s">
+      <c r="F85" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="H85" s="37" t="s">
+      <c r="G85" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H85" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I85" s="24">
@@ -3782,71 +3844,71 @@
       </c>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
+    <row r="86" spans="1:11" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A86" s="30">
         <v>85</v>
       </c>
-      <c r="B86" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="C86" s="35" t="s">
+      <c r="B86" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="C86" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86" s="25">
+        <v>1</v>
+      </c>
+      <c r="K86" s="30"/>
+    </row>
+    <row r="87" spans="1:11" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A87" s="30">
+        <v>86</v>
+      </c>
+      <c r="B87" s="35"/>
+      <c r="C87" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E86" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="35" t="s">
+      <c r="D87" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="G86" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="H86" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="I86" s="25">
-        <v>1</v>
-      </c>
-      <c r="K86" s="14"/>
-    </row>
-    <row r="87" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
-        <v>86</v>
-      </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="I87" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7">
+        <v>122</v>
+      </c>
+      <c r="I87" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A88" s="15">
         <v>87</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C88" s="29" t="s">
         <v>244</v>
       </c>
       <c r="D88" s="15" t="s">
@@ -3855,13 +3917,13 @@
       <c r="E88" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="38" t="s">
+      <c r="F88" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="G88" s="37" t="s">
+      <c r="G88" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="H88" s="37" t="s">
+      <c r="H88" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I88" s="24">
@@ -3869,12 +3931,12 @@
       </c>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+    <row r="89" spans="1:11" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A89" s="15">
         <v>88</v>
       </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="37" t="s">
+      <c r="B89" s="36"/>
+      <c r="C89" s="29" t="s">
         <v>243</v>
       </c>
       <c r="D89" s="15" t="s">
@@ -3883,13 +3945,13 @@
       <c r="E89" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="38" t="s">
+      <c r="F89" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="G89" s="37" t="s">
+      <c r="G89" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="H89" s="37" t="s">
+      <c r="H89" s="29" t="s">
         <v>241</v>
       </c>
       <c r="I89" s="24">
@@ -3897,12 +3959,12 @@
       </c>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
+    <row r="90" spans="1:11" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A90" s="15">
         <v>89</v>
       </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="37" t="s">
+      <c r="B90" s="36"/>
+      <c r="C90" s="29" t="s">
         <v>240</v>
       </c>
       <c r="D90" s="15" t="s">
@@ -3911,13 +3973,13 @@
       <c r="E90" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="38" t="s">
+      <c r="F90" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="G90" s="37" t="s">
+      <c r="G90" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="H90" s="37" t="s">
+      <c r="H90" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I90" s="24">
@@ -3925,43 +3987,217 @@
       </c>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
+    <row r="91" spans="1:11" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A91" s="30">
         <v>90</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="E91" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="36" t="s">
+      <c r="E91" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="G91" s="35" t="s">
+      <c r="G91" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="H91" s="35" t="s">
+      <c r="H91" s="26" t="s">
         <v>23</v>
       </c>
       <c r="I91" s="25">
         <v>1</v>
       </c>
-      <c r="K91" s="14"/>
+      <c r="K91" s="30"/>
+    </row>
+    <row r="92" spans="1:11" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A92" s="15">
+        <v>91</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="G92" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="H92" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" s="24">
+        <v>1</v>
+      </c>
+      <c r="J92" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="K92" s="15"/>
+    </row>
+    <row r="93" spans="1:11" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A93" s="15">
+        <v>92</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="G93" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="H93" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" s="24">
+        <v>1</v>
+      </c>
+      <c r="J93" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="K93" s="15"/>
+    </row>
+    <row r="94" spans="1:11" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A94" s="15">
+        <v>93</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="D94" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="G94" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="H94" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I94" s="24">
+        <v>1</v>
+      </c>
+      <c r="J94" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K94" s="15"/>
+    </row>
+    <row r="95" spans="1:11" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A95" s="30">
+        <v>94</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G95" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="H95" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="25">
+        <v>1</v>
+      </c>
+      <c r="K95" s="30"/>
+    </row>
+    <row r="96" spans="1:11" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A96" s="30">
+        <v>95</v>
+      </c>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="G96" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" s="25">
+        <v>1</v>
+      </c>
+      <c r="K96" s="30"/>
+    </row>
+    <row r="97" spans="1:11" s="26" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A97" s="30">
+        <v>96</v>
+      </c>
+      <c r="B97" s="45"/>
+      <c r="C97" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="G97" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="H97" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" s="25">
+        <v>1</v>
+      </c>
+      <c r="K97" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="B48:B50"/>
+  <mergeCells count="17">
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C96"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B52:B62"/>
     <mergeCell ref="B46:B47"/>
@@ -3971,6 +4207,11 @@
     <mergeCell ref="B33:B40"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -3980,9 +4221,13 @@
     <hyperlink ref="F89" r:id="rId4"/>
     <hyperlink ref="F90" r:id="rId5"/>
     <hyperlink ref="F91" r:id="rId6"/>
+    <hyperlink ref="F92" r:id="rId7"/>
+    <hyperlink ref="F93" r:id="rId8"/>
+    <hyperlink ref="F94" r:id="rId9"/>
+    <hyperlink ref="F95" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -4040,7 +4285,7 @@
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
@@ -4066,7 +4311,7 @@
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="43"/>
       <c r="C3" t="s">
         <v>196</v>
       </c>
@@ -4087,7 +4332,7 @@
       <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="43"/>
       <c r="C4" t="s">
         <v>198</v>
       </c>
@@ -4108,7 +4353,7 @@
       <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="43"/>
       <c r="C5" t="s">
         <v>61</v>
       </c>
@@ -4129,7 +4374,7 @@
       <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="43"/>
       <c r="C6" t="s">
         <v>201</v>
       </c>
@@ -4150,7 +4395,7 @@
       <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="43"/>
       <c r="C7" t="s">
         <v>203</v>
       </c>
@@ -4171,7 +4416,7 @@
       <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="43"/>
       <c r="C8" t="s">
         <v>205</v>
       </c>
@@ -4192,7 +4437,7 @@
       <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="43"/>
       <c r="C9" t="s">
         <v>207</v>
       </c>
@@ -4213,7 +4458,7 @@
       <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="43"/>
       <c r="C10" t="s">
         <v>209</v>
       </c>
@@ -4234,7 +4479,7 @@
       <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="42" t="s">
         <v>210</v>
       </c>
       <c r="C11" t="s">
@@ -4254,7 +4499,7 @@
       <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="43"/>
       <c r="C12" t="s">
         <v>198</v>
       </c>
@@ -4272,7 +4517,7 @@
       <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="43"/>
       <c r="C13" t="s">
         <v>61</v>
       </c>
@@ -4290,7 +4535,7 @@
       <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="43"/>
       <c r="C14" t="s">
         <v>216</v>
       </c>
@@ -4308,7 +4553,7 @@
       <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="43"/>
       <c r="C15" t="s">
         <v>66</v>
       </c>
